--- a/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
@@ -863,10 +863,10 @@
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
         <v>2.75</v>
@@ -992,10 +992,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AS6" t="n">
         <v>1.25</v>
@@ -1463,10 +1463,10 @@
         <v>1.08</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="W7" t="n">
         <v>2.63</v>
@@ -1699,98 +1699,98 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="J9" t="n">
-        <v>6.2</v>
+        <v>8.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="L9" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>2.27</v>
+        <v>2.52</v>
       </c>
       <c r="T9" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="X9" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z9" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AB9" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC9" t="n">
         <v>150</v>
       </c>
-      <c r="AC9" t="n">
-        <v>75</v>
-      </c>
       <c r="AD9" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="AH9" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AI9" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="AK9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL9" t="n">
-        <v>8.75</v>
+        <v>7.2</v>
       </c>
       <c r="AM9" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AO9" t="n">
         <v>600</v>
@@ -1995,10 +1995,10 @@
         <v>3.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -2007,16 +2007,16 @@
         <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S11" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U11" t="n">
         <v>1.44</v>
@@ -2140,13 +2140,13 @@
         <v>15</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
         <v>21</v>
       </c>
       <c r="O12" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P12" t="n">
         <v>6.5</v>
@@ -2158,10 +2158,10 @@
         <v>2.88</v>
       </c>
       <c r="S12" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="U12" t="n">
         <v>1.2</v>
@@ -2281,13 +2281,13 @@
         <v>3.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
         <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P13" t="n">
         <v>2.5</v>
@@ -2302,7 +2302,7 @@
         <v>5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U13" t="n">
         <v>1.57</v>
@@ -2368,10 +2368,10 @@
         <v>1000</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AR13" t="n">
         <v>4.1</v>
@@ -2430,28 +2430,28 @@
         <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U14" t="n">
         <v>1.44</v>
@@ -2579,13 +2579,13 @@
         <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
         <v>4.33</v>
@@ -2597,10 +2597,10 @@
         <v>2.2</v>
       </c>
       <c r="S15" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T15" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U15" t="n">
         <v>1.3</v>
@@ -2724,13 +2724,13 @@
         <v>3.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
         <v>7.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2745,7 +2745,7 @@
         <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U16" t="n">
         <v>1.5</v>
@@ -3375,10 +3375,10 @@
         <v>101</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3415,13 +3415,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J21" t="n">
         <v>3.1</v>
@@ -3430,7 +3430,7 @@
         <v>2.3</v>
       </c>
       <c r="L21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -3556,30 +3556,30 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="K22" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q22" t="n">
         <v>1.7</v>
@@ -3588,10 +3588,10 @@
         <v>1.91</v>
       </c>
       <c r="S22" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="T22" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="U22" t="n">
         <v>1.4</v>
@@ -3603,16 +3603,16 @@
         <v>1.57</v>
       </c>
       <c r="X22" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB22" t="n">
         <v>22</v>
@@ -3633,16 +3633,16 @@
         <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK22" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AL22" t="n">
         <v>40</v>
@@ -3651,7 +3651,7 @@
         <v>25</v>
       </c>
       <c r="AN22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO22" t="n">
         <v>300</v>
@@ -4005,16 +4005,16 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U25" t="n">
         <v>1.36</v>
@@ -4116,13 +4116,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H26" t="n">
         <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J26" t="n">
         <v>3.4</v>
@@ -4131,7 +4131,7 @@
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -4170,10 +4170,10 @@
         <v>1.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA26" t="n">
         <v>10</v>
@@ -4203,7 +4203,7 @@
         <v>7.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
         <v>11</v>
@@ -4212,10 +4212,10 @@
         <v>29</v>
       </c>
       <c r="AM26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO26" t="n">
         <v>401</v>
@@ -4256,41 +4256,107 @@
           <t>Cork City</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.1</v>
+      </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr"/>
+      <c r="O27" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>35</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>101</v>
+      </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
@@ -4340,7 +4406,7 @@
         <v>2.63</v>
       </c>
       <c r="K28" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L28" t="n">
         <v>3.75</v>
@@ -4352,22 +4418,22 @@
         <v>13</v>
       </c>
       <c r="O28" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R28" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S28" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T28" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U28" t="n">
         <v>1.33</v>
@@ -4382,7 +4448,7 @@
         <v>2.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z28" t="n">
         <v>11</v>
@@ -4418,7 +4484,7 @@
         <v>19</v>
       </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL28" t="n">
         <v>41</v>
@@ -4638,22 +4704,22 @@
         <v>17</v>
       </c>
       <c r="O30" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R30" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S30" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U30" t="n">
         <v>1.3</v>
@@ -4721,10 +4787,10 @@
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="31">
@@ -6463,22 +6529,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H43" t="n">
         <v>3.4</v>
       </c>
       <c r="I43" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>2.2</v>
       </c>
       <c r="L43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.05</v>
@@ -6559,7 +6625,7 @@
         <v>29</v>
       </c>
       <c r="AM43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN43" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
@@ -722,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="R2" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="H3" t="n">
         <v>4.75</v>
@@ -842,7 +842,7 @@
         <v>7.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K3" t="n">
         <v>2.4</v>
@@ -863,10 +863,10 @@
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
         <v>2.75</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H4" t="n">
         <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
@@ -998,16 +998,16 @@
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
         <v>6</v>
@@ -1031,7 +1031,7 @@
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
@@ -1061,7 +1061,7 @@
         <v>6.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>12</v>
@@ -1070,7 +1070,7 @@
         <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
         <v>41</v>
@@ -1085,7 +1085,7 @@
         <v>1.78</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AS4" t="n">
         <v>1.19</v>
@@ -1123,19 +1123,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L5" t="n">
         <v>3.75</v>
@@ -1156,7 +1156,7 @@
         <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="n">
         <v>5.5</v>
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
@@ -1284,7 +1284,7 @@
         <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
@@ -1305,7 +1305,7 @@
         <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>4.5</v>
@@ -1421,22 +1421,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.18</v>
@@ -1451,10 +1451,10 @@
         <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
         <v>8</v>
@@ -1478,13 +1478,13 @@
         <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
         <v>12</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
         <v>29</v>
@@ -1493,7 +1493,7 @@
         <v>51</v>
       </c>
       <c r="AE7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AF7" t="n">
         <v>6</v>
@@ -1502,16 +1502,16 @@
         <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
@@ -1850,22 +1850,22 @@
         <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S10" t="n">
         <v>3.5</v>
@@ -1995,28 +1995,28 @@
         <v>3.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U11" t="n">
         <v>1.44</v>
@@ -2122,31 +2122,31 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="H12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
         <v>21</v>
       </c>
       <c r="J12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L12" t="n">
         <v>15</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
         <v>21</v>
       </c>
       <c r="O12" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P12" t="n">
         <v>6.5</v>
@@ -2158,25 +2158,25 @@
         <v>2.88</v>
       </c>
       <c r="S12" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="V12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="W12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
         <v>6.5</v>
@@ -2191,13 +2191,13 @@
         <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
         <v>34</v>
@@ -2221,7 +2221,7 @@
         <v>151</v>
       </c>
       <c r="AN12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AO12" t="n">
         <v>101</v>
@@ -2281,13 +2281,13 @@
         <v>3.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
         <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P13" t="n">
         <v>2.5</v>
@@ -2302,7 +2302,7 @@
         <v>5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U13" t="n">
         <v>1.57</v>
@@ -2368,10 +2368,10 @@
         <v>1000</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="AR13" t="n">
         <v>4.1</v>
@@ -2430,13 +2430,13 @@
         <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2451,7 +2451,7 @@
         <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U14" t="n">
         <v>1.44</v>
@@ -2579,13 +2579,13 @@
         <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
         <v>4.33</v>
@@ -2597,10 +2597,10 @@
         <v>2.2</v>
       </c>
       <c r="S15" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T15" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U15" t="n">
         <v>1.3</v>
@@ -2724,13 +2724,13 @@
         <v>3.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
         <v>7.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2745,7 +2745,7 @@
         <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U16" t="n">
         <v>1.5</v>
@@ -2847,106 +2847,106 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="I17" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="J17" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K17" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="L17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M17" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="N17" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="P17" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="R17" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="S17" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="U17" t="n">
         <v>1.65</v>
       </c>
       <c r="V17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W17" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="X17" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="Z17" t="n">
         <v>8</v>
       </c>
       <c r="AA17" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE17" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="AF17" t="n">
         <v>5.6</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI17" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AJ17" t="n">
         <v>24</v>
       </c>
       <c r="AK17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM17" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN17" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AO17" t="n">
         <v>101</v>
@@ -2988,16 +2988,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H18" t="n">
         <v>2.95</v>
       </c>
       <c r="I18" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K18" t="n">
         <v>1.9</v>
@@ -3009,22 +3009,22 @@
         <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P18" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R18" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="T18" t="n">
         <v>1.15</v>
@@ -3036,19 +3036,19 @@
         <v>2.25</v>
       </c>
       <c r="W18" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="X18" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="Z18" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB18" t="n">
         <v>15</v>
@@ -3060,13 +3060,13 @@
         <v>45</v>
       </c>
       <c r="AE18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH18" t="n">
         <v>150</v>
@@ -3078,16 +3078,16 @@
         <v>27</v>
       </c>
       <c r="AK18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN18" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AO18" t="n">
         <v>101</v>
@@ -3270,22 +3270,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H20" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J20" t="n">
         <v>4.33</v>
       </c>
       <c r="K20" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M20" t="n">
         <v>1.13</v>
@@ -3294,22 +3294,22 @@
         <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P20" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T20" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U20" t="n">
         <v>1.62</v>
@@ -3351,16 +3351,16 @@
         <v>19</v>
       </c>
       <c r="AH20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AJ20" t="n">
         <v>9.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>21</v>
@@ -3556,105 +3556,105 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="J22" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L22" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P22" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="R22" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="S22" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="U22" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V22" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="W22" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X22" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK22" t="n">
         <v>11.75</v>
       </c>
-      <c r="AA22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AL22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM22" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AN22" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AO22" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3834,22 +3834,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H24" t="n">
         <v>2.9</v>
       </c>
       <c r="I24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J24" t="n">
         <v>3.4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.25</v>
       </c>
       <c r="K24" t="n">
         <v>1.83</v>
       </c>
       <c r="L24" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>1.13</v>
@@ -3882,10 +3882,10 @@
         <v>2.2</v>
       </c>
       <c r="W24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y24" t="n">
         <v>6</v>
@@ -3900,34 +3900,34 @@
         <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD24" t="n">
         <v>41</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF24" t="n">
         <v>6</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
         <v>81</v>
       </c>
       <c r="AI24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK24" t="n">
         <v>13</v>
       </c>
       <c r="AL24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
         <v>34</v>
@@ -4005,16 +4005,16 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R25" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U25" t="n">
         <v>1.36</v>
@@ -4116,28 +4116,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -4146,16 +4146,16 @@
         <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U26" t="n">
         <v>1.5</v>
@@ -4164,10 +4164,10 @@
         <v>2.5</v>
       </c>
       <c r="W26" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="X26" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y26" t="n">
         <v>7</v>
@@ -4179,19 +4179,19 @@
         <v>10</v>
       </c>
       <c r="AB26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD26" t="n">
         <v>34</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG26" t="n">
         <v>17</v>
@@ -4200,7 +4200,7 @@
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="n">
         <v>13</v>
@@ -4257,105 +4257,109 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="L27" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9</v>
+      </c>
       <c r="O27" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.99</v>
+        <v>2.15</v>
       </c>
       <c r="R27" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="S27" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U27" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="V27" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="W27" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="X27" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Z27" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG27" t="n">
         <v>15</v>
       </c>
-      <c r="AD27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12</v>
-      </c>
       <c r="AH27" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AJ27" t="n">
         <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AO27" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4394,16 +4398,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I28" t="n">
         <v>3.3</v>
       </c>
-      <c r="I28" t="n">
-        <v>3.4</v>
-      </c>
       <c r="J28" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K28" t="n">
         <v>2.25</v>
@@ -4442,7 +4446,7 @@
         <v>3.25</v>
       </c>
       <c r="W28" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X28" t="n">
         <v>2.2</v>
@@ -4466,7 +4470,7 @@
         <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
         <v>6.5</v>
@@ -4487,7 +4491,7 @@
         <v>12</v>
       </c>
       <c r="AL28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM28" t="n">
         <v>26</v>
@@ -4583,10 +4587,10 @@
         <v>3.4</v>
       </c>
       <c r="W29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X29" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Y29" t="n">
         <v>11</v>
@@ -4704,22 +4708,22 @@
         <v>17</v>
       </c>
       <c r="O30" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P30" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R30" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S30" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T30" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U30" t="n">
         <v>1.3</v>
@@ -4787,10 +4791,10 @@
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="31">
@@ -4843,10 +4847,10 @@
         <v>3.25</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
         <v>1.25</v>
@@ -4855,10 +4859,10 @@
         <v>3.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
         <v>3</v>
@@ -5251,7 +5255,7 @@
         <v>1.18</v>
       </c>
       <c r="H34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I34" t="n">
         <v>12</v>
@@ -5263,49 +5267,49 @@
         <v>2.88</v>
       </c>
       <c r="L34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M34" t="n">
         <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O34" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z34" t="n">
         <v>6</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V34" t="n">
-        <v>4</v>
-      </c>
-      <c r="W34" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>6.5</v>
       </c>
       <c r="AA34" t="n">
         <v>10</v>
@@ -5317,13 +5321,13 @@
         <v>11</v>
       </c>
       <c r="AD34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG34" t="n">
         <v>29</v>
@@ -5332,13 +5336,13 @@
         <v>81</v>
       </c>
       <c r="AI34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ34" t="n">
         <v>51</v>
       </c>
       <c r="AK34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL34" t="n">
         <v>151</v>
@@ -5347,10 +5351,10 @@
         <v>81</v>
       </c>
       <c r="AN34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO34" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
@@ -5534,22 +5538,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H36" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I36" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="J36" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K36" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L36" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
@@ -5558,22 +5562,22 @@
         <v>8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P36" t="n">
         <v>3.6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R36" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S36" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="T36" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U36" t="n">
         <v>1.36</v>
@@ -5582,10 +5586,10 @@
         <v>2.9</v>
       </c>
       <c r="W36" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="X36" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="Y36" t="n">
         <v>15</v>
@@ -5594,49 +5598,49 @@
         <v>32</v>
       </c>
       <c r="AA36" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB36" t="n">
         <v>100</v>
       </c>
       <c r="AC36" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD36" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE36" t="n">
         <v>8</v>
       </c>
       <c r="AF36" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AK36" t="n">
         <v>8</v>
       </c>
-      <c r="AG36" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AL36" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AM36" t="n">
         <v>12</v>
       </c>
       <c r="AN36" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO36" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -5816,109 +5820,109 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="J38" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K38" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="L38" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="O38" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="P38" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="R38" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S38" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="T38" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="U38" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V38" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="W38" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="X38" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Z38" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AA38" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AB38" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AC38" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AD38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN38" t="n">
         <v>37</v>
       </c>
-      <c r="AE38" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>35</v>
-      </c>
       <c r="AO38" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -5957,109 +5961,109 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J39" t="n">
         <v>2.62</v>
       </c>
       <c r="K39" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L39" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P39" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="R39" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S39" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="T39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U39" t="n">
         <v>1.39</v>
       </c>
-      <c r="U39" t="n">
-        <v>1.37</v>
-      </c>
       <c r="V39" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="W39" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X39" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="Z39" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA39" t="n">
         <v>8.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AD39" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE39" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AL39" t="n">
         <v>50</v>
       </c>
-      <c r="AI39" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>45</v>
-      </c>
       <c r="AM39" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AN39" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO39" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6122,10 +6126,10 @@
         <v>10</v>
       </c>
       <c r="O40" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q40" t="n">
         <v>2.05</v>
@@ -6134,10 +6138,10 @@
         <v>1.75</v>
       </c>
       <c r="S40" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T40" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U40" t="n">
         <v>1.44</v>
@@ -6146,10 +6150,10 @@
         <v>2.63</v>
       </c>
       <c r="W40" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X40" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y40" t="n">
         <v>7.5</v>
@@ -6290,7 +6294,7 @@
         <v>2</v>
       </c>
       <c r="X41" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Y41" t="n">
         <v>7</v>
@@ -6384,16 +6388,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I42" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K42" t="n">
         <v>1.91</v>
@@ -6402,10 +6406,10 @@
         <v>5.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O42" t="n">
         <v>1.53</v>
@@ -6432,19 +6436,19 @@
         <v>2.2</v>
       </c>
       <c r="W42" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="X42" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y42" t="n">
         <v>5</v>
       </c>
       <c r="Z42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB42" t="n">
         <v>15</v>
@@ -6459,28 +6463,28 @@
         <v>6</v>
       </c>
       <c r="AF42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG42" t="n">
         <v>21</v>
       </c>
       <c r="AH42" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL42" t="n">
         <v>51</v>
       </c>
       <c r="AM42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN42" t="n">
         <v>51</v>
@@ -6547,13 +6551,13 @@
         <v>3.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
         <v>11</v>
       </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P43" t="n">
         <v>3.75</v>
@@ -6568,7 +6572,7 @@
         <v>3.25</v>
       </c>
       <c r="T43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U43" t="n">
         <v>1.4</v>
@@ -6688,13 +6692,13 @@
         <v>3.2</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
         <v>11</v>
       </c>
       <c r="O44" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P44" t="n">
         <v>3.75</v>
@@ -6709,7 +6713,7 @@
         <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U44" t="n">
         <v>1.4</v>
@@ -6829,13 +6833,13 @@
         <v>5.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
         <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P45" t="n">
         <v>3.5</v>
@@ -6850,7 +6854,7 @@
         <v>3.4</v>
       </c>
       <c r="T45" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U45" t="n">
         <v>1.4</v>
@@ -6970,13 +6974,13 @@
         <v>4.5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -6985,13 +6989,13 @@
         <v>2.15</v>
       </c>
       <c r="R46" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S46" t="n">
         <v>4</v>
       </c>
       <c r="T46" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U46" t="n">
         <v>1.44</v>
@@ -7111,28 +7115,28 @@
         <v>4.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
         <v>9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P47" t="n">
         <v>3.25</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R47" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S47" t="n">
         <v>3.75</v>
       </c>
       <c r="T47" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U47" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS47"/>
+  <dimension ref="A1:AS48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
@@ -722,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="H3" t="n">
         <v>4.75</v>
@@ -842,7 +842,7 @@
         <v>7.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K3" t="n">
         <v>2.4</v>
@@ -863,10 +863,10 @@
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
         <v>2.75</v>
@@ -974,64 +974,64 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y4" t="n">
         <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
@@ -1040,7 +1040,7 @@
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD4" t="n">
         <v>41</v>
@@ -1049,19 +1049,19 @@
         <v>6</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG4" t="n">
         <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="n">
         <v>12</v>
@@ -1073,7 +1073,7 @@
         <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO4" t="n">
         <v>101</v>
@@ -1085,10 +1085,10 @@
         <v>1.78</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="5">
@@ -1123,19 +1123,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>3.75</v>
@@ -1156,7 +1156,7 @@
         <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>5.5</v>
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
@@ -1284,7 +1284,7 @@
         <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
@@ -1305,7 +1305,7 @@
         <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>4.5</v>
@@ -1856,16 +1856,16 @@
         <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
         <v>3.5</v>
@@ -1995,10 +1995,10 @@
         <v>3.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2007,10 +2007,10 @@
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="H12" t="n">
         <v>8</v>
@@ -2137,25 +2137,25 @@
         <v>3.1</v>
       </c>
       <c r="L12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R12" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S12" t="n">
         <v>2</v>
@@ -2170,19 +2170,19 @@
         <v>4</v>
       </c>
       <c r="W12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
         <v>6.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB12" t="n">
         <v>6.5</v>
@@ -2234,7 +2234,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bZMnhm9O</t>
+          <t>dYvQwW8r</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2244,146 +2244,138 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>CHINA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>U. Magdalena</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S13" t="n">
         <v>3.4</v>
       </c>
-      <c r="K13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
       <c r="T13" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="V13" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="W13" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="X13" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="Y13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF13" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AG13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI13" t="n">
         <v>11</v>
       </c>
-      <c r="AA13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>7</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
         <v>12</v>
       </c>
       <c r="AL13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
         <v>29</v>
       </c>
       <c r="AN13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>1.23</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>xQsM6nOH</t>
+          <t>bZMnhm9O</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2393,7 +2385,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2403,136 +2395,136 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>U. Magdalena</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.57</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="V14" t="n">
         <v>2.25</v>
       </c>
-      <c r="K14" t="n">
+      <c r="W14" t="n">
         <v>2.1</v>
       </c>
-      <c r="L14" t="n">
+      <c r="X14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.5</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>5.5</v>
-      </c>
       <c r="Z14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE14" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AF14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL14" t="n">
         <v>34</v>
       </c>
-      <c r="AE14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ14" t="n">
+      <c r="AM14" t="n">
         <v>29</v>
       </c>
-      <c r="AK14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>51</v>
-      </c>
       <c r="AN14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO14" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.23</v>
+        <v>1.88</v>
       </c>
       <c r="AR14" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>QmkFTT6r</t>
+          <t>xQsM6nOH</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2542,119 +2534,119 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF15" t="n">
         <v>7.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N15" t="n">
-        <v>15</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>9.5</v>
       </c>
       <c r="AG15" t="n">
         <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK15" t="n">
         <v>19</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>21</v>
-      </c>
       <c r="AL15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM15" t="n">
         <v>51</v>
@@ -2663,21 +2655,25 @@
         <v>51</v>
       </c>
       <c r="AO15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>2.23</v>
+      </c>
       <c r="AR15" t="n">
-        <v>2.03</v>
+        <v>3.2</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.83</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AmyaclaB</t>
+          <t>QmkFTT6r</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2687,138 +2683,142 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Manta</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.88</v>
+        <v>1.35</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L16" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V16" t="n">
         <v>3.4</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="W16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Y16" t="n">
         <v>7.5</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>8</v>
-      </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC16" t="n">
         <v>11</v>
       </c>
-      <c r="AB16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>23</v>
-      </c>
       <c r="AD16" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AK16" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AO16" t="n">
         <v>301</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
+      <c r="AR16" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>l0FjzriB</t>
+          <t>AmyaclaB</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2828,128 +2828,128 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Manta</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2.82</v>
       </c>
       <c r="H17" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>4.6</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.8</v>
       </c>
-      <c r="L17" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2.27</v>
-      </c>
       <c r="X17" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
         <v>23</v>
       </c>
       <c r="AD17" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AO17" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EoVWFD5d</t>
+          <t>l0FjzriB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2979,61 +2979,61 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>National Bank Egypt</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="H18" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J18" t="n">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="K18" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="L18" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="M18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.13</v>
       </c>
-      <c r="N18" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.15</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="V18" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="W18" t="n">
         <v>2.27</v>
@@ -3042,52 +3042,52 @@
         <v>1.57</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AA18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AD18" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE18" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="AF18" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH18" t="n">
         <v>150</v>
       </c>
       <c r="AI18" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AJ18" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL18" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO18" t="n">
         <v>101</v>
@@ -3100,7 +3100,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hWtOHZzp</t>
+          <t>EoVWFD5d</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3120,106 +3120,106 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>National Bank Egypt</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>El Gouna</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="H19" t="n">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="I19" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="K19" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="L19" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="P19" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="R19" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="U19" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="V19" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="W19" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="X19" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AD19" t="n">
         <v>45</v>
       </c>
       <c r="AE19" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="AF19" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AG19" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>150</v>
       </c>
       <c r="AI19" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="n">
         <v>100</v>
@@ -3241,7 +3241,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SIz2tYfL</t>
+          <t>hWtOHZzp</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3251,142 +3251,138 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AC Ajaccio</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>El Gouna</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>4.33</v>
+        <v>2.8</v>
       </c>
       <c r="K20" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="L20" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="M20" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="R20" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S20" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="T20" t="n">
         <v>1.13</v>
       </c>
       <c r="U20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V20" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="W20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>8</v>
+        <v>4.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>15</v>
+        <v>9.25</v>
       </c>
       <c r="AB20" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AC20" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AD20" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="AI20" t="n">
-        <v>5.5</v>
+        <v>8.75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="AM20" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AN20" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AO20" t="n">
         <v>101</v>
       </c>
-      <c r="AP20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>1.78</v>
-      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>jc5IAq77</t>
+          <t>SIz2tYfL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3396,138 +3392,142 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Chennaiyin</t>
+          <t>AC Ajaccio</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>North East Utd</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.55</v>
+        <v>3.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="I21" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L21" t="n">
         <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="P21" t="n">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7</v>
+        <v>2.88</v>
       </c>
       <c r="R21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>6</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP21" t="n">
         <v>2.1</v>
       </c>
-      <c r="S21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>126</v>
-      </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
+      <c r="AQ21" t="n">
+        <v>1.78</v>
+      </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bet97QlJ</t>
+          <t>jc5IAq77</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3537,124 +3537,128 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Chennaiyin</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>North East Utd</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.02</v>
+        <v>2.75</v>
       </c>
       <c r="H22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J22" t="n">
         <v>3.25</v>
       </c>
-      <c r="I22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.6</v>
-      </c>
       <c r="K22" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>13</v>
+      </c>
       <c r="O22" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>3.15</v>
+        <v>4.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="R22" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="S22" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="T22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.33</v>
       </c>
-      <c r="U22" t="n">
-        <v>1.39</v>
-      </c>
       <c r="V22" t="n">
-        <v>2.57</v>
+        <v>3.25</v>
       </c>
       <c r="W22" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X22" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="Y22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AD22" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE22" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AG22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>13</v>
       </c>
-      <c r="AH22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ22" t="n">
+      <c r="AK22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM22" t="n">
         <v>19</v>
       </c>
-      <c r="AK22" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>32</v>
-      </c>
       <c r="AN22" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AO22" t="n">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3664,7 +3668,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>d0PGtY33</t>
+          <t>bet97QlJ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3674,128 +3678,124 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="K23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N23" t="n">
-        <v>9</v>
-      </c>
+        <v>3.45</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="R23" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="S23" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="T23" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="U23" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="V23" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="W23" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="X23" t="n">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>11.75</v>
       </c>
       <c r="AA23" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
         <v>17</v>
       </c>
       <c r="AD23" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE23" t="n">
-        <v>8.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF23" t="n">
         <v>6.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>11.75</v>
       </c>
       <c r="AH23" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AN23" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AO23" t="n">
-        <v>401</v>
+        <v>300</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3805,7 +3805,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hSIPvCYF</t>
+          <t>d0PGtY33</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3825,118 +3825,118 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Galway</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.45</v>
+        <v>1.82</v>
       </c>
       <c r="H24" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="K24" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="T24" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="U24" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="V24" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="W24" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="X24" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI24" t="n">
         <v>11</v>
       </c>
-      <c r="AB24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD24" t="n">
+      <c r="AJ24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM24" t="n">
         <v>41</v>
       </c>
-      <c r="AE24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>34</v>
-      </c>
       <c r="AN24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO24" t="n">
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -3946,7 +3946,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>bPLXxj3S</t>
+          <t>hSIPvCYF</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3966,118 +3966,118 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Galway</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.33</v>
+        <v>2.45</v>
       </c>
       <c r="H25" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="I25" t="n">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>6</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.5</v>
       </c>
-      <c r="K25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N25" t="n">
-        <v>13</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V25" t="n">
-        <v>3</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA25" t="n">
         <v>11</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AB25" t="n">
         <v>23</v>
       </c>
-      <c r="AA25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>51</v>
-      </c>
       <c r="AC25" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AD25" t="n">
         <v>41</v>
       </c>
       <c r="AE25" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="n">
         <v>7</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AN25" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AO25" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4087,7 +4087,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EqUkdNdK</t>
+          <t>bPLXxj3S</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4107,118 +4107,118 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>St. Patricks</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="H26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S26" t="n">
         <v>3.4</v>
       </c>
-      <c r="I26" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="T26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF26" t="n">
         <v>8.5</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM26" t="n">
         <v>13</v>
       </c>
-      <c r="AK26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM26" t="n">
+      <c r="AN26" t="n">
         <v>26</v>
       </c>
-      <c r="AN26" t="n">
-        <v>41</v>
-      </c>
       <c r="AO26" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4228,7 +4228,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>rcc4XTQk</t>
+          <t>EqUkdNdK</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4248,55 +4248,55 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>St. Patricks</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K27" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N27" t="n">
+        <v>8</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S27" t="n">
         <v>4</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N27" t="n">
-        <v>9</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T27" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U27" t="n">
         <v>1.5</v>
@@ -4305,25 +4305,25 @@
         <v>2.5</v>
       </c>
       <c r="W27" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="X27" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y27" t="n">
         <v>7</v>
       </c>
       <c r="Z27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA27" t="n">
         <v>10</v>
       </c>
-      <c r="AA27" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC27" t="n">
         <v>21</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>19</v>
       </c>
       <c r="AD27" t="n">
         <v>34</v>
@@ -4332,34 +4332,34 @@
         <v>8</v>
       </c>
       <c r="AF27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH27" t="n">
         <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN27" t="n">
         <v>41</v>
       </c>
       <c r="AO27" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4369,7 +4369,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>jXBp0OoQ</t>
+          <t>rcc4XTQk</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4379,113 +4379,113 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="n">
         <v>2.05</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.25</v>
       </c>
       <c r="L28" t="n">
         <v>3.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="R28" t="n">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T28" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="U28" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="V28" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="W28" t="n">
-        <v>1.58</v>
+        <v>1.91</v>
       </c>
       <c r="X28" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="Y28" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI28" t="n">
         <v>9</v>
       </c>
-      <c r="Z28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC28" t="n">
+      <c r="AJ28" t="n">
         <v>15</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>12</v>
@@ -4494,13 +4494,13 @@
         <v>34</v>
       </c>
       <c r="AM28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN28" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AO28" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OMkaymPG</t>
+          <t>jXBp0OoQ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4520,142 +4520,138 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="H29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I29" t="n">
         <v>3.6</v>
       </c>
-      <c r="I29" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>12</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S29" t="n">
         <v>2.75</v>
       </c>
-      <c r="K29" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N29" t="n">
-        <v>15</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.38</v>
-      </c>
       <c r="T29" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="U29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V29" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W29" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X29" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="Y29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z29" t="n">
         <v>11</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>12</v>
       </c>
       <c r="AA29" t="n">
         <v>9</v>
       </c>
       <c r="AB29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="n">
         <v>15</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI29" t="n">
         <v>13</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN29" t="n">
         <v>34</v>
       </c>
-      <c r="AM29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>26</v>
-      </c>
       <c r="AO29" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>1.88</v>
-      </c>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>f9CWIv9k</t>
+          <t>OMkaymPG</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4675,40 +4671,40 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="H30" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L30" t="n">
         <v>3.5</v>
       </c>
-      <c r="K30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.75</v>
-      </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4720,10 +4716,10 @@
         <v>2.35</v>
       </c>
       <c r="S30" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U30" t="n">
         <v>1.3</v>
@@ -4738,52 +4734,52 @@
         <v>2.38</v>
       </c>
       <c r="Y30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB30" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD30" t="n">
         <v>21</v>
       </c>
-      <c r="AD30" t="n">
-        <v>23</v>
-      </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="n">
         <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK30" t="n">
         <v>12</v>
       </c>
-      <c r="AK30" t="n">
-        <v>9</v>
-      </c>
       <c r="AL30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM30" t="n">
         <v>21</v>
       </c>
-      <c r="AM30" t="n">
-        <v>15</v>
-      </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
         <v>126</v>
@@ -4800,7 +4796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0MsXGIw2</t>
+          <t>f9CWIv9k</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4820,128 +4816,132 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.5</v>
       </c>
-      <c r="I31" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K31" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="L31" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
+        <v>17</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA31" t="n">
         <v>11</v>
       </c>
-      <c r="O31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V31" t="n">
-        <v>3</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>10</v>
-      </c>
       <c r="AB31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD31" t="n">
         <v>23</v>
       </c>
-      <c r="AC31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>26</v>
-      </c>
       <c r="AE31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG31" t="n">
         <v>12</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>41</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM31" t="n">
         <v>15</v>
       </c>
-      <c r="AK31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM31" t="n">
+      <c r="AN31" t="n">
         <v>21</v>
       </c>
-      <c r="AN31" t="n">
-        <v>26</v>
-      </c>
       <c r="AO31" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
+      <c r="AR31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0WxmiTL7</t>
+          <t>0MsXGIw2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4951,65 +4951,65 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Rakow</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="H32" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="J32" t="n">
-        <v>1.91</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P32" t="n">
         <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R32" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
         <v>3</v>
       </c>
       <c r="T32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U32" t="n">
         <v>1.36</v>
@@ -5018,61 +5018,61 @@
         <v>3</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="X32" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AB32" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AC32" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AD32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE32" t="n">
         <v>12</v>
       </c>
       <c r="AF32" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM32" t="n">
         <v>21</v>
       </c>
-      <c r="AH32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>51</v>
-      </c>
       <c r="AN32" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AO32" t="n">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5082,7 +5082,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0UwD6DSO</t>
+          <t>0WxmiTL7</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5097,123 +5097,123 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Rakow</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="J33" t="n">
-        <v>3.4</v>
+        <v>1.87</v>
       </c>
       <c r="K33" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="L33" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
         <v>3.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="S33" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
         <v>1.33</v>
       </c>
       <c r="U33" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V33" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Y33" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AC33" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AD33" t="n">
         <v>29</v>
       </c>
       <c r="AE33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF33" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AH33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>41</v>
       </c>
-      <c r="AI33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>13</v>
-      </c>
       <c r="AK33" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AL33" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AN33" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AO33" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5223,7 +5223,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GO2VJ1aC</t>
+          <t>0UwD6DSO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5233,142 +5233,138 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.18</v>
+        <v>2.75</v>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="J34" t="n">
-        <v>1.57</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="L34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N34" t="n">
         <v>11</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM34" t="n">
         <v>19</v>
       </c>
-      <c r="O34" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG34" t="n">
+      <c r="AN34" t="n">
         <v>29</v>
       </c>
-      <c r="AH34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>151</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>67</v>
-      </c>
       <c r="AO34" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>2.05</v>
-      </c>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4AlRix2K</t>
+          <t>GO2VJ1aC</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5378,138 +5374,142 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.73</v>
+        <v>1.18</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="I35" t="n">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="J35" t="n">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="K35" t="n">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="L35" t="n">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N35" t="n">
+        <v>21</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC35" t="n">
         <v>11</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB35" t="n">
+      <c r="AD35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF35" t="n">
         <v>13</v>
       </c>
-      <c r="AC35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD35" t="n">
+      <c r="AG35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI35" t="n">
         <v>26</v>
       </c>
-      <c r="AE35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH35" t="n">
+      <c r="AJ35" t="n">
         <v>51</v>
       </c>
-      <c r="AI35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>23</v>
-      </c>
       <c r="AK35" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AL35" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AM35" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AN35" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AO35" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
+      <c r="AR35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bkP1kuid</t>
+          <t>4AlRix2K</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5519,128 +5519,128 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.1</v>
+        <v>1.73</v>
       </c>
       <c r="H36" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>1.53</v>
+        <v>4.2</v>
       </c>
       <c r="J36" t="n">
-        <v>5.3</v>
+        <v>2.38</v>
       </c>
       <c r="K36" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="L36" t="n">
-        <v>2.07</v>
+        <v>4.75</v>
       </c>
       <c r="M36" t="n">
         <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O36" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="P36" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="R36" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="S36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V36" t="n">
         <v>2.75</v>
       </c>
-      <c r="T36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.9</v>
-      </c>
       <c r="W36" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X36" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="Y36" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC36" t="n">
         <v>15</v>
       </c>
-      <c r="Z36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>50</v>
-      </c>
       <c r="AD36" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AE36" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF36" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AG36" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AH36" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AI36" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="AJ36" t="n">
-        <v>7.4</v>
+        <v>23</v>
       </c>
       <c r="AK36" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AL36" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AM36" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AN36" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AO36" t="n">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -5650,7 +5650,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>nB5dBMDF</t>
+          <t>bkP1kuid</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5670,118 +5670,118 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.85</v>
+        <v>5.7</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>4.15</v>
       </c>
       <c r="I37" t="n">
-        <v>3.9</v>
+        <v>1.47</v>
       </c>
       <c r="J37" t="n">
-        <v>2.47</v>
+        <v>5.7</v>
       </c>
       <c r="K37" t="n">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="L37" t="n">
-        <v>4.45</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>120</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI37" t="n">
         <v>7.1</v>
       </c>
-      <c r="O37" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Y37" t="n">
+      <c r="AJ37" t="n">
         <v>7</v>
       </c>
-      <c r="Z37" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA37" t="n">
+      <c r="AK37" t="n">
         <v>8.25</v>
       </c>
-      <c r="AB37" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD37" t="n">
+      <c r="AL37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AN37" t="n">
         <v>26</v>
       </c>
-      <c r="AE37" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>45</v>
-      </c>
       <c r="AO37" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -5791,7 +5791,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Chky4v6k</t>
+          <t>nB5dBMDF</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5811,118 +5811,118 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.87</v>
+        <v>1.85</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.37</v>
+        <v>3.9</v>
       </c>
       <c r="J38" t="n">
-        <v>3.6</v>
+        <v>2.47</v>
       </c>
       <c r="K38" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X38" t="n">
         <v>1.93</v>
       </c>
-      <c r="L38" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N38" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P38" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X38" t="n">
-        <v>1.78</v>
-      </c>
       <c r="Y38" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="Z38" t="n">
-        <v>14</v>
+        <v>8.75</v>
       </c>
       <c r="AA38" t="n">
-        <v>10.75</v>
+        <v>8.25</v>
       </c>
       <c r="AB38" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="AC38" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AD38" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="AF38" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AI38" t="n">
-        <v>6.8</v>
+        <v>11.25</v>
       </c>
       <c r="AJ38" t="n">
-        <v>10.75</v>
+        <v>22</v>
       </c>
       <c r="AK38" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AL38" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AM38" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="AN38" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AO38" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -5932,7 +5932,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>QeHmDrq3</t>
+          <t>Chky4v6k</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5952,118 +5952,118 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>3.4</v>
+        <v>2.37</v>
       </c>
       <c r="J39" t="n">
-        <v>2.62</v>
+        <v>3.65</v>
       </c>
       <c r="K39" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="L39" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="O39" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="P39" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.82</v>
+        <v>2.25</v>
       </c>
       <c r="R39" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="S39" t="n">
-        <v>2.92</v>
+        <v>3.9</v>
       </c>
       <c r="T39" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="U39" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="V39" t="n">
-        <v>2.77</v>
+        <v>2.35</v>
       </c>
       <c r="W39" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="X39" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="Z39" t="n">
-        <v>9.75</v>
+        <v>14</v>
       </c>
       <c r="AA39" t="n">
-        <v>8.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB39" t="n">
-        <v>18.5</v>
+        <v>37</v>
       </c>
       <c r="AC39" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AD39" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL39" t="n">
         <v>25</v>
       </c>
-      <c r="AE39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>50</v>
-      </c>
       <c r="AM39" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN39" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AO39" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6073,7 +6073,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>lrrhJalB</t>
+          <t>QeHmDrq3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6083,26 +6083,26 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>3.3</v>
@@ -6111,100 +6111,100 @@
         <v>3.4</v>
       </c>
       <c r="J40" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="K40" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="M40" t="n">
         <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P40" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q40" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X40" t="n">
         <v>2.05</v>
       </c>
-      <c r="R40" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="X40" t="n">
-        <v>1.87</v>
-      </c>
       <c r="Y40" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE40" t="n">
         <v>7.5</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>9.5</v>
       </c>
       <c r="AF40" t="n">
         <v>6.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH40" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AI40" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AJ40" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AK40" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AM40" t="n">
         <v>29</v>
       </c>
       <c r="AN40" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO40" t="n">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6214,7 +6214,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>WIglMAY2</t>
+          <t>lrrhJalB</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6229,137 +6229,133 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 2</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Seongnam</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Cheongju</t>
+          <t>Gimcheon Sangmu</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="J41" t="n">
-        <v>3.4</v>
+        <v>2.87</v>
       </c>
       <c r="K41" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L41" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U41" t="n">
         <v>1.44</v>
       </c>
-      <c r="P41" t="n">
+      <c r="V41" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q41" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.38</v>
-      </c>
       <c r="W41" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X41" t="n">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="Y41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA41" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB41" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC41" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AD41" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AE41" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>17</v>
       </c>
-      <c r="AH41" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>13</v>
-      </c>
       <c r="AK41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM41" t="n">
         <v>29</v>
       </c>
-      <c r="AM41" t="n">
-        <v>26</v>
-      </c>
       <c r="AN41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO41" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>2</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GbBHSW0l</t>
+          <t>WIglMAY2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6369,134 +6365,134 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SOUTH KOREA - K LEAGUE 2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Seongnam</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Cheongju</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.81</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="J42" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="L42" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="N42" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O42" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R42" t="n">
         <v>1.53</v>
       </c>
-      <c r="P42" t="n">
+      <c r="S42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V42" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q42" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W42" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="X42" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="Y42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z42" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AA42" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB42" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AC42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD42" t="n">
         <v>41</v>
       </c>
       <c r="AE42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF42" t="n">
         <v>6</v>
       </c>
-      <c r="AF42" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AG42" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH42" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AI42" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ42" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AK42" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AL42" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AM42" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AN42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO42" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
@@ -6504,7 +6500,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8MT68R8s</t>
+          <t>GbBHSW0l</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6514,138 +6510,142 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="K43" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V43" t="n">
         <v>2.2</v>
       </c>
-      <c r="L43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N43" t="n">
-        <v>11</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P43" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V43" t="n">
-        <v>2.75</v>
-      </c>
       <c r="W43" t="n">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="X43" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="Y43" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z43" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AA43" t="n">
         <v>9.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD43" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AE43" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AF43" t="n">
         <v>6.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AH43" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AI43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ43" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AK43" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AL43" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM43" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AN43" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AO43" t="n">
-        <v>201</v>
-      </c>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1.78</v>
+      </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>dr0ljpgD</t>
+          <t>8MT68R8s</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6665,52 +6665,52 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="H44" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="J44" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
         <v>2.2</v>
       </c>
       <c r="L44" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
         <v>11</v>
       </c>
       <c r="O44" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P44" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R44" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T44" t="n">
         <v>1.33</v>
@@ -6728,22 +6728,22 @@
         <v>2.1</v>
       </c>
       <c r="Y44" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA44" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>10</v>
-      </c>
       <c r="AB44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD44" t="n">
         <v>26</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>29</v>
       </c>
       <c r="AE44" t="n">
         <v>11</v>
@@ -6758,25 +6758,25 @@
         <v>41</v>
       </c>
       <c r="AI44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN44" t="n">
         <v>29</v>
       </c>
       <c r="AO44" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
@@ -6786,7 +6786,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0G6uh6O0</t>
+          <t>dr0ljpgD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -6806,34 +6806,34 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.67</v>
+        <v>2.75</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="I45" t="n">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
         <v>2.2</v>
       </c>
       <c r="L45" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
         <v>11</v>
@@ -6842,19 +6842,19 @@
         <v>1.25</v>
       </c>
       <c r="P45" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R45" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S45" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T45" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="U45" t="n">
         <v>1.4</v>
@@ -6863,61 +6863,61 @@
         <v>2.75</v>
       </c>
       <c r="W45" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="X45" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y45" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Z45" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AA45" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AB45" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AC45" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AD45" t="n">
         <v>29</v>
       </c>
       <c r="AE45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK45" t="n">
         <v>10</v>
       </c>
-      <c r="AF45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ45" t="n">
+      <c r="AL45" t="n">
         <v>23</v>
       </c>
-      <c r="AK45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>51</v>
-      </c>
       <c r="AM45" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AN45" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AO45" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
@@ -6927,7 +6927,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>b76IQQUP</t>
+          <t>0G6uh6O0</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6947,61 +6947,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="J46" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="K46" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L46" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M46" t="n">
         <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O46" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="R46" t="n">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="T46" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="U46" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V46" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W46" t="n">
         <v>1.91</v>
@@ -7013,25 +7013,25 @@
         <v>6.5</v>
       </c>
       <c r="Z46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA46" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA46" t="n">
-        <v>9</v>
-      </c>
       <c r="AB46" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD46" t="n">
         <v>29</v>
       </c>
       <c r="AE46" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AF46" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG46" t="n">
         <v>17</v>
@@ -7040,25 +7040,25 @@
         <v>51</v>
       </c>
       <c r="AI46" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AJ46" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AK46" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM46" t="n">
         <v>41</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>34</v>
       </c>
       <c r="AN46" t="n">
         <v>41</v>
       </c>
       <c r="AO46" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
@@ -7068,7 +7068,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MHJoWiMb</t>
+          <t>b76IQQUP</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -7083,57 +7083,57 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H47" t="n">
         <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J47" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K47" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L47" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
         <v>9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P47" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="R47" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="S47" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T47" t="n">
         <v>1.22</v>
@@ -7160,7 +7160,7 @@
         <v>9</v>
       </c>
       <c r="AB47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC47" t="n">
         <v>17</v>
@@ -7169,7 +7169,7 @@
         <v>29</v>
       </c>
       <c r="AE47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF47" t="n">
         <v>6.5</v>
@@ -7181,13 +7181,13 @@
         <v>51</v>
       </c>
       <c r="AI47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL47" t="n">
         <v>41</v>
@@ -7206,6 +7206,147 @@
       <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr"/>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MHJoWiMb</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Kocaelispor</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N48" t="n">
+        <v>9</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>351</v>
+      </c>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
@@ -695,10 +695,10 @@
         <v>1.3</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
         <v>1.8</v>
@@ -722,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -755,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -767,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>81</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AM2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AO2" t="n">
         <v>501</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H3" t="n">
         <v>4.75</v>
@@ -845,7 +845,7 @@
         <v>1.91</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
         <v>7</v>
@@ -863,10 +863,10 @@
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S3" t="n">
         <v>2.75</v>
@@ -896,7 +896,7 @@
         <v>8.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
         <v>12</v>
@@ -911,7 +911,7 @@
         <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
@@ -935,7 +935,7 @@
         <v>51</v>
       </c>
       <c r="AO3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -977,28 +977,28 @@
         <v>2.6</v>
       </c>
       <c r="H4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.9</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P4" t="n">
         <v>2.1</v>
@@ -1013,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="U4" t="n">
         <v>1.67</v>
@@ -1022,16 +1022,16 @@
         <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
@@ -1043,16 +1043,16 @@
         <v>29</v>
       </c>
       <c r="AD4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>101</v>
@@ -1061,7 +1061,7 @@
         <v>6</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>12</v>
@@ -1088,7 +1088,7 @@
         <v>5.4</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5">
@@ -1141,16 +1141,16 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1162,7 +1162,7 @@
         <v>5.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="U5" t="n">
         <v>1.62</v>
@@ -1228,10 +1228,10 @@
         <v>101</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AR5" t="n">
         <v>4.5</v>
@@ -1290,16 +1290,16 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q6" t="n">
         <v>2.4</v>
@@ -1311,7 +1311,7 @@
         <v>4.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="U6" t="n">
         <v>1.53</v>
@@ -1377,10 +1377,10 @@
         <v>501</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="AR6" t="n">
         <v>3.95</v>
@@ -1439,13 +1439,13 @@
         <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="N7" t="n">
         <v>4.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
         <v>1.78</v>
@@ -1484,7 +1484,7 @@
         <v>12</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
         <v>29</v>
@@ -1502,7 +1502,7 @@
         <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1847,7 +1847,7 @@
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1886,13 +1886,13 @@
         <v>1.83</v>
       </c>
       <c r="Y10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z10" t="n">
         <v>8.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB10" t="n">
         <v>15</v>
@@ -1989,7 +1989,7 @@
         <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>3.4</v>
@@ -1998,7 +1998,7 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2019,19 +2019,19 @@
         <v>1.22</v>
       </c>
       <c r="U11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z11" t="n">
         <v>12</v>
@@ -2049,7 +2049,7 @@
         <v>34</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF11" t="n">
         <v>6.5</v>
@@ -2073,13 +2073,13 @@
         <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN11" t="n">
         <v>34</v>
       </c>
       <c r="AO11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AP11" t="n">
         <v>1.88</v>
@@ -2137,7 +2137,7 @@
         <v>3.1</v>
       </c>
       <c r="L12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2158,10 +2158,10 @@
         <v>2.7</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
         <v>1.22</v>
@@ -2170,28 +2170,28 @@
         <v>4</v>
       </c>
       <c r="W12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA12" t="n">
         <v>11</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC12" t="n">
         <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE12" t="n">
         <v>17</v>
@@ -2221,7 +2221,7 @@
         <v>151</v>
       </c>
       <c r="AN12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AO12" t="n">
         <v>101</v>
@@ -2422,10 +2422,10 @@
         <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
         <v>1.5</v>
@@ -2455,7 +2455,7 @@
         <v>2.1</v>
       </c>
       <c r="X14" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Y14" t="n">
         <v>6.5</v>
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H15" t="n">
         <v>3.75</v>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="H16" t="n">
         <v>5</v>
@@ -2711,7 +2711,7 @@
         <v>7.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K16" t="n">
         <v>2.5</v>
@@ -2847,13 +2847,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J17" t="n">
         <v>3.5</v>
@@ -3270,40 +3270,40 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H20" t="n">
         <v>2.55</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="J20" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="K20" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="L20" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M20" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="N20" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="O20" t="n">
         <v>1.62</v>
       </c>
       <c r="P20" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="R20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S20" t="n">
         <v>5.1</v>
@@ -3315,19 +3315,19 @@
         <v>1.65</v>
       </c>
       <c r="V20" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="X20" t="n">
         <v>1.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA20" t="n">
         <v>9.25</v>
@@ -3342,22 +3342,22 @@
         <v>45</v>
       </c>
       <c r="AE20" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AF20" t="n">
         <v>5.3</v>
       </c>
       <c r="AG20" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI20" t="n">
         <v>8.75</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK20" t="n">
         <v>16</v>
@@ -3369,7 +3369,7 @@
         <v>65</v>
       </c>
       <c r="AN20" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO20" t="n">
         <v>101</v>
@@ -3411,28 +3411,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
         <v>2.7</v>
       </c>
       <c r="I21" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J21" t="n">
         <v>4.33</v>
       </c>
       <c r="K21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.57</v>
@@ -3462,13 +3462,13 @@
         <v>2.2</v>
       </c>
       <c r="X21" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA21" t="n">
         <v>15</v>
@@ -3495,7 +3495,7 @@
         <v>81</v>
       </c>
       <c r="AI21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AJ21" t="n">
         <v>9.5</v>
@@ -3504,7 +3504,7 @@
         <v>11</v>
       </c>
       <c r="AL21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM21" t="n">
         <v>23</v>
@@ -3556,28 +3556,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
         <v>2.3</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O22" t="n">
         <v>1.2</v>
@@ -3586,10 +3586,10 @@
         <v>4.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S22" t="n">
         <v>2.63</v>
@@ -3613,13 +3613,13 @@
         <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
         <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="n">
         <v>21</v>
@@ -3631,7 +3631,7 @@
         <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG22" t="n">
         <v>12</v>
@@ -3640,19 +3640,19 @@
         <v>41</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN22" t="n">
         <v>23</v>
@@ -3697,13 +3697,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="J23" t="n">
         <v>2.82</v>
@@ -3732,7 +3732,7 @@
         <v>2.62</v>
       </c>
       <c r="T23" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="U23" t="n">
         <v>1.39</v>
@@ -3747,52 +3747,52 @@
         <v>2.12</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AA23" t="n">
         <v>8.75</v>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC23" t="n">
         <v>17</v>
       </c>
       <c r="AD23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE23" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF23" t="n">
         <v>6.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
         <v>45</v>
       </c>
       <c r="AI23" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AL23" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AM23" t="n">
         <v>24</v>
       </c>
       <c r="AN23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO23" t="n">
         <v>300</v>
@@ -3852,10 +3852,10 @@
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -3864,10 +3864,10 @@
         <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="n">
         <v>3.75</v>
@@ -3987,7 +3987,7 @@
         <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L25" t="n">
         <v>4</v>
@@ -4146,10 +4146,10 @@
         <v>3.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R26" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S26" t="n">
         <v>3.4</v>
@@ -4263,7 +4263,7 @@
         <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="J27" t="n">
         <v>3.25</v>
@@ -4293,10 +4293,10 @@
         <v>1.62</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T27" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U27" t="n">
         <v>1.5</v>
@@ -4341,7 +4341,7 @@
         <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
@@ -4359,7 +4359,7 @@
         <v>41</v>
       </c>
       <c r="AO27" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4398,16 +4398,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
@@ -4419,7 +4419,7 @@
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
@@ -4452,19 +4452,19 @@
         <v>1.91</v>
       </c>
       <c r="Y28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
         <v>9.5</v>
       </c>
       <c r="AB28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC28" t="n">
         <v>21</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>19</v>
       </c>
       <c r="AD28" t="n">
         <v>34</v>
@@ -4482,22 +4482,22 @@
         <v>51</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ28" t="n">
         <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL28" t="n">
         <v>34</v>
       </c>
       <c r="AM28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO28" t="n">
         <v>301</v>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H29" t="n">
         <v>3.3</v>
@@ -4560,7 +4560,7 @@
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
         <v>1.22</v>
@@ -4683,28 +4683,28 @@
         <v>2.15</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
         <v>2.75</v>
       </c>
       <c r="K30" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O30" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4716,31 +4716,31 @@
         <v>2.35</v>
       </c>
       <c r="S30" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="T30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W30" t="n">
         <v>1.5</v>
       </c>
-      <c r="U30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.53</v>
-      </c>
       <c r="X30" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB30" t="n">
         <v>21</v>
@@ -4752,19 +4752,19 @@
         <v>21</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
         <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ30" t="n">
         <v>19</v>
@@ -4779,18 +4779,18 @@
         <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="31">
@@ -4837,19 +4837,19 @@
         <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L31" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
         <v>17</v>
       </c>
       <c r="O31" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4861,22 +4861,22 @@
         <v>2.4</v>
       </c>
       <c r="S31" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W31" t="n">
         <v>1.5</v>
       </c>
-      <c r="U31" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.53</v>
-      </c>
       <c r="X31" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y31" t="n">
         <v>13</v>
@@ -4906,7 +4906,7 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
         <v>11</v>
@@ -4927,7 +4927,7 @@
         <v>21</v>
       </c>
       <c r="AO31" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -4988,25 +4988,25 @@
         <v>3.25</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
         <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
         <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T32" t="n">
         <v>1.33</v>
@@ -5069,7 +5069,7 @@
         <v>21</v>
       </c>
       <c r="AN32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO32" t="n">
         <v>151</v>
@@ -5120,37 +5120,37 @@
         <v>7.5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K33" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L33" t="n">
         <v>7</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
         <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
         <v>3.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R33" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S33" t="n">
         <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U33" t="n">
         <v>1.36</v>
@@ -5282,10 +5282,10 @@
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R34" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S34" t="n">
         <v>3.25</v>
@@ -5306,7 +5306,7 @@
         <v>2.1</v>
       </c>
       <c r="Y34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z34" t="n">
         <v>15</v>
@@ -5348,7 +5348,7 @@
         <v>23</v>
       </c>
       <c r="AM34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN34" t="n">
         <v>29</v>
@@ -5568,10 +5568,10 @@
         <v>3.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R36" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S36" t="n">
         <v>3.25</v>
@@ -6102,82 +6102,82 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="H40" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="J40" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="K40" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L40" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="M40" t="n">
         <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O40" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P40" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R40" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S40" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="T40" t="n">
         <v>1.35</v>
       </c>
       <c r="U40" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V40" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="W40" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="X40" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="Z40" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AA40" t="n">
         <v>8.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AC40" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD40" t="n">
         <v>25</v>
       </c>
       <c r="AE40" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AF40" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AG40" t="n">
         <v>13</v>
@@ -6186,19 +6186,19 @@
         <v>55</v>
       </c>
       <c r="AI40" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AJ40" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK40" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AL40" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AN40" t="n">
         <v>32</v>
@@ -6261,7 +6261,7 @@
         <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
         <v>10</v>
@@ -6270,7 +6270,7 @@
         <v>1.3</v>
       </c>
       <c r="P41" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q41" t="n">
         <v>2.05</v>
@@ -6279,10 +6279,10 @@
         <v>1.75</v>
       </c>
       <c r="S41" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T41" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U41" t="n">
         <v>1.44</v>
@@ -6291,10 +6291,10 @@
         <v>2.63</v>
       </c>
       <c r="W41" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X41" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y41" t="n">
         <v>7.5</v>
@@ -6402,16 +6402,16 @@
         <v>3.6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
         <v>8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P42" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q42" t="n">
         <v>2.4</v>
@@ -6423,7 +6423,7 @@
         <v>4.5</v>
       </c>
       <c r="T42" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="U42" t="n">
         <v>1.53</v>
@@ -6435,7 +6435,7 @@
         <v>2</v>
       </c>
       <c r="X42" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Y42" t="n">
         <v>7</v>
@@ -6538,10 +6538,10 @@
         <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K43" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L43" t="n">
         <v>5.5</v>
@@ -6562,7 +6562,7 @@
         <v>2.7</v>
       </c>
       <c r="R43" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S43" t="n">
         <v>5.5</v>
@@ -6692,13 +6692,13 @@
         <v>3.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
         <v>11</v>
       </c>
       <c r="O44" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P44" t="n">
         <v>3.5</v>
@@ -6713,7 +6713,7 @@
         <v>3.25</v>
       </c>
       <c r="T44" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U44" t="n">
         <v>1.4</v>
@@ -6833,13 +6833,13 @@
         <v>3.1</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
         <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P45" t="n">
         <v>3.75</v>
@@ -6854,7 +6854,7 @@
         <v>3</v>
       </c>
       <c r="T45" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U45" t="n">
         <v>1.4</v>
@@ -6956,16 +6956,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I46" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K46" t="n">
         <v>2.2</v>
@@ -6974,13 +6974,13 @@
         <v>5.5</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
         <v>11</v>
       </c>
       <c r="O46" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
         <v>3.5</v>
@@ -6995,7 +6995,7 @@
         <v>3.4</v>
       </c>
       <c r="T46" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U46" t="n">
         <v>1.4</v>
@@ -7019,22 +7019,22 @@
         <v>8.5</v>
       </c>
       <c r="AB46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC46" t="n">
         <v>13</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>15</v>
       </c>
       <c r="AD46" t="n">
         <v>29</v>
       </c>
       <c r="AE46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF46" t="n">
         <v>7.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH46" t="n">
         <v>51</v>
@@ -7043,7 +7043,7 @@
         <v>12</v>
       </c>
       <c r="AJ46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK46" t="n">
         <v>15</v>
@@ -7058,7 +7058,7 @@
         <v>41</v>
       </c>
       <c r="AO46" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
@@ -7115,13 +7115,13 @@
         <v>4.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N47" t="n">
         <v>9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -7130,13 +7130,13 @@
         <v>2.15</v>
       </c>
       <c r="R47" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
       </c>
       <c r="T47" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U47" t="n">
         <v>1.44</v>
@@ -7256,28 +7256,28 @@
         <v>4.75</v>
       </c>
       <c r="M48" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
         <v>9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P48" t="n">
         <v>3.25</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R48" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S48" t="n">
         <v>3.75</v>
       </c>
       <c r="T48" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U48" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS48"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
@@ -701,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
         <v>4.75</v>
@@ -863,10 +863,10 @@
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
         <v>2.75</v>
@@ -875,16 +875,16 @@
         <v>1.44</v>
       </c>
       <c r="U3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V3" t="n">
         <v>3.25</v>
       </c>
       <c r="W3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="X3" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y3" t="n">
         <v>7.5</v>
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
         <v>2.1</v>
@@ -1013,16 +1013,16 @@
         <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V4" t="n">
         <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="X4" t="n">
         <v>1.5</v>
@@ -1043,13 +1043,13 @@
         <v>29</v>
       </c>
       <c r="AD4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE4" t="n">
         <v>5.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
@@ -1058,13 +1058,13 @@
         <v>101</v>
       </c>
       <c r="AI4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
       </c>
       <c r="AK4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
         <v>34</v>
@@ -1141,16 +1141,16 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
         <v>2.7</v>
@@ -1162,10 +1162,10 @@
         <v>5.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="V5" t="n">
         <v>2.2</v>
@@ -1174,7 +1174,7 @@
         <v>2.2</v>
       </c>
       <c r="X5" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Y5" t="n">
         <v>6.5</v>
@@ -1228,16 +1228,16 @@
         <v>101</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6">
@@ -1290,40 +1290,40 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="U6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V6" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W6" t="n">
         <v>2.1</v>
       </c>
       <c r="X6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Y6" t="n">
         <v>5.5</v>
@@ -1377,10 +1377,10 @@
         <v>501</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="AR6" t="n">
         <v>3.95</v>
@@ -1439,13 +1439,13 @@
         <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="N7" t="n">
         <v>4.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="U7" t="n">
         <v>1.78</v>
@@ -1850,10 +1850,10 @@
         <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -1865,7 +1865,7 @@
         <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
         <v>3.5</v>
@@ -1886,13 +1886,13 @@
         <v>1.83</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z10" t="n">
         <v>8.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB10" t="n">
         <v>15</v>
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
@@ -1998,7 +1998,7 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2019,7 +2019,7 @@
         <v>1.22</v>
       </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V11" t="n">
         <v>2.5</v>
@@ -2122,40 +2122,40 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O12" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R12" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S12" t="n">
         <v>2.1</v>
@@ -2167,13 +2167,13 @@
         <v>1.22</v>
       </c>
       <c r="V12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
@@ -2185,13 +2185,13 @@
         <v>11</v>
       </c>
       <c r="AB12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC12" t="n">
         <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE12" t="n">
         <v>17</v>
@@ -2200,28 +2200,28 @@
         <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="n">
         <v>41</v>
       </c>
       <c r="AJ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN12" t="n">
         <v>101</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>126</v>
       </c>
       <c r="AO12" t="n">
         <v>101</v>
@@ -2407,10 +2407,10 @@
         <v>2.55</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
         <v>3.4</v>
@@ -2422,10 +2422,10 @@
         <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
         <v>1.5</v>
@@ -2446,7 +2446,7 @@
         <v>1.17</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V14" t="n">
         <v>2.25</v>
@@ -2455,7 +2455,7 @@
         <v>2.1</v>
       </c>
       <c r="X14" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Y14" t="n">
         <v>6.5</v>
@@ -2476,19 +2476,19 @@
         <v>41</v>
       </c>
       <c r="AE14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH14" t="n">
         <v>67</v>
       </c>
       <c r="AI14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>13</v>
@@ -2556,10 +2556,10 @@
         <v>1.57</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
         <v>2.25</v>
@@ -2571,10 +2571,10 @@
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -2595,16 +2595,16 @@
         <v>1.22</v>
       </c>
       <c r="U15" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="V15" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="W15" t="n">
         <v>2.2</v>
       </c>
       <c r="X15" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y15" t="n">
         <v>5.5</v>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H16" t="n">
         <v>5</v>
@@ -2726,22 +2726,22 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U16" t="n">
         <v>1.3</v>
@@ -2750,10 +2750,10 @@
         <v>3.4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="X16" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y16" t="n">
         <v>7.5</v>
@@ -2771,7 +2771,7 @@
         <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -2786,7 +2786,7 @@
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
         <v>41</v>
@@ -2809,10 +2809,10 @@
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="17">
@@ -2847,13 +2847,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J17" t="n">
         <v>3.5</v>
@@ -2871,10 +2871,10 @@
         <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
         <v>2.25</v>
@@ -2895,10 +2895,10 @@
         <v>2.5</v>
       </c>
       <c r="W17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -2919,7 +2919,7 @@
         <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
@@ -3270,16 +3270,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H20" t="n">
         <v>2.55</v>
       </c>
       <c r="I20" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="J20" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="K20" t="n">
         <v>1.75</v>
@@ -3291,16 +3291,16 @@
         <v>1.16</v>
       </c>
       <c r="N20" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.62</v>
       </c>
       <c r="P20" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="R20" t="n">
         <v>1.38</v>
@@ -3312,10 +3312,10 @@
         <v>1.13</v>
       </c>
       <c r="U20" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W20" t="n">
         <v>2.18</v>
@@ -3324,7 +3324,7 @@
         <v>1.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z20" t="n">
         <v>8.75</v>
@@ -3333,7 +3333,7 @@
         <v>9.25</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC20" t="n">
         <v>23</v>
@@ -3342,7 +3342,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AF20" t="n">
         <v>5.3</v>
@@ -3354,13 +3354,13 @@
         <v>120</v>
       </c>
       <c r="AI20" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL20" t="n">
         <v>100</v>
@@ -3562,7 +3562,7 @@
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
         <v>3.5</v>
@@ -3571,7 +3571,7 @@
         <v>2.3</v>
       </c>
       <c r="L22" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -3610,19 +3610,19 @@
         <v>2.25</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="n">
         <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB22" t="n">
         <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD22" t="n">
         <v>26</v>
@@ -3646,7 +3646,7 @@
         <v>12</v>
       </c>
       <c r="AK22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL22" t="n">
         <v>21</v>
@@ -3655,7 +3655,7 @@
         <v>17</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO22" t="n">
         <v>126</v>
@@ -3697,42 +3697,42 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L23" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="S23" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="T23" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="U23" t="n">
         <v>1.39</v>
@@ -3741,61 +3741,61 @@
         <v>2.57</v>
       </c>
       <c r="W23" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X23" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA23" t="n">
         <v>8.75</v>
       </c>
       <c r="AB23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
         <v>17</v>
       </c>
       <c r="AD23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE23" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN23" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
@@ -3852,10 +3852,10 @@
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -3864,10 +3864,10 @@
         <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S24" t="n">
         <v>3.75</v>
@@ -3987,7 +3987,7 @@
         <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L25" t="n">
         <v>4</v>
@@ -4116,22 +4116,22 @@
         </is>
       </c>
       <c r="G26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H26" t="n">
         <v>4.33</v>
       </c>
-      <c r="H26" t="n">
-        <v>4.5</v>
-      </c>
       <c r="I26" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="J26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M26" t="n">
         <v>1.04</v>
@@ -4146,28 +4146,28 @@
         <v>3.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R26" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U26" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V26" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W26" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X26" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -4182,7 +4182,7 @@
         <v>51</v>
       </c>
       <c r="AC26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD26" t="n">
         <v>41</v>
@@ -4191,7 +4191,7 @@
         <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
         <v>19</v>
@@ -4203,13 +4203,13 @@
         <v>7</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK26" t="n">
         <v>8.5</v>
       </c>
       <c r="AL26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM26" t="n">
         <v>13</v>
@@ -4218,7 +4218,7 @@
         <v>26</v>
       </c>
       <c r="AO26" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4257,28 +4257,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
         <v>2.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
         <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.4</v>
@@ -4287,16 +4287,16 @@
         <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S27" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U27" t="n">
         <v>1.5</v>
@@ -4329,7 +4329,7 @@
         <v>34</v>
       </c>
       <c r="AE27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF27" t="n">
         <v>6.5</v>
@@ -4341,7 +4341,7 @@
         <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ27" t="n">
         <v>13</v>
@@ -4419,7 +4419,7 @@
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
@@ -4428,10 +4428,10 @@
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S28" t="n">
         <v>3.75</v>
@@ -4651,152 +4651,152 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OMkaymPG</t>
+          <t>KpwnZcaN</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>03/03/2025</t>
+          <t>02/03/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>23:05</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Santos Laguna</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>6.5</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J30" t="n">
-        <v>2.75</v>
+        <v>1.67</v>
       </c>
       <c r="K30" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="L30" t="n">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O30" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="R30" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="S30" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="U30" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="V30" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="W30" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="X30" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="Y30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF30" t="n">
         <v>12</v>
       </c>
-      <c r="Z30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB30" t="n">
+      <c r="AG30" t="n">
         <v>21</v>
       </c>
-      <c r="AC30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11</v>
-      </c>
       <c r="AH30" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AJ30" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="AM30" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AO30" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>f9CWIv9k</t>
+          <t>OMkaymPG</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4816,31 +4816,31 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I31" t="n">
         <v>3</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.1</v>
-      </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="n">
         <v>2.4</v>
       </c>
       <c r="L31" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -4855,16 +4855,16 @@
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R31" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S31" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U31" t="n">
         <v>1.29</v>
@@ -4873,58 +4873,58 @@
         <v>3.5</v>
       </c>
       <c r="W31" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X31" t="n">
         <v>2.5</v>
       </c>
       <c r="Y31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z31" t="n">
         <v>13</v>
       </c>
-      <c r="Z31" t="n">
-        <v>19</v>
-      </c>
       <c r="AA31" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD31" t="n">
         <v>21</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>17</v>
       </c>
       <c r="AF31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
         <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK31" t="n">
         <v>12</v>
       </c>
-      <c r="AK31" t="n">
-        <v>9</v>
-      </c>
       <c r="AL31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM31" t="n">
         <v>21</v>
       </c>
-      <c r="AM31" t="n">
-        <v>15</v>
-      </c>
       <c r="AN31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
         <v>101</v>
@@ -4941,7 +4941,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0MsXGIw2</t>
+          <t>f9CWIv9k</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4961,128 +4961,132 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="H32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J32" t="n">
         <v>3.5</v>
       </c>
-      <c r="I32" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K32" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L32" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
+        <v>17</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA32" t="n">
         <v>11</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V32" t="n">
-        <v>3</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>10</v>
-      </c>
       <c r="AB32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD32" t="n">
         <v>23</v>
       </c>
-      <c r="AC32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>26</v>
-      </c>
       <c r="AE32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG32" t="n">
         <v>12</v>
       </c>
-      <c r="AF32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>13</v>
-      </c>
       <c r="AH32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM32" t="n">
         <v>15</v>
       </c>
-      <c r="AK32" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM32" t="n">
+      <c r="AN32" t="n">
         <v>21</v>
       </c>
-      <c r="AN32" t="n">
-        <v>29</v>
-      </c>
       <c r="AO32" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
+      <c r="AR32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0WxmiTL7</t>
+          <t>0MsXGIw2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5092,65 +5096,65 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Rakow</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="J33" t="n">
-        <v>1.91</v>
+        <v>3.1</v>
       </c>
       <c r="K33" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
         <v>3.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R33" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T33" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U33" t="n">
         <v>1.36</v>
@@ -5159,61 +5163,61 @@
         <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="X33" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y33" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AA33" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AB33" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AC33" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AD33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE33" t="n">
         <v>12</v>
       </c>
       <c r="AF33" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM33" t="n">
         <v>21</v>
       </c>
-      <c r="AH33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>51</v>
-      </c>
       <c r="AN33" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AO33" t="n">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5223,7 +5227,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0UwD6DSO</t>
+          <t>0WxmiTL7</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5238,123 +5242,123 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Rakow</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="I34" t="n">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>1.87</v>
       </c>
       <c r="K34" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="L34" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P34" t="n">
         <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R34" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
         <v>1.33</v>
       </c>
       <c r="U34" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V34" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W34" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="X34" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AC34" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
         <v>29</v>
       </c>
       <c r="AE34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF34" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AH34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>41</v>
       </c>
-      <c r="AI34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>13</v>
-      </c>
       <c r="AK34" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AL34" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="AM34" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AN34" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AO34" t="n">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
@@ -5364,7 +5368,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GO2VJ1aC</t>
+          <t>0UwD6DSO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5374,142 +5378,138 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.18</v>
+        <v>2.75</v>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="J35" t="n">
-        <v>1.57</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="L35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N35" t="n">
         <v>11</v>
       </c>
-      <c r="M35" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC35" t="n">
         <v>21</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V35" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>11</v>
       </c>
       <c r="AD35" t="n">
         <v>29</v>
       </c>
       <c r="AE35" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AF35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG35" t="n">
         <v>13</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AH35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN35" t="n">
         <v>29</v>
       </c>
-      <c r="AH35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>151</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>67</v>
-      </c>
       <c r="AO35" t="n">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>2.05</v>
-      </c>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4AlRix2K</t>
+          <t>GO2VJ1aC</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5519,138 +5519,142 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.73</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="J36" t="n">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="K36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L36" t="n">
+        <v>10</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N36" t="n">
+        <v>19</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S36" t="n">
         <v>2.2</v>
       </c>
-      <c r="L36" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N36" t="n">
+      <c r="T36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC36" t="n">
         <v>11</v>
       </c>
-      <c r="O36" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB36" t="n">
+      <c r="AD36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF36" t="n">
         <v>13</v>
       </c>
-      <c r="AC36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD36" t="n">
+      <c r="AG36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI36" t="n">
         <v>26</v>
       </c>
-      <c r="AE36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH36" t="n">
+      <c r="AJ36" t="n">
         <v>51</v>
       </c>
-      <c r="AI36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>23</v>
-      </c>
       <c r="AK36" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AL36" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AM36" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AN36" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AO36" t="n">
-        <v>251</v>
+        <v>451</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
+      <c r="AR36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bkP1kuid</t>
+          <t>4AlRix2K</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5660,128 +5664,128 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.7</v>
+        <v>1.73</v>
       </c>
       <c r="H37" t="n">
-        <v>4.15</v>
+        <v>3.6</v>
       </c>
       <c r="I37" t="n">
-        <v>1.47</v>
+        <v>4.2</v>
       </c>
       <c r="J37" t="n">
-        <v>5.7</v>
+        <v>2.38</v>
       </c>
       <c r="K37" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="R37" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="S37" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="T37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U37" t="n">
         <v>1.4</v>
       </c>
-      <c r="U37" t="n">
-        <v>1.35</v>
-      </c>
       <c r="V37" t="n">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="W37" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="X37" t="n">
         <v>1.83</v>
       </c>
       <c r="Y37" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Z37" t="n">
-        <v>35</v>
+        <v>8.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>18.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="AD37" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AE37" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="AF37" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="AG37" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH37" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI37" t="n">
-        <v>7.1</v>
+        <v>12</v>
       </c>
       <c r="AJ37" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AK37" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="AL37" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="AM37" t="n">
-        <v>11.75</v>
+        <v>34</v>
       </c>
       <c r="AN37" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AO37" t="n">
-        <v>700</v>
+        <v>251</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -5791,7 +5795,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>nB5dBMDF</t>
+          <t>bkP1kuid</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5801,7 +5805,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5811,118 +5815,118 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.85</v>
+        <v>6.1</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="I38" t="n">
-        <v>3.9</v>
+        <v>1.42</v>
       </c>
       <c r="J38" t="n">
-        <v>2.47</v>
+        <v>6</v>
       </c>
       <c r="K38" t="n">
-        <v>2.07</v>
+        <v>2.35</v>
       </c>
       <c r="L38" t="n">
-        <v>4.45</v>
+        <v>1.93</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>120</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI38" t="n">
         <v>7.1</v>
       </c>
-      <c r="O38" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X38" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AA38" t="n">
+      <c r="AJ38" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AK38" t="n">
         <v>8.25</v>
       </c>
-      <c r="AB38" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>13</v>
-      </c>
       <c r="AL38" t="n">
-        <v>65</v>
+        <v>9.25</v>
       </c>
       <c r="AM38" t="n">
-        <v>37</v>
+        <v>11.5</v>
       </c>
       <c r="AN38" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="AO38" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -5932,7 +5936,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Chky4v6k</t>
+          <t>nB5dBMDF</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5942,7 +5946,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5952,118 +5956,118 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.9</v>
+        <v>1.93</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I39" t="n">
-        <v>2.37</v>
+        <v>3.75</v>
       </c>
       <c r="J39" t="n">
-        <v>3.65</v>
+        <v>2.47</v>
       </c>
       <c r="K39" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q39" t="n">
         <v>1.93</v>
       </c>
-      <c r="L39" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N39" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.25</v>
-      </c>
       <c r="R39" t="n">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="S39" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="U39" t="n">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="V39" t="n">
-        <v>2.35</v>
+        <v>2.77</v>
       </c>
       <c r="W39" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="X39" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="Z39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG39" t="n">
         <v>14</v>
       </c>
-      <c r="AA39" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB39" t="n">
+      <c r="AH39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM39" t="n">
         <v>37</v>
       </c>
-      <c r="AC39" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>23</v>
-      </c>
       <c r="AN39" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AO39" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6073,7 +6077,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>QeHmDrq3</t>
+          <t>Chky4v6k</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6083,7 +6087,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -6093,118 +6097,118 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.12</v>
+        <v>2.95</v>
       </c>
       <c r="H40" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>3.15</v>
+        <v>2.35</v>
       </c>
       <c r="J40" t="n">
-        <v>2.75</v>
+        <v>3.65</v>
       </c>
       <c r="K40" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="L40" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="P40" t="n">
-        <v>3.35</v>
+        <v>2.65</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="R40" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="S40" t="n">
-        <v>2.95</v>
+        <v>3.9</v>
       </c>
       <c r="T40" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="U40" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="V40" t="n">
-        <v>2.72</v>
+        <v>2.35</v>
       </c>
       <c r="W40" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="X40" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="Z40" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB40" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AC40" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
       <c r="AD40" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AE40" t="n">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="AF40" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AG40" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="n">
-        <v>10.25</v>
+        <v>6.6</v>
       </c>
       <c r="AJ40" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AM40" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AN40" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AO40" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6214,7 +6218,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>lrrhJalB</t>
+          <t>QeHmDrq3</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6224,128 +6228,128 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="H41" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I41" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="J41" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="K41" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N41" t="n">
-        <v>10</v>
+        <v>7.1</v>
       </c>
       <c r="O41" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P41" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="R41" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S41" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="T41" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="U41" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="V41" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="W41" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="X41" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z41" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AA41" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB41" t="n">
         <v>21</v>
       </c>
       <c r="AC41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD41" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE41" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI41" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>10</v>
       </c>
       <c r="AJ41" t="n">
         <v>17</v>
       </c>
       <c r="AK41" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AL41" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AM41" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN41" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AO41" t="n">
-        <v>251</v>
+        <v>450</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6355,7 +6359,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>WIglMAY2</t>
+          <t>lrrhJalB</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6370,137 +6374,133 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 2</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Seongnam</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cheongju</t>
+          <t>Gimcheon Sangmu</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="J42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N42" t="n">
+        <v>10</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P42" t="n">
         <v>3.4</v>
       </c>
-      <c r="K42" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N42" t="n">
-        <v>8</v>
-      </c>
-      <c r="O42" t="n">
+      <c r="Q42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U42" t="n">
         <v>1.44</v>
       </c>
-      <c r="P42" t="n">
+      <c r="V42" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q42" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.38</v>
-      </c>
       <c r="W42" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X42" t="n">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="Y42" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA42" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB42" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AC42" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AD42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL42" t="n">
         <v>41</v>
       </c>
-      <c r="AE42" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL42" t="n">
+      <c r="AM42" t="n">
         <v>29</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>26</v>
       </c>
       <c r="AN42" t="n">
         <v>41</v>
       </c>
       <c r="AO42" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>2</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GbBHSW0l</t>
+          <t>WIglMAY2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6510,134 +6510,134 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SOUTH KOREA - K LEAGUE 2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Seongnam</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Cheongju</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="H43" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="J43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P43" t="n">
         <v>2.63</v>
       </c>
-      <c r="K43" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P43" t="n">
-        <v>2.37</v>
-      </c>
       <c r="Q43" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="R43" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="S43" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="T43" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="U43" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V43" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W43" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="X43" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="Y43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z43" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AA43" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB43" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AC43" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AD43" t="n">
         <v>41</v>
       </c>
       <c r="AE43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF43" t="n">
         <v>6</v>
       </c>
-      <c r="AF43" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AG43" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH43" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AI43" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AJ43" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AK43" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AL43" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AM43" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AN43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO43" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -6645,7 +6645,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8MT68R8s</t>
+          <t>GbBHSW0l</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6655,138 +6655,142 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="K44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V44" t="n">
         <v>2.2</v>
       </c>
-      <c r="L44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N44" t="n">
-        <v>11</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V44" t="n">
-        <v>2.75</v>
-      </c>
       <c r="W44" t="n">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="X44" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="Y44" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z44" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AA44" t="n">
         <v>9.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AC44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD44" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AE44" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AF44" t="n">
         <v>6.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AH44" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AI44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AK44" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AL44" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM44" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AN44" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AO44" t="n">
-        <v>201</v>
-      </c>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>1.8</v>
+      </c>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>dr0ljpgD</t>
+          <t>8MT68R8s</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6806,52 +6810,52 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="H45" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="J45" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
         <v>2.2</v>
       </c>
       <c r="L45" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
         <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R45" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T45" t="n">
         <v>1.33</v>
@@ -6869,22 +6873,22 @@
         <v>2.1</v>
       </c>
       <c r="Y45" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z45" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA45" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB45" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE45" t="n">
         <v>11</v>
@@ -6899,25 +6903,25 @@
         <v>41</v>
       </c>
       <c r="AI45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM45" t="n">
         <v>23</v>
       </c>
-      <c r="AM45" t="n">
-        <v>19</v>
-      </c>
       <c r="AN45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO45" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
@@ -6927,7 +6931,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0G6uh6O0</t>
+          <t>dr0ljpgD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6937,7 +6941,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -6947,34 +6951,34 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.65</v>
+        <v>2.75</v>
       </c>
       <c r="H46" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="J46" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="K46" t="n">
         <v>2.2</v>
       </c>
       <c r="L46" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M46" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
         <v>11</v>
@@ -6983,19 +6987,19 @@
         <v>1.25</v>
       </c>
       <c r="P46" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R46" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S46" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="U46" t="n">
         <v>1.4</v>
@@ -7004,25 +7008,25 @@
         <v>2.75</v>
       </c>
       <c r="W46" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="X46" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y46" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Z46" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AA46" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AB46" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AC46" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AD46" t="n">
         <v>29</v>
@@ -7031,34 +7035,34 @@
         <v>11</v>
       </c>
       <c r="AF46" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM46" t="n">
         <v>19</v>
       </c>
-      <c r="AH46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ46" t="n">
+      <c r="AN46" t="n">
         <v>26</v>
       </c>
-      <c r="AK46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>41</v>
-      </c>
       <c r="AO46" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
@@ -7068,7 +7072,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>b76IQQUP</t>
+          <t>0G6uh6O0</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -7088,61 +7092,61 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="H47" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="J47" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="K47" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M47" t="n">
         <v>1.05</v>
       </c>
       <c r="N47" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O47" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="R47" t="n">
-        <v>1.63</v>
+        <v>1.9</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="T47" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="U47" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V47" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W47" t="n">
         <v>1.91</v>
@@ -7154,52 +7158,52 @@
         <v>6.5</v>
       </c>
       <c r="Z47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA47" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA47" t="n">
-        <v>9</v>
-      </c>
       <c r="AB47" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AC47" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD47" t="n">
         <v>29</v>
       </c>
       <c r="AE47" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AF47" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH47" t="n">
         <v>51</v>
       </c>
       <c r="AI47" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AJ47" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AK47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM47" t="n">
         <v>41</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>34</v>
       </c>
       <c r="AN47" t="n">
         <v>41</v>
       </c>
       <c r="AO47" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
@@ -7209,7 +7213,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MHJoWiMb</t>
+          <t>b76IQQUP</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -7224,57 +7228,57 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H48" t="n">
         <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J48" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K48" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L48" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N48" t="n">
         <v>9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P48" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="R48" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="S48" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T48" t="n">
         <v>1.22</v>
@@ -7301,7 +7305,7 @@
         <v>9</v>
       </c>
       <c r="AB48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC48" t="n">
         <v>17</v>
@@ -7310,7 +7314,7 @@
         <v>29</v>
       </c>
       <c r="AE48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF48" t="n">
         <v>6.5</v>
@@ -7322,13 +7326,13 @@
         <v>51</v>
       </c>
       <c r="AI48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL48" t="n">
         <v>41</v>
@@ -7347,6 +7351,147 @@
       <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MHJoWiMb</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Kocaelispor</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>5</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N49" t="n">
+        <v>10</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>351</v>
+      </c>
+      <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="inlineStr"/>
+      <c r="AS49" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
@@ -722,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="S2" t="n">
         <v>3.2</v>
@@ -734,7 +734,7 @@
         <v>1.36</v>
       </c>
       <c r="U2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V2" t="n">
         <v>3</v>
@@ -833,22 +833,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
         <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>1.91</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -896,10 +896,10 @@
         <v>8.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
         <v>26</v>
@@ -908,10 +908,10 @@
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
@@ -920,7 +920,7 @@
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
         <v>21</v>
@@ -935,7 +935,7 @@
         <v>51</v>
       </c>
       <c r="AO3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -1016,7 +1016,7 @@
         <v>1.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
         <v>2.1</v>
@@ -1085,7 +1085,7 @@
         <v>1.78</v>
       </c>
       <c r="AR4" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AS4" t="n">
         <v>1.15</v>
@@ -1165,7 +1165,7 @@
         <v>1.14</v>
       </c>
       <c r="U5" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
         <v>2.2</v>
@@ -1832,13 +1832,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
         <v>3.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>2.5</v>
@@ -1847,13 +1847,13 @@
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
         <v>1.33</v>
@@ -1865,7 +1865,7 @@
         <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
         <v>3.5</v>
@@ -1880,19 +1880,19 @@
         <v>2.63</v>
       </c>
       <c r="W10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z10" t="n">
         <v>8.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB10" t="n">
         <v>15</v>
@@ -1934,7 +1934,7 @@
         <v>41</v>
       </c>
       <c r="AO10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AP10" t="n">
         <v>1.8</v>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="H12" t="n">
         <v>7</v>
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I14" t="n">
         <v>3.1</v>
@@ -2515,10 +2515,10 @@
         <v>1.88</v>
       </c>
       <c r="AR14" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15">
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H15" t="n">
         <v>3.8</v>
@@ -2658,7 +2658,7 @@
         <v>101</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AQ15" t="n">
         <v>2.23</v>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="H16" t="n">
         <v>5</v>
@@ -2732,10 +2732,10 @@
         <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S16" t="n">
         <v>2.5</v>
@@ -2750,13 +2750,13 @@
         <v>3.4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X16" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z16" t="n">
         <v>7</v>
@@ -2771,7 +2771,7 @@
         <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -2780,13 +2780,13 @@
         <v>9.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
         <v>41</v>
@@ -2809,10 +2809,10 @@
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="17">
@@ -2988,106 +2988,106 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="H18" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2.7</v>
       </c>
-      <c r="I18" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.8</v>
-      </c>
       <c r="R18" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S18" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="U18" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="V18" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="W18" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="X18" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="Z18" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE18" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="AF18" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH18" t="n">
         <v>150</v>
       </c>
       <c r="AI18" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AK18" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AL18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN18" t="n">
         <v>90</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>75</v>
       </c>
       <c r="AO18" t="n">
         <v>101</v>
@@ -3129,103 +3129,103 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="H19" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="I19" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L19" t="n">
         <v>5</v>
       </c>
-      <c r="J19" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.4</v>
-      </c>
       <c r="M19" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N19" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="U19" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W19" t="n">
         <v>2.25</v>
-      </c>
-      <c r="W19" t="n">
-        <v>2.27</v>
       </c>
       <c r="X19" t="n">
         <v>1.57</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AA19" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AC19" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AD19" t="n">
         <v>45</v>
       </c>
       <c r="AE19" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AF19" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
         <v>150</v>
       </c>
       <c r="AI19" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AK19" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN19" t="n">
         <v>80</v>
@@ -3270,82 +3270,82 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="I20" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="J20" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
         <v>1.72</v>
       </c>
       <c r="L20" t="n">
-        <v>5.2</v>
+        <v>4.65</v>
       </c>
       <c r="M20" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P20" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="R20" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S20" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="U20" t="n">
         <v>1.7</v>
       </c>
       <c r="V20" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W20" t="n">
         <v>2.18</v>
       </c>
       <c r="X20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Y20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF20" t="n">
         <v>5.1</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>5.2</v>
       </c>
       <c r="AG20" t="n">
         <v>18</v>
@@ -3354,22 +3354,22 @@
         <v>120</v>
       </c>
       <c r="AI20" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AM20" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN20" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO20" t="n">
         <v>101</v>
@@ -3429,10 +3429,10 @@
         <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
         <v>1.53</v>
@@ -3700,39 +3700,39 @@
         <v>2.22</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
         <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K23" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R23" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S23" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="T23" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="U23" t="n">
         <v>1.39</v>
@@ -3741,22 +3741,22 @@
         <v>2.57</v>
       </c>
       <c r="W23" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="X23" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="Y23" t="n">
         <v>8.75</v>
       </c>
       <c r="Z23" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA23" t="n">
         <v>8.75</v>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC23" t="n">
         <v>17</v>
@@ -3765,37 +3765,37 @@
         <v>24</v>
       </c>
       <c r="AE23" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF23" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
         <v>50</v>
       </c>
       <c r="AI23" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
         <v>10.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN23" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO23" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -4146,10 +4146,10 @@
         <v>3.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S26" t="n">
         <v>3.4</v>
@@ -4431,7 +4431,7 @@
         <v>2.15</v>
       </c>
       <c r="R28" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
         <v>3.75</v>
@@ -4440,10 +4440,10 @@
         <v>1.25</v>
       </c>
       <c r="U28" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V28" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W28" t="n">
         <v>1.91</v>
@@ -4569,7 +4569,7 @@
         <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R29" t="n">
         <v>2.05</v>
@@ -4581,7 +4581,7 @@
         <v>1.4</v>
       </c>
       <c r="U29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V29" t="n">
         <v>3.25</v>
@@ -4680,10 +4680,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -4692,7 +4692,7 @@
         <v>2.75</v>
       </c>
       <c r="K30" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L30" t="n">
         <v>3.4</v>
@@ -4710,7 +4710,7 @@
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R30" t="n">
         <v>2.35</v>
@@ -4722,7 +4722,7 @@
         <v>1.53</v>
       </c>
       <c r="U30" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V30" t="n">
         <v>3.5</v>
@@ -4734,7 +4734,7 @@
         <v>2.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
         <v>13</v>
@@ -4764,13 +4764,13 @@
         <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
         <v>19</v>
       </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL30" t="n">
         <v>34</v>
@@ -4825,22 +4825,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
         <v>3.9</v>
       </c>
       <c r="I31" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -4855,10 +4855,10 @@
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R31" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S31" t="n">
         <v>2.38</v>
@@ -4867,7 +4867,7 @@
         <v>1.53</v>
       </c>
       <c r="U31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V31" t="n">
         <v>3.5</v>
@@ -4882,7 +4882,7 @@
         <v>13</v>
       </c>
       <c r="Z31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA31" t="n">
         <v>11</v>
@@ -4912,7 +4912,7 @@
         <v>11</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
         <v>9</v>
@@ -4932,10 +4932,10 @@
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="32">
@@ -4988,13 +4988,13 @@
         <v>3.4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
         <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
         <v>3.5</v>
@@ -5009,7 +5009,7 @@
         <v>3.25</v>
       </c>
       <c r="T32" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U32" t="n">
         <v>1.4</v>
@@ -5129,7 +5129,7 @@
         <v>7</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
         <v>13</v>
@@ -5138,7 +5138,7 @@
         <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
         <v>1.75</v>
@@ -5147,10 +5147,10 @@
         <v>2.05</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U33" t="n">
         <v>1.36</v>
@@ -5270,13 +5270,13 @@
         <v>3.2</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
         <v>11</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
         <v>3.75</v>
@@ -5291,7 +5291,7 @@
         <v>3.25</v>
       </c>
       <c r="T34" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U34" t="n">
         <v>1.4</v>
@@ -5399,7 +5399,7 @@
         <v>7</v>
       </c>
       <c r="I35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J35" t="n">
         <v>1.57</v>
@@ -5411,28 +5411,28 @@
         <v>10</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O35" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P35" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R35" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S35" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T35" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="U35" t="n">
         <v>1.25</v>
@@ -5441,28 +5441,28 @@
         <v>3.75</v>
       </c>
       <c r="W35" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X35" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC35" t="n">
         <v>11</v>
       </c>
       <c r="AD35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE35" t="n">
         <v>19</v>
@@ -5471,13 +5471,13 @@
         <v>13</v>
       </c>
       <c r="AG35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI35" t="n">
         <v>29</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>26</v>
       </c>
       <c r="AJ35" t="n">
         <v>51</v>
@@ -5495,7 +5495,7 @@
         <v>67</v>
       </c>
       <c r="AO35" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
@@ -5556,13 +5556,13 @@
         <v>4.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
         <v>11</v>
       </c>
       <c r="O36" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P36" t="n">
         <v>3.5</v>
@@ -5577,7 +5577,7 @@
         <v>3.25</v>
       </c>
       <c r="T36" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U36" t="n">
         <v>1.4</v>
@@ -5721,10 +5721,10 @@
         <v>1.47</v>
       </c>
       <c r="U37" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="V37" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="W37" t="n">
         <v>1.83</v>
@@ -5766,7 +5766,7 @@
         <v>7.6</v>
       </c>
       <c r="AJ37" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AK37" t="n">
         <v>8.25</v>
@@ -5778,7 +5778,7 @@
         <v>11.25</v>
       </c>
       <c r="AN37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO37" t="n">
         <v>600</v>
@@ -6538,10 +6538,10 @@
         <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K43" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L43" t="n">
         <v>5.5</v>
@@ -6571,7 +6571,7 @@
         <v>1.14</v>
       </c>
       <c r="U43" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V43" t="n">
         <v>2.2</v>
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
         <v>3</v>
@@ -6716,19 +6716,19 @@
         <v>1.33</v>
       </c>
       <c r="U44" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V44" t="n">
         <v>2.75</v>
       </c>
       <c r="W44" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X44" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z44" t="n">
         <v>12</v>
@@ -6737,7 +6737,7 @@
         <v>9.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC44" t="n">
         <v>19</v>
@@ -6815,22 +6815,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H45" t="n">
         <v>3.3</v>
       </c>
       <c r="I45" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K45" t="n">
         <v>2.2</v>
       </c>
       <c r="L45" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M45" t="n">
         <v>1.05</v>
@@ -6869,16 +6869,16 @@
         <v>2.1</v>
       </c>
       <c r="Y45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA45" t="n">
         <v>10</v>
       </c>
-      <c r="Z45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>11</v>
-      </c>
       <c r="AB45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC45" t="n">
         <v>21</v>
@@ -6908,10 +6908,10 @@
         <v>10</v>
       </c>
       <c r="AL45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN45" t="n">
         <v>26</v>
@@ -6956,16 +6956,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I46" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K46" t="n">
         <v>2.2</v>
@@ -7031,7 +7031,7 @@
         <v>11</v>
       </c>
       <c r="AF46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG46" t="n">
         <v>19</v>
@@ -7040,13 +7040,13 @@
         <v>51</v>
       </c>
       <c r="AI46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL46" t="n">
         <v>51</v>
@@ -7058,7 +7058,7 @@
         <v>41</v>
       </c>
       <c r="AO46" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
@@ -7130,7 +7130,7 @@
         <v>2.15</v>
       </c>
       <c r="R47" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -7271,7 +7271,7 @@
         <v>2.05</v>
       </c>
       <c r="R48" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S48" t="n">
         <v>3.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS48"/>
+  <dimension ref="A1:AS47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,37 +606,37 @@
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>d49FQXXq</t>
+          <t>EgwRcF8j</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,128 +673,128 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="U2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W2" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="X2" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM2" t="n">
         <v>81</v>
       </c>
-      <c r="AI2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>67</v>
-      </c>
       <c r="AN2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO2" t="n">
-        <v>501</v>
+        <v>51</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -804,7 +804,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EgwRcF8j</t>
+          <t>2iuHQHZ9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -819,133 +819,141 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>2.55</v>
       </c>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S3" t="n">
         <v>7</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK3" t="n">
         <v>13</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AL3" t="n">
         <v>13</v>
       </c>
-      <c r="AF3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="AM3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO3" t="n">
         <v>51</v>
       </c>
-      <c r="AI3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
+      <c r="AP3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2iuHQHZ9</t>
+          <t>nJDwUjt2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -955,7 +963,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -965,73 +973,73 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
         <v>2.9</v>
       </c>
-      <c r="I4" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="X4" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
@@ -1040,13 +1048,13 @@
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD4" t="n">
         <v>41</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF4" t="n">
         <v>6</v>
@@ -1055,28 +1063,28 @@
         <v>21</v>
       </c>
       <c r="AH4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI4" t="n">
         <v>101</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>6.5</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
       <c r="AK4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AP4" t="n">
         <v>2.1</v>
@@ -1085,16 +1093,16 @@
         <v>1.78</v>
       </c>
       <c r="AR4" t="n">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nJDwUjt2</t>
+          <t>IPtlJZRq</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1104,7 +1112,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1114,136 +1122,136 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P5" t="n">
         <v>2.63</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.53</v>
       </c>
-      <c r="P5" t="n">
+      <c r="V5" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="W5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y5" t="n">
         <v>5.5</v>
       </c>
-      <c r="T5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>6</v>
-      </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
       </c>
       <c r="AE5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF5" t="n">
         <v>6</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>81</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.5</v>
+        <v>501</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
         <v>41</v>
       </c>
       <c r="AO5" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IPtlJZRq</t>
+          <t>OCWWdWCG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1253,146 +1261,138 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="Q6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.5</v>
       </c>
-      <c r="R6" t="n">
+      <c r="X6" t="n">
         <v>1.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.67</v>
       </c>
       <c r="Y6" t="n">
         <v>5.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AD6" t="n">
         <v>41</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AF6" t="n">
         <v>6</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AK6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL6" t="n">
         <v>15</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO6" t="n">
         <v>51</v>
       </c>
-      <c r="AO6" t="n">
-        <v>501</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1.25</v>
-      </c>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OCWWdWCG</t>
+          <t>8W8lFgkn</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1402,128 +1402,124 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:10</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ARGENTINA - PRIMERA NACIONAL</t>
+          <t>AZERBAIJAN - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Sabail</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Shamakhi</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
         <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.5</v>
-      </c>
+        <v>4.2</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>3.65</v>
       </c>
       <c r="T7" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="W7" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="X7" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AC7" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>7.3</v>
       </c>
       <c r="AF7" t="n">
         <v>6</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="n">
-        <v>7.5</v>
+        <v>900</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>9.25</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AO7" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1533,7 +1529,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8W8lFgkn</t>
+          <t>4pNObY45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1543,7 +1539,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1553,114 +1549,110 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sabail</t>
+          <t>Sumqayit</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Shamakhi</t>
+          <t>Qarabag</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>1.26</v>
       </c>
       <c r="J8" t="n">
-        <v>2.35</v>
+        <v>8.25</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="L8" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>2.52</v>
       </c>
       <c r="T8" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.42</v>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="X8" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="Y8" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>600</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AK8" t="n">
         <v>5.7</v>
       </c>
-      <c r="Z8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD8" t="n">
+      <c r="AL8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO8" t="n">
         <v>35</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1000</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1670,7 +1662,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4pNObY45</t>
+          <t>MVSDbAx2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1680,130 +1672,142 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AZERBAIJAN - PREMIER LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sumqayit</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Qarabag</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
         <v>10</v>
       </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
-        <v>2.52</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
+        <v>1.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.63</v>
+      </c>
       <c r="W9" t="n">
-        <v>2.15</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="Y9" t="n">
-        <v>24</v>
+        <v>6.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>75</v>
+        <v>8.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>32</v>
+        <v>8.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.5</v>
+        <v>351</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="AM9" t="n">
-        <v>11.5</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AO9" t="n">
-        <v>600</v>
-      </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2.05</v>
+      </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MVSDbAx2</t>
+          <t>2R50MDU8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1813,7 +1817,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1823,61 +1827,61 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="J10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.63</v>
       </c>
       <c r="W10" t="n">
         <v>1.91</v>
@@ -1886,28 +1890,28 @@
         <v>1.8</v>
       </c>
       <c r="Y10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF10" t="n">
         <v>6.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>7</v>
       </c>
       <c r="AG10" t="n">
         <v>17</v>
@@ -1916,31 +1920,31 @@
         <v>51</v>
       </c>
       <c r="AI10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL10" t="n">
         <v>11</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
       <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO10" t="n">
         <v>34</v>
       </c>
-      <c r="AN10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>351</v>
-      </c>
       <c r="AP10" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -1948,7 +1952,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2R50MDU8</t>
+          <t>radeBmM7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1958,7 +1962,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1968,132 +1972,128 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>1.17</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>2.63</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>1.53</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>2.88</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W11" t="n">
         <v>2.25</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.91</v>
-      </c>
       <c r="X11" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AA11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB11" t="n">
-        <v>26</v>
+        <v>6.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
         <v>34</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AH11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="n">
-        <v>7.5</v>
+        <v>101</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="AN11" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="AO11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>1.98</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>radeBmM7</t>
+          <t>dYvQwW8r</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2103,128 +2103,128 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>CHINA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.14</v>
+        <v>2.05</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB12" t="n">
         <v>19</v>
       </c>
-      <c r="J12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>13</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>19</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AC12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>11</v>
       </c>
-      <c r="AB12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="AK12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL12" t="n">
         <v>12</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO12" t="n">
         <v>34</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>301</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>101</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2234,7 +2234,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dYvQwW8r</t>
+          <t>bZMnhm9O</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2244,138 +2244,146 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CHINA - SUPER LEAGUE</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>U. Magdalena</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="H13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.5</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.75</v>
-      </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>2.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="T13" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="U13" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG13" t="n">
         <v>19</v>
       </c>
-      <c r="AC13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15</v>
-      </c>
       <c r="AH13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AK13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO13" t="n">
         <v>41</v>
       </c>
-      <c r="AM13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
+      <c r="AP13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>bZMnhm9O</t>
+          <t>xQsM6nOH</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2385,7 +2393,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2395,136 +2403,136 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>U. Magdalena</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="K14" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S14" t="n">
         <v>3.75</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="T14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z14" t="n">
         <v>6</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>11</v>
-      </c>
       <c r="AA14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AH14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="n">
-        <v>7.5</v>
+        <v>101</v>
       </c>
       <c r="AJ14" t="n">
         <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AN14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>51</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.88</v>
+        <v>2.26</v>
       </c>
       <c r="AR14" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>xQsM6nOH</t>
+          <t>QmkFTT6r</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2534,146 +2542,142 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R15" t="n">
         <v>2.15</v>
       </c>
-      <c r="R15" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="T15" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="U15" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="V15" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="W15" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="X15" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB15" t="n">
         <v>9</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
         <v>11</v>
       </c>
-      <c r="AC15" t="n">
-        <v>15</v>
-      </c>
       <c r="AD15" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG15" t="n">
         <v>21</v>
       </c>
       <c r="AH15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM15" t="n">
         <v>81</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>51</v>
       </c>
       <c r="AN15" t="n">
         <v>51</v>
       </c>
       <c r="AO15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>2.23</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="n">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.34</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>QmkFTT6r</t>
+          <t>AmyaclaB</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2683,142 +2687,138 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Manta</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.38</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
         <v>7.5</v>
       </c>
-      <c r="J16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="O16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V16" t="n">
         <v>2.5</v>
       </c>
-      <c r="L16" t="n">
-        <v>7</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>15</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3.4</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X16" t="n">
         <v>1.8</v>
       </c>
       <c r="Y16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE16" t="n">
         <v>7.5</v>
       </c>
-      <c r="Z16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG16" t="n">
         <v>15</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>21</v>
       </c>
       <c r="AH16" t="n">
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>351</v>
       </c>
       <c r="AJ16" t="n">
-        <v>41</v>
+        <v>7.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="AM16" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>301</v>
+        <v>34</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>1.8</v>
-      </c>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AmyaclaB</t>
+          <t>l0FjzriB</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2828,128 +2828,128 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Manta</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="I17" t="n">
-        <v>2.63</v>
+        <v>5.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.5</v>
+        <v>2.52</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="L17" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>4.85</v>
       </c>
       <c r="O17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.4</v>
       </c>
-      <c r="P17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="T17" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="U17" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="V17" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="W17" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="X17" t="n">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="Y17" t="n">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK17" t="n">
         <v>29</v>
       </c>
-      <c r="AC17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>11</v>
-      </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AO17" t="n">
-        <v>301</v>
+        <v>90</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>l0FjzriB</t>
+          <t>EoVWFD5d</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2979,52 +2979,52 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>National Bank Egypt</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>2.82</v>
       </c>
       <c r="I18" t="n">
-        <v>5.3</v>
+        <v>4.45</v>
       </c>
       <c r="J18" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="K18" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="L18" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="M18" t="n">
         <v>1.14</v>
       </c>
       <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S18" t="n">
         <v>4.85</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.9</v>
       </c>
       <c r="T18" t="n">
         <v>1.14</v>
@@ -3033,64 +3033,64 @@
         <v>1.6</v>
       </c>
       <c r="V18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W18" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="X18" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AA18" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB18" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AC18" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AD18" t="n">
         <v>45</v>
       </c>
       <c r="AE18" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AF18" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH18" t="n">
         <v>150</v>
       </c>
       <c r="AI18" t="n">
-        <v>9.5</v>
+        <v>101</v>
       </c>
       <c r="AJ18" t="n">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="AM18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO18" t="n">
         <v>80</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>101</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3100,7 +3100,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EoVWFD5d</t>
+          <t>hWtOHZzp</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3120,118 +3120,118 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>National Bank Egypt</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>El Gouna</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.02</v>
+        <v>2.45</v>
       </c>
       <c r="H19" t="n">
-        <v>2.82</v>
+        <v>2.47</v>
       </c>
       <c r="I19" t="n">
-        <v>4.35</v>
+        <v>3.8</v>
       </c>
       <c r="J19" t="n">
-        <v>2.67</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4.55</v>
       </c>
       <c r="M19" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P19" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.67</v>
+        <v>2.9</v>
       </c>
       <c r="R19" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="S19" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="U19" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="V19" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="W19" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="X19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF19" t="n">
         <v>5.1</v>
       </c>
-      <c r="Z19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI19" t="n">
-        <v>8.5</v>
+        <v>101</v>
       </c>
       <c r="AJ19" t="n">
-        <v>22</v>
+        <v>7.4</v>
       </c>
       <c r="AK19" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
-        <v>80</v>
+        <v>13.5</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AO19" t="n">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3241,7 +3241,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hWtOHZzp</t>
+          <t>SIz2tYfL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3251,138 +3251,142 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>AC Ajaccio</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>El Gouna</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H20" t="n">
-        <v>2.47</v>
+        <v>2.8</v>
       </c>
       <c r="I20" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="K20" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="L20" t="n">
-        <v>4.65</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="R20" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="S20" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="U20" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="V20" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="W20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X20" t="n">
         <v>1.62</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.3</v>
+        <v>8.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>10.25</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL20" t="n">
         <v>10</v>
       </c>
-      <c r="AB20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>70</v>
-      </c>
       <c r="AM20" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1.85</v>
+      </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SIz2tYfL</t>
+          <t>jc5IAq77</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3392,110 +3396,110 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AC Ajaccio</t>
+          <t>Chennaiyin</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>North East Utd</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H21" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" t="n">
         <v>2.3</v>
       </c>
-      <c r="J21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.91</v>
-      </c>
       <c r="L21" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.7</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
-        <v>1.44</v>
+        <v>2.25</v>
       </c>
       <c r="S21" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="V21" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="W21" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="X21" t="n">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="Y21" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB21" t="n">
         <v>41</v>
       </c>
       <c r="AC21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH21" t="n">
         <v>41</v>
       </c>
-      <c r="AD21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>81</v>
-      </c>
       <c r="AI21" t="n">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="AJ21" t="n">
         <v>9.5</v>
@@ -3504,30 +3508,30 @@
         <v>11</v>
       </c>
       <c r="AL21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO21" t="n">
         <v>21</v>
       </c>
-      <c r="AM21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AQ21" t="n">
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AS21" t="n">
         <v>1.78</v>
       </c>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>jc5IAq77</t>
+          <t>bet97QlJ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3537,128 +3541,124 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Chennaiyin</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>North East Utd</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L22" t="n">
         <v>3.5</v>
       </c>
-      <c r="H22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N22" t="n">
-        <v>15</v>
-      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="P22" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="R22" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="S22" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="T22" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U22" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="V22" t="n">
-        <v>3.25</v>
+        <v>2.57</v>
       </c>
       <c r="W22" t="n">
         <v>1.57</v>
       </c>
       <c r="X22" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>8.75</v>
       </c>
       <c r="Z22" t="n">
-        <v>19</v>
+        <v>11.75</v>
       </c>
       <c r="AA22" t="n">
-        <v>12</v>
+        <v>8.75</v>
       </c>
       <c r="AB22" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="AC22" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AD22" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="AF22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG22" t="n">
         <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="n">
-        <v>9.5</v>
+        <v>300</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK22" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AM22" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AN22" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AO22" t="n">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
@@ -3668,7 +3668,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bet97QlJ</t>
+          <t>d0PGtY33</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3678,124 +3678,128 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.82</v>
+        <v>2.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8</v>
+      </c>
       <c r="O23" t="n">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.72</v>
+        <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>2.65</v>
+        <v>4.33</v>
       </c>
       <c r="T23" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="V23" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="W23" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="X23" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.75</v>
+        <v>6.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>11.75</v>
+        <v>8</v>
       </c>
       <c r="AA23" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB23" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
         <v>17</v>
       </c>
       <c r="AD23" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE23" t="n">
-        <v>11.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF23" t="n">
         <v>6.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="n">
-        <v>10.75</v>
+        <v>401</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AM23" t="n">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="AN23" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AO23" t="n">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3805,7 +3809,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>d0PGtY33</t>
+          <t>hSIPvCYF</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3825,118 +3829,118 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Galway</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.15</v>
+        <v>2.88</v>
       </c>
       <c r="R24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.67</v>
       </c>
-      <c r="S24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.44</v>
-      </c>
       <c r="V24" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="W24" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="X24" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="Y24" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH24" t="n">
+      <c r="AK24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO24" t="n">
         <v>51</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>401</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -3946,7 +3950,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hSIPvCYF</t>
+          <t>bPLXxj3S</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3966,118 +3970,118 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Galway</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.45</v>
+        <v>4.1</v>
       </c>
       <c r="H25" t="n">
-        <v>2.9</v>
+        <v>4.33</v>
       </c>
       <c r="I25" t="n">
-        <v>3.3</v>
+        <v>1.73</v>
       </c>
       <c r="J25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>13</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P25" t="n">
         <v>3.4</v>
       </c>
-      <c r="K25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N25" t="n">
-        <v>6</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.25</v>
-      </c>
       <c r="Q25" t="n">
-        <v>2.88</v>
+        <v>1.98</v>
       </c>
       <c r="R25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U25" t="n">
         <v>1.4</v>
       </c>
-      <c r="S25" t="n">
-        <v>6</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V25" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="W25" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="X25" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AA25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB25" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AC25" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AD25" t="n">
         <v>41</v>
       </c>
       <c r="AE25" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH25" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>7</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AK25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM25" t="n">
         <v>13</v>
       </c>
-      <c r="AK25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>34</v>
-      </c>
       <c r="AN25" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4087,7 +4091,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bPLXxj3S</t>
+          <t>EqUkdNdK</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4107,118 +4111,118 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>St. Patricks</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>9</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2.2</v>
       </c>
-      <c r="L26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>13</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.93</v>
-      </c>
       <c r="R26" t="n">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="S26" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="U26" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="V26" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W26" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X26" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AC26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD26" t="n">
         <v>34</v>
       </c>
-      <c r="AD26" t="n">
-        <v>41</v>
-      </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>7</v>
+        <v>401</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO26" t="n">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4228,7 +4232,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EqUkdNdK</t>
+          <t>rcc4XTQk</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4248,28 +4252,28 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>St. Patricks</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L27" t="n">
         <v>3.75</v>
@@ -4281,37 +4285,37 @@
         <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R27" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S27" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="T27" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="U27" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V27" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W27" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X27" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z27" t="n">
         <v>11</v>
@@ -4332,34 +4336,34 @@
         <v>8.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
         <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>8</v>
+        <v>301</v>
       </c>
       <c r="AJ27" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AK27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL27" t="n">
         <v>11</v>
       </c>
-      <c r="AL27" t="n">
+      <c r="AM27" t="n">
         <v>34</v>
       </c>
-      <c r="AM27" t="n">
+      <c r="AN27" t="n">
         <v>26</v>
       </c>
-      <c r="AN27" t="n">
-        <v>41</v>
-      </c>
       <c r="AO27" t="n">
-        <v>401</v>
+        <v>34</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4369,7 +4373,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>rcc4XTQk</t>
+          <t>jXBp0OoQ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4379,128 +4383,128 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="K28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N28" t="n">
+        <v>13</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R28" t="n">
         <v>2.05</v>
       </c>
-      <c r="L28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N28" t="n">
+      <c r="S28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y28" t="n">
         <v>9</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X28" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>7.5</v>
-      </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD28" t="n">
         <v>23</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AE28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK28" t="n">
         <v>21</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AL28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO28" t="n">
         <v>34</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>301</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4510,7 +4514,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>jXBp0OoQ</t>
+          <t>OMkaymPG</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4520,138 +4524,142 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N29" t="n">
+        <v>17</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S29" t="n">
         <v>2.25</v>
       </c>
-      <c r="L29" t="n">
-        <v>4</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="T29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z29" t="n">
         <v>13</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>11</v>
-      </c>
       <c r="AA29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC29" t="n">
         <v>15</v>
       </c>
       <c r="AD29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO29" t="n">
         <v>23</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>151</v>
       </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
+      <c r="AR29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>OMkaymPG</t>
+          <t>f9CWIv9k</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4671,31 +4679,31 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>2.85</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
         <v>2.38</v>
       </c>
       <c r="L30" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -4710,10 +4718,10 @@
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R30" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S30" t="n">
         <v>2.38</v>
@@ -4734,69 +4742,69 @@
         <v>2.5</v>
       </c>
       <c r="Y30" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA30" t="n">
         <v>11</v>
       </c>
-      <c r="Z30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC30" t="n">
         <v>21</v>
       </c>
-      <c r="AC30" t="n">
-        <v>15</v>
-      </c>
       <c r="AD30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE30" t="n">
         <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
         <v>34</v>
       </c>
       <c r="AI30" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK30" t="n">
         <v>13</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>11</v>
-      </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="AM30" t="n">
         <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>f9CWIv9k</t>
+          <t>0MsXGIw2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4816,132 +4824,128 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>2.32</v>
       </c>
       <c r="H31" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.15</v>
+        <v>2.82</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>11</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V31" t="n">
         <v>2.75</v>
       </c>
-      <c r="M31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N31" t="n">
-        <v>17</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V31" t="n">
-        <v>3.5</v>
-      </c>
       <c r="W31" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="X31" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Y31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG31" t="n">
         <v>13</v>
       </c>
-      <c r="Z31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA31" t="n">
+      <c r="AH31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL31" t="n">
         <v>11</v>
       </c>
-      <c r="AB31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD31" t="n">
+      <c r="AM31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN31" t="n">
         <v>23</v>
       </c>
-      <c r="AE31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>21</v>
-      </c>
       <c r="AO31" t="n">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>1.95</v>
-      </c>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0MsXGIw2</t>
+          <t>0WxmiTL7</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4951,128 +4955,128 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Rakow</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.45</v>
+        <v>1.39</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I32" t="n">
+        <v>7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L32" t="n">
+        <v>7</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N32" t="n">
+        <v>13</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S32" t="n">
         <v>2.75</v>
       </c>
-      <c r="J32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N32" t="n">
-        <v>11</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.25</v>
-      </c>
       <c r="T32" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W32" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Y32" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC32" t="n">
         <v>12</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>19</v>
       </c>
       <c r="AD32" t="n">
         <v>29</v>
       </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF32" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AH32" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AI32" t="n">
-        <v>9.5</v>
+        <v>401</v>
       </c>
       <c r="AJ32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK32" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AL32" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AM32" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AN32" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AO32" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5082,7 +5086,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0WxmiTL7</t>
+          <t>0UwD6DSO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5097,123 +5101,123 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Rakow</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>11</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U33" t="n">
         <v>1.4</v>
       </c>
-      <c r="H33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L33" t="n">
-        <v>7</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N33" t="n">
+      <c r="V33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z33" t="n">
         <v>13</v>
       </c>
-      <c r="O33" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V33" t="n">
-        <v>3</v>
-      </c>
-      <c r="W33" t="n">
-        <v>2</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AA33" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AB33" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AC33" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AD33" t="n">
         <v>29</v>
       </c>
       <c r="AE33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF33" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN33" t="n">
         <v>21</v>
       </c>
-      <c r="AH33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>51</v>
-      </c>
       <c r="AO33" t="n">
-        <v>401</v>
+        <v>29</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5223,7 +5227,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0UwD6DSO</t>
+          <t>GO2VJ1aC</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5233,138 +5237,142 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.63</v>
+        <v>1.25</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="I34" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>1.67</v>
       </c>
       <c r="K34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L34" t="n">
+        <v>9</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N34" t="n">
+        <v>19</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S34" t="n">
         <v>2.2</v>
       </c>
-      <c r="L34" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N34" t="n">
+      <c r="T34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC34" t="n">
         <v>11</v>
       </c>
-      <c r="O34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB34" t="n">
+      <c r="AD34" t="n">
         <v>26</v>
       </c>
-      <c r="AC34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>29</v>
-      </c>
       <c r="AE34" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AF34" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AG34" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AH34" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AI34" t="n">
-        <v>9</v>
+        <v>351</v>
       </c>
       <c r="AJ34" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AK34" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="AL34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM34" t="n">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="AN34" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AO34" t="n">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
+      <c r="AR34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GO2VJ1aC</t>
+          <t>4AlRix2K</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5374,142 +5382,138 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.2</v>
+        <v>1.73</v>
       </c>
       <c r="H35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>11</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7</v>
       </c>
-      <c r="I35" t="n">
-        <v>11</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L35" t="n">
-        <v>10</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N35" t="n">
-        <v>21</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P35" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V35" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>9</v>
-      </c>
       <c r="Z35" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AC35" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD35" t="n">
         <v>26</v>
       </c>
       <c r="AE35" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AF35" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG35" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="n">
-        <v>29</v>
+        <v>251</v>
       </c>
       <c r="AJ35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM35" t="n">
         <v>51</v>
       </c>
-      <c r="AK35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>151</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>81</v>
-      </c>
       <c r="AN35" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AO35" t="n">
-        <v>401</v>
+        <v>41</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>2.05</v>
-      </c>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4AlRix2K</t>
+          <t>bkP1kuid</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5519,128 +5523,128 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.73</v>
+        <v>5.6</v>
       </c>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>1.47</v>
       </c>
       <c r="J36" t="n">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="K36" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="L36" t="n">
-        <v>4.75</v>
+        <v>1.98</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="P36" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="Q36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X36" t="n">
         <v>1.93</v>
       </c>
-      <c r="R36" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1.83</v>
-      </c>
       <c r="Y36" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Z36" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>110</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE36" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AF36" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>7</v>
-      </c>
       <c r="AG36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH36" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AI36" t="n">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="AJ36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AO36" t="n">
         <v>23</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>251</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -5650,7 +5654,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bkP1kuid</t>
+          <t>nB5dBMDF</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5660,7 +5664,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5670,118 +5674,118 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.9</v>
+        <v>1.95</v>
       </c>
       <c r="H37" t="n">
-        <v>4.35</v>
+        <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>1.42</v>
+        <v>3.8</v>
       </c>
       <c r="J37" t="n">
-        <v>5.8</v>
+        <v>2.57</v>
       </c>
       <c r="K37" t="n">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="L37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X37" t="n">
         <v>1.93</v>
       </c>
-      <c r="M37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V37" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.87</v>
-      </c>
       <c r="Y37" t="n">
-        <v>18</v>
+        <v>6.8</v>
       </c>
       <c r="Z37" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="AA37" t="n">
-        <v>19.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB37" t="n">
-        <v>120</v>
+        <v>17.5</v>
       </c>
       <c r="AC37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH37" t="n">
         <v>60</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AI37" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM37" t="n">
         <v>60</v>
       </c>
-      <c r="AE37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AN37" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="AO37" t="n">
-        <v>600</v>
+        <v>37</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -5791,7 +5795,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>nB5dBMDF</t>
+          <t>Chky4v6k</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5801,7 +5805,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5811,118 +5815,118 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.93</v>
+        <v>2.95</v>
       </c>
       <c r="H38" t="n">
         <v>3.15</v>
       </c>
       <c r="I38" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="J38" t="n">
-        <v>2.47</v>
+        <v>3.7</v>
       </c>
       <c r="K38" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="L38" t="n">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="P38" t="n">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="R38" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="S38" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="T38" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="U38" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="V38" t="n">
-        <v>2.77</v>
+        <v>2.4</v>
       </c>
       <c r="W38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X38" t="n">
         <v>1.75</v>
       </c>
-      <c r="X38" t="n">
-        <v>1.95</v>
-      </c>
       <c r="Y38" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="Z38" t="n">
-        <v>9.5</v>
+        <v>14</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.25</v>
+        <v>11.25</v>
       </c>
       <c r="AB38" t="n">
-        <v>17.5</v>
+        <v>37</v>
       </c>
       <c r="AC38" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AD38" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="AF38" t="n">
         <v>6.2</v>
       </c>
       <c r="AG38" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH38" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AI38" t="n">
-        <v>10.25</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>20</v>
+        <v>6.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AL38" t="n">
-        <v>60</v>
+        <v>9.5</v>
       </c>
       <c r="AM38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO38" t="n">
         <v>37</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>45</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>500</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -5932,7 +5936,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Chky4v6k</t>
+          <t>QeHmDrq3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5942,7 +5946,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5952,118 +5956,118 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.95</v>
+        <v>2.15</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I39" t="n">
-        <v>2.35</v>
+        <v>3.15</v>
       </c>
       <c r="J39" t="n">
-        <v>3.7</v>
+        <v>2.77</v>
       </c>
       <c r="K39" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="M39" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="O39" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="P39" t="n">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="R39" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="S39" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="T39" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="U39" t="n">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="V39" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="W39" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="X39" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA39" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>450</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL39" t="n">
         <v>11</v>
       </c>
-      <c r="AB39" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>25</v>
-      </c>
       <c r="AM39" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="AN39" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AO39" t="n">
-        <v>800</v>
+        <v>32</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6073,7 +6077,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>QeHmDrq3</t>
+          <t>lrrhJalB</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6083,128 +6087,128 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Gimcheon Sangmu</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.12</v>
+        <v>2.55</v>
       </c>
       <c r="H40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J40" t="n">
         <v>3.2</v>
       </c>
-      <c r="I40" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.77</v>
-      </c>
       <c r="K40" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L40" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P40" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X40" t="n">
         <v>1.91</v>
       </c>
-      <c r="R40" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="X40" t="n">
-        <v>2</v>
-      </c>
       <c r="Y40" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AB40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC40" t="n">
         <v>21</v>
       </c>
-      <c r="AC40" t="n">
-        <v>17</v>
-      </c>
       <c r="AD40" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE40" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AG40" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH40" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AI40" t="n">
-        <v>9.5</v>
+        <v>251</v>
       </c>
       <c r="AJ40" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AK40" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AL40" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="AM40" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN40" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AO40" t="n">
-        <v>450</v>
+        <v>34</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6214,7 +6218,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>lrrhJalB</t>
+          <t>WIglMAY2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6229,78 +6233,78 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SOUTH KOREA - K LEAGUE 2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Seongnam</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu</t>
+          <t>Cheongju</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="H41" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3</v>
+      </c>
+      <c r="J41" t="n">
         <v>3.25</v>
       </c>
-      <c r="I41" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K41" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L41" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N41" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="O41" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="P41" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="R41" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="S41" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T41" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="U41" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="V41" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W41" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X41" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA41" t="n">
         <v>10</v>
@@ -6309,53 +6313,57 @@
         <v>23</v>
       </c>
       <c r="AC41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD41" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AE41" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AF41" t="n">
         <v>6</v>
       </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI41" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AK41" t="n">
         <v>13</v>
       </c>
-      <c r="AK41" t="n">
-        <v>11</v>
-      </c>
       <c r="AL41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN41" t="n">
         <v>29</v>
       </c>
-      <c r="AM41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>34</v>
-      </c>
       <c r="AO41" t="n">
-        <v>251</v>
-      </c>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1.98</v>
+      </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>WIglMAY2</t>
+          <t>GbBHSW0l</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6365,134 +6373,134 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 2</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Seongnam</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cheongju</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P42" t="n">
         <v>2.38</v>
       </c>
-      <c r="H42" t="n">
-        <v>3</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N42" t="n">
+      <c r="Q42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z42" t="n">
         <v>7</v>
       </c>
-      <c r="O42" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W42" t="n">
-        <v>2</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>11</v>
-      </c>
       <c r="AA42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AC42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD42" t="n">
         <v>41</v>
       </c>
       <c r="AE42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF42" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="n">
-        <v>7.5</v>
+        <v>101</v>
       </c>
       <c r="AJ42" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AK42" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AL42" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AM42" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AN42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>51</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
@@ -6500,7 +6508,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GbBHSW0l</t>
+          <t>8MT68R8s</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6510,142 +6518,138 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="H43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J43" t="n">
         <v>3.1</v>
       </c>
-      <c r="I43" t="n">
-        <v>5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.63</v>
-      </c>
       <c r="K43" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L43" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M43" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="O43" t="n">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="P43" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="R43" t="n">
-        <v>1.44</v>
+        <v>1.9</v>
       </c>
       <c r="S43" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="T43" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="U43" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="V43" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="W43" t="n">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="X43" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="Y43" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Z43" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AA43" t="n">
         <v>9.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AC43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD43" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AE43" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AF43" t="n">
         <v>6.5</v>
       </c>
       <c r="AG43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN43" t="n">
         <v>21</v>
       </c>
-      <c r="AH43" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>51</v>
-      </c>
       <c r="AO43" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>1.8</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8MT68R8s</t>
+          <t>dr0ljpgD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6665,55 +6669,55 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K44" t="n">
         <v>2.2</v>
       </c>
       <c r="L44" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O44" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P44" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R44" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S44" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U44" t="n">
         <v>1.4</v>
@@ -6722,28 +6726,28 @@
         <v>2.75</v>
       </c>
       <c r="W44" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X44" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB44" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC44" t="n">
         <v>21</v>
       </c>
-      <c r="AC44" t="n">
-        <v>19</v>
-      </c>
       <c r="AD44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE44" t="n">
         <v>11</v>
@@ -6758,25 +6762,25 @@
         <v>41</v>
       </c>
       <c r="AI44" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL44" t="n">
         <v>10</v>
       </c>
-      <c r="AJ44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>29</v>
-      </c>
       <c r="AM44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN44" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AO44" t="n">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
@@ -6786,7 +6790,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>dr0ljpgD</t>
+          <t>0G6uh6O0</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6796,7 +6800,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -6806,37 +6810,37 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.7</v>
+        <v>1.53</v>
       </c>
       <c r="H45" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="I45" t="n">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="J45" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="K45" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L45" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O45" t="n">
         <v>1.25</v>
@@ -6851,37 +6855,37 @@
         <v>1.98</v>
       </c>
       <c r="S45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V45" t="n">
         <v>3</v>
       </c>
-      <c r="T45" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V45" t="n">
-        <v>2.75</v>
-      </c>
       <c r="W45" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="X45" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="Y45" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC45" t="n">
         <v>13</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>21</v>
       </c>
       <c r="AD45" t="n">
         <v>29</v>
@@ -6890,34 +6894,34 @@
         <v>11</v>
       </c>
       <c r="AF45" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AH45" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AI45" t="n">
-        <v>9.5</v>
+        <v>351</v>
       </c>
       <c r="AJ45" t="n">
         <v>13</v>
       </c>
       <c r="AK45" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AL45" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AM45" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="AN45" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AO45" t="n">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
@@ -6927,7 +6931,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0G6uh6O0</t>
+          <t>b76IQQUP</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6947,61 +6951,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="J46" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="K46" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L46" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P46" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="R46" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S46" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T46" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U46" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V46" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W46" t="n">
         <v>1.91</v>
@@ -7013,52 +7017,52 @@
         <v>6.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AA46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB46" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC46" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AD46" t="n">
         <v>29</v>
       </c>
       <c r="AE46" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH46" t="n">
         <v>51</v>
       </c>
       <c r="AI46" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL46" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>51</v>
       </c>
       <c r="AM46" t="n">
         <v>41</v>
       </c>
       <c r="AN46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO46" t="n">
         <v>41</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>351</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
@@ -7068,7 +7072,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>b76IQQUP</t>
+          <t>MHJoWiMb</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -7083,60 +7087,60 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="H47" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I47" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="J47" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="K47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N47" t="n">
+        <v>10</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q47" t="n">
         <v>2.05</v>
       </c>
-      <c r="L47" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N47" t="n">
-        <v>9</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P47" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R47" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T47" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U47" t="n">
         <v>1.44</v>
@@ -7145,208 +7149,67 @@
         <v>2.63</v>
       </c>
       <c r="W47" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X47" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y47" t="n">
         <v>6.5</v>
       </c>
       <c r="Z47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA47" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA47" t="n">
-        <v>9</v>
-      </c>
       <c r="AB47" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD47" t="n">
         <v>29</v>
       </c>
       <c r="AE47" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH47" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM47" t="n">
         <v>51</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>34</v>
       </c>
       <c r="AN47" t="n">
         <v>41</v>
       </c>
       <c r="AO47" t="n">
-        <v>351</v>
+        <v>41</v>
       </c>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
       <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr"/>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>MHJoWiMb</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>03/03/2025</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Kocaelispor</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Istanbulspor AS</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H48" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L48" t="n">
-        <v>5</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N48" t="n">
-        <v>10</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P48" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S48" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V48" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W48" t="n">
-        <v>2</v>
-      </c>
-      <c r="X48" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>351</v>
-      </c>
-      <c r="AP48" t="inlineStr"/>
-      <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS47"/>
+  <dimension ref="A1:AS48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,37 +606,37 @@
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -663,7 +663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EgwRcF8j</t>
+          <t>d49FQXXq</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,128 +673,128 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" t="n">
         <v>2.2</v>
       </c>
-      <c r="S2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.95</v>
-      </c>
       <c r="X2" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>51</v>
       </c>
-      <c r="AI2" t="n">
-        <v>301</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>19</v>
-      </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="AM2" t="n">
         <v>81</v>
       </c>
       <c r="AN2" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AO2" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
@@ -804,7 +804,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2iuHQHZ9</t>
+          <t>EgwRcF8j</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -819,141 +819,133 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>1.91</v>
       </c>
       <c r="K3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N3" t="n">
+        <v>13</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X3" t="n">
         <v>1.8</v>
       </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="Y3" t="n">
         <v>7</v>
       </c>
-      <c r="T3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>5.5</v>
-      </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC3" t="n">
         <v>12</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AD3" t="n">
         <v>26</v>
       </c>
-      <c r="AC3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH3" t="n">
         <v>51</v>
       </c>
-      <c r="AE3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>101</v>
-      </c>
       <c r="AI3" t="n">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AO3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>1.15</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nJDwUjt2</t>
+          <t>2iuHQHZ9</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -963,7 +955,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -973,73 +965,73 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="X4" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
@@ -1048,13 +1040,13 @@
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF4" t="n">
         <v>6</v>
@@ -1063,28 +1055,28 @@
         <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO4" t="n">
         <v>101</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>41</v>
       </c>
       <c r="AP4" t="n">
         <v>2.1</v>
@@ -1093,16 +1085,16 @@
         <v>1.78</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IPtlJZRq</t>
+          <t>nJDwUjt2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1112,7 +1104,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1122,136 +1114,136 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atl. Tucuman</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Newells Old Boys</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.44</v>
       </c>
-      <c r="P5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U5" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
       </c>
       <c r="AE5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF5" t="n">
         <v>6</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>81</v>
       </c>
       <c r="AI5" t="n">
-        <v>501</v>
+        <v>6.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AN5" t="n">
         <v>41</v>
       </c>
       <c r="AO5" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="AR5" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OCWWdWCG</t>
+          <t>IPtlJZRq</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1261,138 +1253,146 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:10</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ARGENTINA - PRIMERA NACIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Newells Old Boys</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="W6" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="X6" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="Y6" t="n">
         <v>5.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="n">
         <v>41</v>
       </c>
       <c r="AE6" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>21</v>
       </c>
-      <c r="AH6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>7</v>
-      </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
+        <v>501</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8W8lFgkn</t>
+          <t>OCWWdWCG</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1402,124 +1402,128 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>21:10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AZERBAIJAN - PREMIER LEAGUE</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sabail</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Shamakhi</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.5</v>
+      </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="P7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2</v>
+      </c>
+      <c r="W7" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.91</v>
-      </c>
       <c r="X7" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AD7" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.3</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
         <v>6</v>
       </c>
       <c r="AG7" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="AI7" t="n">
-        <v>900</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.25</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AO7" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1529,7 +1533,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4pNObY45</t>
+          <t>8W8lFgkn</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1539,7 +1543,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1549,110 +1553,114 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sumqayit</t>
+          <t>Sabail</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Qarabag</t>
+          <t>Shamakhi</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2.95</v>
       </c>
       <c r="I8" t="n">
-        <v>1.26</v>
+        <v>3.65</v>
       </c>
       <c r="J8" t="n">
-        <v>8.25</v>
+        <v>2.72</v>
       </c>
       <c r="K8" t="n">
-        <v>2.42</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>2.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>2.52</v>
+        <v>3.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+        <v>1.19</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.35</v>
+      </c>
       <c r="W8" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="X8" t="n">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="Y8" t="n">
-        <v>24</v>
+        <v>6.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>75</v>
+        <v>9.25</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>8.75</v>
       </c>
       <c r="AB8" t="n">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>7.1</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>5.8</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AI8" t="n">
-        <v>600</v>
+        <v>8.75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>5.7</v>
+        <v>12.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>7.2</v>
+        <v>40</v>
       </c>
       <c r="AN8" t="n">
-        <v>11.5</v>
+        <v>50</v>
       </c>
       <c r="AO8" t="n">
-        <v>35</v>
+        <v>900</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1662,7 +1670,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MVSDbAx2</t>
+          <t>4pNObY45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1672,142 +1680,130 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AZERBAIJAN - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Arda</t>
+          <t>Sumqayit</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Qarabag</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.83</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>1.24</v>
       </c>
       <c r="J9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.5</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10</v>
-      </c>
+        <v>1.65</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>2.47</v>
       </c>
       <c r="T9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.63</v>
-      </c>
+        <v>1.42</v>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="X9" t="n">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="Y9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>350</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AI9" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>351</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>5.6</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>9.25</v>
       </c>
       <c r="AL9" t="n">
-        <v>13</v>
+        <v>6.9</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>11.5</v>
       </c>
       <c r="AN9" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AO9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>2.05</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2R50MDU8</t>
+          <t>MVSDbAx2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1817,7 +1813,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1827,91 +1823,91 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Slavia Sofia</t>
+          <t>Arda</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Botev Plovdiv</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA10" t="n">
         <v>9</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y10" t="n">
+      <c r="AB10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF10" t="n">
         <v>7</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>6.5</v>
       </c>
       <c r="AG10" t="n">
         <v>17</v>
@@ -1920,31 +1916,31 @@
         <v>51</v>
       </c>
       <c r="AI10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO10" t="n">
         <v>351</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>34</v>
-      </c>
       <c r="AP10" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -1952,7 +1948,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>radeBmM7</t>
+          <t>2R50MDU8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1962,7 +1958,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1972,128 +1968,132 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Slavia Sofia</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Botev Plovdiv</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.17</v>
+        <v>2.45</v>
       </c>
       <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7</v>
       </c>
-      <c r="I11" t="n">
-        <v>17</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L11" t="n">
-        <v>12</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N11" t="n">
-        <v>19</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z11" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB11" t="n">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AD11" t="n">
         <v>34</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>13</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AK11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL11" t="n">
         <v>29</v>
       </c>
-      <c r="AH11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="AM11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN11" t="n">
         <v>41</v>
       </c>
-      <c r="AK11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>126</v>
-      </c>
       <c r="AO11" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1.98</v>
+      </c>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dYvQwW8r</t>
+          <t>radeBmM7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2103,128 +2103,128 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CHINA - SUPER LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Qingdao West Coast</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.05</v>
+        <v>1.17</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>1.53</v>
       </c>
       <c r="K12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N12" t="n">
+        <v>19</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S12" t="n">
         <v>2.2</v>
       </c>
-      <c r="L12" t="n">
-        <v>4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T12" t="n">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="V12" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="X12" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AH12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="n">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="AM12" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="AO12" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2234,7 +2234,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bZMnhm9O</t>
+          <t>dYvQwW8r</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2244,146 +2244,138 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>CHINA - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>U. Magdalena</t>
+          <t>Qingdao West Coast</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.7</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="S13" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="W13" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="X13" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="Y13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF13" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AG13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI13" t="n">
         <v>11</v>
       </c>
-      <c r="AA13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD13" t="n">
+      <c r="AJ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL13" t="n">
         <v>41</v>
       </c>
-      <c r="AE13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>13</v>
-      </c>
       <c r="AM13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN13" t="n">
         <v>34</v>
       </c>
-      <c r="AN13" t="n">
-        <v>29</v>
-      </c>
       <c r="AO13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>1.2</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>xQsM6nOH</t>
+          <t>bZMnhm9O</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2393,7 +2385,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2403,136 +2395,136 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>U. Magdalena</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.53</v>
       </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="P14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.5</v>
       </c>
-      <c r="J14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="Z14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI14" t="n">
         <v>7</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>101</v>
       </c>
       <c r="AJ14" t="n">
         <v>13</v>
       </c>
       <c r="AK14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
         <v>29</v>
       </c>
-      <c r="AL14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>67</v>
-      </c>
       <c r="AN14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO14" t="n">
-        <v>51</v>
+        <v>1000</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.26</v>
+        <v>1.8</v>
       </c>
       <c r="AR14" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>QmkFTT6r</t>
+          <t>xQsM6nOH</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2542,142 +2534,146 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
         <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC15" t="n">
         <v>15</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA15" t="n">
+      <c r="AD15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE15" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AF15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI15" t="n">
         <v>13</v>
       </c>
-      <c r="AF15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG15" t="n">
+      <c r="AJ15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK15" t="n">
         <v>21</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AL15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM15" t="n">
         <v>51</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>301</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>81</v>
       </c>
       <c r="AN15" t="n">
         <v>51</v>
       </c>
       <c r="AO15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>2.26</v>
+      </c>
       <c r="AR15" t="n">
-        <v>2.05</v>
+        <v>3.15</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.8</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AmyaclaB</t>
+          <t>QmkFTT6r</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2687,138 +2683,142 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Manta</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>1.38</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>1.83</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L16" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V16" t="n">
         <v>3.4</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.5</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X16" t="n">
         <v>1.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC16" t="n">
         <v>11</v>
       </c>
-      <c r="AB16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>26</v>
-      </c>
       <c r="AD16" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>351</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
-        <v>7.5</v>
+        <v>41</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AO16" t="n">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
+      <c r="AR16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>l0FjzriB</t>
+          <t>AmyaclaB</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2828,128 +2828,128 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Manta</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>5.3</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
-        <v>2.52</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="M17" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>4.85</v>
+        <v>7.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="R17" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="U17" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="V17" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W17" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="X17" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AD17" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE17" t="n">
-        <v>4.85</v>
+        <v>7.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>101</v>
+        <v>7.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AO17" t="n">
-        <v>90</v>
+        <v>351</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EoVWFD5d</t>
+          <t>l0FjzriB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2979,52 +2979,52 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>National Bank Egypt</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H18" t="n">
         <v>2.82</v>
       </c>
       <c r="I18" t="n">
-        <v>4.45</v>
+        <v>5.3</v>
       </c>
       <c r="J18" t="n">
-        <v>2.67</v>
+        <v>2.52</v>
       </c>
       <c r="K18" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="L18" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="M18" t="n">
         <v>1.14</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="O18" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P18" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="R18" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S18" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="T18" t="n">
         <v>1.14</v>
@@ -3033,64 +3033,64 @@
         <v>1.6</v>
       </c>
       <c r="V18" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W18" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="X18" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Y18" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z18" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB18" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AD18" t="n">
         <v>45</v>
       </c>
       <c r="AE18" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="AF18" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH18" t="n">
         <v>150</v>
       </c>
       <c r="AI18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AO18" t="n">
         <v>101</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>80</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3100,7 +3100,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hWtOHZzp</t>
+          <t>EoVWFD5d</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3120,118 +3120,118 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>National Bank Egypt</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>El Gouna</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
-        <v>2.47</v>
+        <v>2.85</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>4.65</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="K19" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="L19" t="n">
-        <v>4.55</v>
+        <v>5.2</v>
       </c>
       <c r="M19" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="P19" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="R19" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>5.3</v>
+        <v>4.85</v>
       </c>
       <c r="T19" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="U19" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="V19" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="W19" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="X19" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>10.5</v>
+        <v>7.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AB19" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AD19" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE19" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="AF19" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="AG19" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO19" t="n">
         <v>101</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>65</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3241,7 +3241,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SIz2tYfL</t>
+          <t>hWtOHZzp</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3251,142 +3251,138 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AC Ajaccio</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>El Gouna</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="I20" t="n">
         <v>3.8</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.2</v>
-      </c>
       <c r="J20" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4.55</v>
       </c>
       <c r="M20" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="R20" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="S20" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="U20" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="V20" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="W20" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X20" t="n">
         <v>1.62</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AB20" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AC20" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AD20" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE20" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="AF20" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AG20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>19</v>
       </c>
-      <c r="AH20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI20" t="n">
+      <c r="AK20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO20" t="n">
         <v>101</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>1.85</v>
-      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>jc5IAq77</t>
+          <t>SIz2tYfL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3396,142 +3392,142 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Chennaiyin</t>
+          <t>AC Ajaccio</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>North East Utd</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J21" t="n">
         <v>3.75</v>
       </c>
-      <c r="H21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>1.91</v>
       </c>
-      <c r="J21" t="n">
-        <v>4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P21" t="n">
         <v>2.5</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="Q21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA21" t="n">
         <v>15</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>13</v>
       </c>
       <c r="AB21" t="n">
         <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN21" t="n">
         <v>41</v>
       </c>
-      <c r="AI21" t="n">
-        <v>126</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>15</v>
-      </c>
       <c r="AO21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>1.78</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bet97QlJ</t>
+          <t>jc5IAq77</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3541,134 +3537,142 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PSS Sleman</t>
+          <t>Chennaiyin</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>North East Utd</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.22</v>
+        <v>3.6</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="J22" t="n">
-        <v>2.82</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
       <c r="O22" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="R22" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="S22" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="V22" t="n">
-        <v>2.57</v>
+        <v>3.4</v>
       </c>
       <c r="W22" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X22" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
-        <v>11.75</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="AB22" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AD22" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG22" t="n">
         <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AI22" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL22" t="n">
         <v>17</v>
       </c>
-      <c r="AL22" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AM22" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO22" t="n">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
+      <c r="AR22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>d0PGtY33</t>
+          <t>bet97QlJ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3678,128 +3682,124 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>PSS Sleman</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>Barito Putera</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.5</v>
+        <v>2.82</v>
       </c>
       <c r="K23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N23" t="n">
-        <v>8</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>1.72</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="S23" t="n">
-        <v>4.33</v>
+        <v>2.65</v>
       </c>
       <c r="T23" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="U23" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="V23" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="W23" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="X23" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>11.75</v>
       </c>
       <c r="AA23" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AC23" t="n">
         <v>17</v>
       </c>
       <c r="AD23" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE23" t="n">
-        <v>8.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF23" t="n">
         <v>6.5</v>
       </c>
       <c r="AG23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>17</v>
       </c>
-      <c r="AH23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>401</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>11</v>
-      </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="AN23" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AO23" t="n">
-        <v>41</v>
+        <v>300</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3809,7 +3809,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hSIPvCYF</t>
+          <t>d0PGtY33</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3829,118 +3829,118 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Galway</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="K24" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="T24" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="U24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X24" t="n">
         <v>1.67</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.57</v>
       </c>
       <c r="Y24" t="n">
         <v>6</v>
       </c>
       <c r="Z24" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB24" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AD24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE24" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AF24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG24" t="n">
         <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI24" t="n">
-        <v>101</v>
+        <v>9.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="AM24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO24" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -3950,7 +3950,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>bPLXxj3S</t>
+          <t>hSIPvCYF</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3970,118 +3970,118 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>Galway</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="I25" t="n">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="L25" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.98</v>
+        <v>2.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.88</v>
+        <v>1.4</v>
       </c>
       <c r="S25" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="T25" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="U25" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="V25" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="W25" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="X25" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="Y25" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z25" t="n">
         <v>11</v>
       </c>
-      <c r="Z25" t="n">
-        <v>21</v>
-      </c>
       <c r="AA25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB25" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD25" t="n">
         <v>41</v>
       </c>
       <c r="AE25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK25" t="n">
         <v>12</v>
       </c>
-      <c r="AF25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH25" t="n">
+      <c r="AL25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN25" t="n">
         <v>51</v>
       </c>
-      <c r="AI25" t="n">
-        <v>351</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>15</v>
-      </c>
       <c r="AO25" t="n">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4091,7 +4091,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EqUkdNdK</t>
+          <t>bPLXxj3S</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4111,61 +4111,61 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>St. Patricks</t>
+          <t>Sligo Rovers</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>4.1</v>
       </c>
       <c r="H26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P26" t="n">
         <v>3.4</v>
       </c>
-      <c r="I26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N26" t="n">
-        <v>9</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.4</v>
       </c>
-      <c r="P26" t="n">
+      <c r="V26" t="n">
         <v>2.75</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.5</v>
       </c>
       <c r="W26" t="n">
         <v>1.95</v>
@@ -4174,55 +4174,55 @@
         <v>1.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AB26" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AC26" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AD26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE26" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>401</v>
+        <v>7</v>
       </c>
       <c r="AJ26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK26" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AL26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM26" t="n">
         <v>15</v>
       </c>
-      <c r="AL26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>34</v>
-      </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO26" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4232,7 +4232,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>rcc4XTQk</t>
+          <t>EqUkdNdK</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4252,31 +4252,31 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>St. Patricks</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J27" t="n">
         <v>3</v>
       </c>
-      <c r="J27" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K27" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>1.07</v>
@@ -4285,46 +4285,46 @@
         <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U27" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V27" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X27" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA27" t="n">
         <v>9.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
         <v>21</v>
@@ -4336,34 +4336,34 @@
         <v>8.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH27" t="n">
         <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>301</v>
+        <v>8.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AM27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AO27" t="n">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4373,7 +4373,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>jXBp0OoQ</t>
+          <t>rcc4XTQk</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4383,128 +4383,128 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="S28" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="T28" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="U28" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="V28" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="W28" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="X28" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE28" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC28" t="n">
+      <c r="AF28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG28" t="n">
         <v>15</v>
       </c>
-      <c r="AD28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>13</v>
-      </c>
       <c r="AH28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="n">
-        <v>151</v>
+        <v>8.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AM28" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO28" t="n">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4514,7 +4514,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OMkaymPG</t>
+          <t>jXBp0OoQ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4524,142 +4524,138 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>12</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S29" t="n">
         <v>2.75</v>
       </c>
-      <c r="K29" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N29" t="n">
-        <v>17</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.25</v>
-      </c>
       <c r="T29" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="U29" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="V29" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W29" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X29" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Y29" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z29" t="n">
         <v>11</v>
       </c>
-      <c r="Z29" t="n">
-        <v>13</v>
-      </c>
       <c r="AA29" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="n">
         <v>15</v>
       </c>
       <c r="AD29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>21</v>
       </c>
-      <c r="AE29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH29" t="n">
+      <c r="AK29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN29" t="n">
         <v>34</v>
       </c>
-      <c r="AI29" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>21</v>
-      </c>
       <c r="AO29" t="n">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>1.95</v>
-      </c>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>f9CWIv9k</t>
+          <t>OMkaymPG</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4679,31 +4675,31 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.85</v>
+        <v>2.2</v>
       </c>
       <c r="H30" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L30" t="n">
         <v>3.4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.75</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -4718,16 +4714,16 @@
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R30" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S30" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T30" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U30" t="n">
         <v>1.29</v>
@@ -4742,55 +4738,55 @@
         <v>2.5</v>
       </c>
       <c r="Y30" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z30" t="n">
         <v>13</v>
       </c>
-      <c r="Z30" t="n">
-        <v>17</v>
-      </c>
       <c r="AA30" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD30" t="n">
         <v>21</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>23</v>
       </c>
       <c r="AE30" t="n">
         <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
         <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK30" t="n">
         <v>11</v>
       </c>
-      <c r="AK30" t="n">
-        <v>13</v>
-      </c>
       <c r="AL30" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AM30" t="n">
         <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
@@ -4804,7 +4800,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0MsXGIw2</t>
+          <t>f9CWIv9k</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4824,128 +4820,132 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>2.82</v>
+        <v>2.25</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="L31" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N31" t="n">
+        <v>17</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V31" t="n">
         <v>3.5</v>
       </c>
-      <c r="M31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="W31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA31" t="n">
         <v>11</v>
       </c>
-      <c r="O31" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X31" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z31" t="n">
+      <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG31" t="n">
         <v>12</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AH31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK31" t="n">
         <v>9.5</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AL31" t="n">
         <v>23</v>
       </c>
-      <c r="AC31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>11</v>
-      </c>
       <c r="AM31" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO31" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
+      <c r="AR31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0WxmiTL7</t>
+          <t>0MsXGIw2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4955,128 +4955,128 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Rakow</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lechia Gdansk</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.39</v>
+        <v>2.35</v>
       </c>
       <c r="H32" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="J32" t="n">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L32" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
+        <v>11</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG32" t="n">
         <v>13</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V32" t="n">
-        <v>3</v>
-      </c>
-      <c r="W32" t="n">
-        <v>2</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD32" t="n">
+      <c r="AH32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL32" t="n">
         <v>29</v>
       </c>
-      <c r="AE32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>401</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>21</v>
-      </c>
       <c r="AM32" t="n">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="AN32" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AO32" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5086,7 +5086,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0UwD6DSO</t>
+          <t>0WxmiTL7</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5101,123 +5101,123 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Rakow</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Termalica B-B.</t>
+          <t>Lechia Gdansk</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.63</v>
+        <v>1.42</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>1.92</v>
       </c>
       <c r="K33" t="n">
-        <v>2.2</v>
+        <v>2.37</v>
       </c>
       <c r="L33" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
         <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="S33" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U33" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V33" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Y33" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB33" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>26</v>
-      </c>
       <c r="AC33" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AD33" t="n">
         <v>29</v>
       </c>
       <c r="AE33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF33" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AH33" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AI33" t="n">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="AJ33" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AK33" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AL33" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="AM33" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AN33" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AO33" t="n">
-        <v>29</v>
+        <v>401</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5227,7 +5227,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GO2VJ1aC</t>
+          <t>0UwD6DSO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5237,142 +5237,138 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Termalica B-B.</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.25</v>
+        <v>2.63</v>
       </c>
       <c r="H34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>11</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF34" t="n">
         <v>6.5</v>
       </c>
-      <c r="I34" t="n">
+      <c r="AG34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK34" t="n">
         <v>10</v>
       </c>
-      <c r="J34" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L34" t="n">
-        <v>9</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N34" t="n">
-        <v>19</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG34" t="n">
+      <c r="AL34" t="n">
         <v>23</v>
       </c>
-      <c r="AH34" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>351</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>26</v>
-      </c>
       <c r="AM34" t="n">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="AN34" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="AO34" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>2.05</v>
-      </c>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4AlRix2K</t>
+          <t>GO2VJ1aC</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5382,138 +5378,142 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.73</v>
+        <v>1.22</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="I35" t="n">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="J35" t="n">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="K35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N35" t="n">
+        <v>19</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S35" t="n">
         <v>2.2</v>
       </c>
-      <c r="L35" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N35" t="n">
-        <v>11</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3.25</v>
-      </c>
       <c r="T35" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="U35" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="V35" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="W35" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="X35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y35" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z35" t="n">
         <v>7</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>8.5</v>
       </c>
       <c r="AA35" t="n">
         <v>8.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AC35" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AD35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK35" t="n">
         <v>26</v>
       </c>
-      <c r="AE35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH35" t="n">
+      <c r="AL35" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN35" t="n">
         <v>51</v>
       </c>
-      <c r="AI35" t="n">
-        <v>251</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>34</v>
-      </c>
       <c r="AO35" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
+      <c r="AR35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bkP1kuid</t>
+          <t>4AlRix2K</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5523,128 +5523,128 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Jedinstvo U.</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>TSC</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5.6</v>
+        <v>1.73</v>
       </c>
       <c r="H36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I36" t="n">
         <v>4.2</v>
       </c>
-      <c r="I36" t="n">
-        <v>1.47</v>
-      </c>
       <c r="J36" t="n">
-        <v>5.5</v>
+        <v>2.38</v>
       </c>
       <c r="K36" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="L36" t="n">
-        <v>1.98</v>
+        <v>4.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
+        <v>11</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z36" t="n">
         <v>8.5</v>
       </c>
-      <c r="O36" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V36" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>35</v>
-      </c>
       <c r="AA36" t="n">
-        <v>18</v>
+        <v>8.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="AC36" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AD36" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AE36" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AF36" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AG36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH36" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AI36" t="n">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="AJ36" t="n">
-        <v>7.8</v>
+        <v>23</v>
       </c>
       <c r="AK36" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AL36" t="n">
-        <v>8.25</v>
+        <v>51</v>
       </c>
       <c r="AM36" t="n">
-        <v>10.25</v>
+        <v>34</v>
       </c>
       <c r="AN36" t="n">
-        <v>11.25</v>
+        <v>41</v>
       </c>
       <c r="AO36" t="n">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -5654,7 +5654,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>nB5dBMDF</t>
+          <t>bkP1kuid</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5674,61 +5674,61 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Jedinstvo U.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>TSC</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="H37" t="n">
-        <v>3.1</v>
+        <v>4.15</v>
       </c>
       <c r="I37" t="n">
-        <v>3.8</v>
+        <v>1.47</v>
       </c>
       <c r="J37" t="n">
-        <v>2.57</v>
+        <v>5.4</v>
       </c>
       <c r="K37" t="n">
-        <v>2.07</v>
+        <v>2.37</v>
       </c>
       <c r="L37" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="P37" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="R37" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="S37" t="n">
-        <v>3.25</v>
+        <v>2.52</v>
       </c>
       <c r="T37" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="U37" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="V37" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="W37" t="n">
         <v>1.78</v>
@@ -5737,55 +5737,55 @@
         <v>1.93</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.8</v>
+        <v>17</v>
       </c>
       <c r="Z37" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="AA37" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AK37" t="n">
         <v>8.25</v>
       </c>
-      <c r="AB37" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI37" t="n">
+      <c r="AL37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO37" t="n">
         <v>500</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>35</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>37</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -5795,7 +5795,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Chky4v6k</t>
+          <t>nB5dBMDF</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -5815,118 +5815,118 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.95</v>
+        <v>1.95</v>
       </c>
       <c r="H38" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="J38" t="n">
-        <v>3.7</v>
+        <v>2.57</v>
       </c>
       <c r="K38" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M38" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="O38" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="P38" t="n">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="R38" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="S38" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="T38" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="U38" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="V38" t="n">
-        <v>2.4</v>
+        <v>2.72</v>
       </c>
       <c r="W38" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="X38" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="Z38" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA38" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI38" t="n">
         <v>11.25</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AJ38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN38" t="n">
         <v>37</v>
       </c>
-      <c r="AC38" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>21</v>
-      </c>
       <c r="AO38" t="n">
-        <v>37</v>
+        <v>500</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -5936,7 +5936,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>QeHmDrq3</t>
+          <t>Chky4v6k</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5956,118 +5956,118 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.15</v>
+        <v>2.95</v>
       </c>
       <c r="H39" t="n">
         <v>3.15</v>
       </c>
       <c r="I39" t="n">
-        <v>3.15</v>
+        <v>2.25</v>
       </c>
       <c r="J39" t="n">
-        <v>2.77</v>
+        <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="L39" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="O39" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="P39" t="n">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="R39" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="S39" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="T39" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="U39" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="V39" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="W39" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="X39" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="Z39" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AA39" t="n">
-        <v>8.75</v>
+        <v>11.25</v>
       </c>
       <c r="AB39" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AC39" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AD39" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="AE39" t="n">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="AF39" t="n">
         <v>6.2</v>
       </c>
       <c r="AG39" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH39" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AI39" t="n">
-        <v>450</v>
+        <v>6.5</v>
       </c>
       <c r="AJ39" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK39" t="n">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="AL39" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AM39" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AN39" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AO39" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6077,7 +6077,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>lrrhJalB</t>
+          <t>QeHmDrq3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6087,128 +6087,128 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
         <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="J40" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="K40" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L40" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="M40" t="n">
         <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P40" t="n">
         <v>3.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="R40" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="S40" t="n">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="T40" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="U40" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="V40" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="W40" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="X40" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z40" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AB40" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC40" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AD40" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE40" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AG40" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AI40" t="n">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="AJ40" t="n">
-        <v>9</v>
+        <v>18.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL40" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN40" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AO40" t="n">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6218,7 +6218,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>WIglMAY2</t>
+          <t>lrrhJalB</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -6233,78 +6233,78 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 2</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Seongnam</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Cheongju</t>
+          <t>Gimcheon Sangmu</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.38</v>
+        <v>2.55</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J41" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L41" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="O41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U41" t="n">
         <v>1.44</v>
       </c>
-      <c r="P41" t="n">
+      <c r="V41" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q41" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.38</v>
-      </c>
       <c r="W41" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X41" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA41" t="n">
         <v>10</v>
@@ -6313,57 +6313,53 @@
         <v>23</v>
       </c>
       <c r="AC41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD41" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AE41" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AF41" t="n">
         <v>6</v>
       </c>
       <c r="AG41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH41" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AJ41" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AK41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL41" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AM41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN41" t="n">
         <v>34</v>
       </c>
-      <c r="AN41" t="n">
-        <v>29</v>
-      </c>
       <c r="AO41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>1.98</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GbBHSW0l</t>
+          <t>WIglMAY2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6373,134 +6369,134 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SOUTH KOREA - K LEAGUE 2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Seongnam</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Cheongju</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="H42" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P42" t="n">
         <v>2.63</v>
       </c>
-      <c r="K42" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N42" t="n">
+      <c r="Q42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.5</v>
       </c>
-      <c r="O42" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W42" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>5</v>
-      </c>
       <c r="Z42" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AA42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB42" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AC42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD42" t="n">
         <v>41</v>
       </c>
       <c r="AE42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF42" t="n">
         <v>6</v>
       </c>
-      <c r="AF42" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AG42" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH42" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI42" t="n">
-        <v>101</v>
+        <v>7.5</v>
       </c>
       <c r="AJ42" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK42" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AL42" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM42" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AN42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO42" t="n">
-        <v>51</v>
+        <v>1000</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
@@ -6508,7 +6504,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8MT68R8s</t>
+          <t>GbBHSW0l</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6518,138 +6514,142 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>2.88</v>
+        <v>5.25</v>
       </c>
       <c r="J43" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="K43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L43" t="n">
+        <v>6</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V43" t="n">
         <v>2.2</v>
       </c>
-      <c r="L43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N43" t="n">
-        <v>11</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U43" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V43" t="n">
-        <v>2.75</v>
-      </c>
       <c r="W43" t="n">
-        <v>1.73</v>
+        <v>2.38</v>
       </c>
       <c r="X43" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="Y43" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Z43" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AA43" t="n">
         <v>9.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
         <v>19</v>
       </c>
       <c r="AD43" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AE43" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AF43" t="n">
         <v>6.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AH43" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AI43" t="n">
-        <v>201</v>
+        <v>9.5</v>
       </c>
       <c r="AJ43" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="AK43" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AL43" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AM43" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AN43" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AO43" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1.8</v>
+      </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>dr0ljpgD</t>
+          <t>8MT68R8s</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6669,55 +6669,55 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="H44" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
         <v>2.2</v>
       </c>
       <c r="L44" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O44" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P44" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="R44" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T44" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U44" t="n">
         <v>1.4</v>
@@ -6726,28 +6726,28 @@
         <v>2.75</v>
       </c>
       <c r="W44" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X44" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA44" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>10</v>
-      </c>
       <c r="AB44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD44" t="n">
         <v>26</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>29</v>
       </c>
       <c r="AE44" t="n">
         <v>11</v>
@@ -6762,25 +6762,25 @@
         <v>41</v>
       </c>
       <c r="AI44" t="n">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="AJ44" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AK44" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL44" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AM44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN44" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AO44" t="n">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="AP44" t="inlineStr"/>
       <c r="AQ44" t="inlineStr"/>
@@ -6790,7 +6790,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0G6uh6O0</t>
+          <t>dr0ljpgD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -6810,37 +6810,37 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.53</v>
+        <v>2.7</v>
       </c>
       <c r="H45" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="I45" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O45" t="n">
         <v>1.25</v>
@@ -6849,16 +6849,16 @@
         <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R45" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S45" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T45" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U45" t="n">
         <v>1.36</v>
@@ -6867,61 +6867,61 @@
         <v>3</v>
       </c>
       <c r="W45" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="X45" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="Y45" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Z45" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AA45" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AB45" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AC45" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AD45" t="n">
         <v>29</v>
       </c>
       <c r="AE45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF45" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AH45" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AI45" t="n">
-        <v>351</v>
+        <v>9.5</v>
       </c>
       <c r="AJ45" t="n">
         <v>13</v>
       </c>
       <c r="AK45" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AL45" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AM45" t="n">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="AN45" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AO45" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="AP45" t="inlineStr"/>
       <c r="AQ45" t="inlineStr"/>
@@ -6931,7 +6931,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>b76IQQUP</t>
+          <t>0G6uh6O0</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6951,61 +6951,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>6</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N46" t="n">
+        <v>13</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R46" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L46" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N46" t="n">
-        <v>10</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S46" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="U46" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="V46" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W46" t="n">
         <v>1.91</v>
@@ -7014,55 +7014,55 @@
         <v>1.8</v>
       </c>
       <c r="Y46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z46" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AC46" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AD46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE46" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AF46" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AG46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH46" t="n">
         <v>51</v>
       </c>
       <c r="AI46" t="n">
-        <v>351</v>
+        <v>15</v>
       </c>
       <c r="AJ46" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="AK46" t="n">
         <v>19</v>
       </c>
       <c r="AL46" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="AM46" t="n">
         <v>41</v>
       </c>
       <c r="AN46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO46" t="n">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
@@ -7072,7 +7072,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MHJoWiMb</t>
+          <t>b76IQQUP</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -7087,42 +7087,42 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="H47" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="K47" t="n">
         <v>2.1</v>
       </c>
       <c r="L47" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O47" t="n">
         <v>1.33</v>
@@ -7131,10 +7131,10 @@
         <v>3.25</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R47" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S47" t="n">
         <v>3.75</v>
@@ -7149,67 +7149,208 @@
         <v>2.63</v>
       </c>
       <c r="W47" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="X47" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Y47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z47" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AA47" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB47" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD47" t="n">
         <v>29</v>
       </c>
       <c r="AE47" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG47" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH47" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI47" t="n">
-        <v>351</v>
+        <v>11</v>
       </c>
       <c r="AJ47" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AK47" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AL47" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AM47" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN47" t="n">
         <v>41</v>
       </c>
       <c r="AO47" t="n">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
       <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr"/>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MHJoWiMb</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Kocaelispor</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N48" t="n">
+        <v>10</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>351</v>
+      </c>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
@@ -833,28 +833,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -875,31 +875,31 @@
         <v>1.44</v>
       </c>
       <c r="U3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y3" t="n">
         <v>7</v>
       </c>
       <c r="Z3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA3" t="n">
         <v>8.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>26</v>
@@ -908,13 +908,13 @@
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG3" t="n">
         <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
@@ -923,10 +923,10 @@
         <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM3" t="n">
         <v>51</v>
@@ -935,7 +935,7 @@
         <v>51</v>
       </c>
       <c r="AO3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I5" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1210,13 +1210,13 @@
         <v>6.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
         <v>12</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
@@ -1234,10 +1234,10 @@
         <v>1.78</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="6">
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
@@ -1290,10 +1290,10 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1329,13 +1329,13 @@
         <v>5.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>9.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
         <v>19</v>
@@ -1356,7 +1356,7 @@
         <v>81</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
         <v>21</v>
@@ -1562,22 +1562,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="H8" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="K8" t="n">
         <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -1591,10 +1591,10 @@
         <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T8" t="n">
         <v>1.19</v>
@@ -1606,55 +1606,55 @@
         <v>2.35</v>
       </c>
       <c r="W8" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X8" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Z8" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA8" t="n">
         <v>9.25</v>
       </c>
-      <c r="AA8" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AB8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE8" t="n">
         <v>7.1</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AG8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>16</v>
       </c>
-      <c r="AH8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AK8" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AM8" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AN8" t="n">
         <v>50</v>
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="H9" t="n">
         <v>5.2</v>
@@ -1708,10 +1708,10 @@
         <v>1.24</v>
       </c>
       <c r="J9" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L9" t="n">
         <v>1.65</v>
@@ -1739,13 +1739,13 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X9" t="n">
         <v>1.52</v>
       </c>
       <c r="Y9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z9" t="n">
         <v>90</v>
@@ -1754,7 +1754,7 @@
         <v>37</v>
       </c>
       <c r="AB9" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AC9" t="n">
         <v>175</v>
@@ -1763,7 +1763,7 @@
         <v>150</v>
       </c>
       <c r="AE9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
@@ -1775,16 +1775,16 @@
         <v>175</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AK9" t="n">
         <v>9.25</v>
       </c>
       <c r="AL9" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AM9" t="n">
         <v>11.5</v>
@@ -1977,28 +1977,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
         <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L11" t="n">
         <v>3.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2007,52 +2007,52 @@
         <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W11" t="n">
         <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
       </c>
       <c r="Z11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA11" t="n">
         <v>11</v>
       </c>
-      <c r="AA11" t="n">
-        <v>10</v>
-      </c>
       <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
         <v>23</v>
       </c>
-      <c r="AC11" t="n">
-        <v>21</v>
-      </c>
       <c r="AD11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
         <v>17</v>
@@ -2125,25 +2125,25 @@
         <v>1.17</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I12" t="n">
         <v>17</v>
       </c>
       <c r="J12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="L12" t="n">
         <v>12</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
         <v>1.14</v>
@@ -2152,16 +2152,16 @@
         <v>5.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R12" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U12" t="n">
         <v>1.25</v>
@@ -2176,7 +2176,7 @@
         <v>1.57</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
         <v>6</v>
@@ -2188,7 +2188,7 @@
         <v>6.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>34</v>
@@ -2206,10 +2206,10 @@
         <v>81</v>
       </c>
       <c r="AI12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK12" t="n">
         <v>41</v>
@@ -2218,18 +2218,22 @@
         <v>251</v>
       </c>
       <c r="AM12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AO12" t="n">
         <v>101</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
+      <c r="AR12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2404,22 +2408,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
         <v>2.8</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M14" t="n">
         <v>1.13</v>
@@ -2437,7 +2441,7 @@
         <v>2.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S14" t="n">
         <v>5.5</v>
@@ -2458,19 +2462,19 @@
         <v>1.62</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD14" t="n">
         <v>41</v>
@@ -2488,16 +2492,16 @@
         <v>67</v>
       </c>
       <c r="AI14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
         <v>12</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
         <v>29</v>
@@ -2515,10 +2519,10 @@
         <v>1.8</v>
       </c>
       <c r="AR14" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="15">
@@ -2553,28 +2557,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -2583,16 +2587,16 @@
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R15" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U15" t="n">
         <v>1.44</v>
@@ -2601,10 +2605,10 @@
         <v>2.63</v>
       </c>
       <c r="W15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y15" t="n">
         <v>5.5</v>
@@ -2616,7 +2620,7 @@
         <v>9</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
@@ -2628,7 +2632,7 @@
         <v>8.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG15" t="n">
         <v>23</v>
@@ -2640,31 +2644,31 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="n">
         <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO15" t="n">
         <v>101</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.26</v>
+        <v>2.29</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AS15" t="n">
         <v>1.35</v>
@@ -2877,16 +2881,16 @@
         <v>2.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T17" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U17" t="n">
         <v>1.5</v>
@@ -2937,7 +2941,7 @@
         <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
         <v>26</v>
@@ -2988,106 +2992,106 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="H18" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J18" t="n">
         <v>2.82</v>
       </c>
-      <c r="I18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.52</v>
-      </c>
       <c r="K18" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="L18" t="n">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="M18" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N18" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P18" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="R18" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S18" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U18" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="W18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="X18" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.75</v>
+        <v>5.1</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.2</v>
+        <v>8.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AD18" t="n">
         <v>45</v>
       </c>
       <c r="AE18" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="AF18" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH18" t="n">
         <v>150</v>
       </c>
       <c r="AI18" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AJ18" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AK18" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN18" t="n">
         <v>80</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>90</v>
       </c>
       <c r="AO18" t="n">
         <v>101</v>
@@ -3129,28 +3133,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>2.85</v>
       </c>
       <c r="I19" t="n">
-        <v>4.65</v>
+        <v>4.4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="K19" t="n">
         <v>1.87</v>
       </c>
       <c r="L19" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>1.14</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O19" t="n">
         <v>1.57</v>
@@ -3159,22 +3163,22 @@
         <v>2.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="R19" t="n">
         <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="T19" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="U19" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V19" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="W19" t="n">
         <v>2.25</v>
@@ -3183,49 +3187,49 @@
         <v>1.57</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AA19" t="n">
         <v>9.25</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD19" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AF19" t="n">
         <v>5.8</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>150</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK19" t="n">
         <v>16</v>
       </c>
       <c r="AL19" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN19" t="n">
         <v>80</v>
@@ -3273,103 +3277,103 @@
         <v>2.45</v>
       </c>
       <c r="H20" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="L20" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="M20" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N20" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P20" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.3</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>5.4</v>
       </c>
       <c r="Z20" t="n">
         <v>10.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
         <v>28</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>27</v>
       </c>
       <c r="AD20" t="n">
         <v>50</v>
       </c>
       <c r="AE20" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="AF20" t="n">
         <v>5.1</v>
       </c>
       <c r="AG20" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI20" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>70</v>
       </c>
       <c r="AM20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO20" t="n">
         <v>101</v>
@@ -3556,82 +3560,82 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L22" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X22" t="n">
         <v>2.25</v>
       </c>
-      <c r="S22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X22" t="n">
-        <v>2.38</v>
-      </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD22" t="n">
         <v>26</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>29</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG22" t="n">
         <v>12</v>
@@ -3643,16 +3647,16 @@
         <v>10</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
         <v>9</v>
       </c>
       <c r="AL22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM22" t="n">
         <v>17</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>15</v>
       </c>
       <c r="AN22" t="n">
         <v>21</v>
@@ -3663,10 +3667,10 @@
       <c r="AP22" t="inlineStr"/>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="23">
@@ -3701,42 +3705,42 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="H23" t="n">
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J23" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R23" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S23" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="T23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="U23" t="n">
         <v>1.39</v>
@@ -3754,25 +3758,25 @@
         <v>8.75</v>
       </c>
       <c r="Z23" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA23" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE23" t="n">
         <v>11.25</v>
       </c>
       <c r="AF23" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AG23" t="n">
         <v>12</v>
@@ -3781,22 +3785,22 @@
         <v>50</v>
       </c>
       <c r="AI23" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO23" t="n">
         <v>300</v>
@@ -3838,22 +3842,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
@@ -3892,7 +3896,7 @@
         <v>1.67</v>
       </c>
       <c r="Y24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z24" t="n">
         <v>7.5</v>
@@ -3901,7 +3905,7 @@
         <v>9</v>
       </c>
       <c r="AB24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
         <v>17</v>
@@ -3919,7 +3923,7 @@
         <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="n">
         <v>9.5</v>
@@ -3937,13 +3941,17 @@
         <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO24" t="n">
         <v>501</v>
       </c>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
+      <c r="AP24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>2.1</v>
+      </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
     </row>
@@ -3979,13 +3987,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H25" t="n">
         <v>2.88</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J25" t="n">
         <v>3.6</v>
@@ -4003,10 +4011,10 @@
         <v>6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q25" t="n">
         <v>2.88</v>
@@ -4015,10 +4023,10 @@
         <v>1.4</v>
       </c>
       <c r="S25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U25" t="n">
         <v>1.67</v>
@@ -4042,7 +4050,7 @@
         <v>11</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC25" t="n">
         <v>29</v>
@@ -4069,7 +4077,7 @@
         <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>34</v>
@@ -4120,13 +4128,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H26" t="n">
         <v>4.33</v>
       </c>
       <c r="I26" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J26" t="n">
         <v>5</v>
@@ -4135,13 +4143,13 @@
         <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
         <v>1.3</v>
@@ -4156,10 +4164,10 @@
         <v>1.88</v>
       </c>
       <c r="S26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U26" t="n">
         <v>1.4</v>
@@ -4174,7 +4182,7 @@
         <v>1.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z26" t="n">
         <v>21</v>
@@ -4183,7 +4191,7 @@
         <v>13</v>
       </c>
       <c r="AB26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="n">
         <v>34</v>
@@ -4192,7 +4200,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF26" t="n">
         <v>8</v>
@@ -4219,7 +4227,7 @@
         <v>15</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO26" t="n">
         <v>351</v>
@@ -4402,22 +4410,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -4432,10 +4440,10 @@
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R28" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
         <v>3.75</v>
@@ -4495,7 +4503,7 @@
         <v>11</v>
       </c>
       <c r="AL28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM28" t="n">
         <v>26</v>
@@ -4564,7 +4572,7 @@
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
         <v>1.22</v>
@@ -4684,67 +4692,67 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
         <v>2.75</v>
       </c>
       <c r="K30" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O30" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R30" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="S30" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="T30" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="U30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W30" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X30" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB30" t="n">
         <v>21</v>
@@ -4756,16 +4764,16 @@
         <v>21</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI30" t="n">
         <v>13</v>
@@ -4774,27 +4782,27 @@
         <v>19</v>
       </c>
       <c r="AK30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL30" t="n">
         <v>34</v>
       </c>
       <c r="AM30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="31">
@@ -4832,58 +4840,58 @@
         <v>2.8</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J31" t="n">
         <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="L31" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W31" t="n">
         <v>1.53</v>
       </c>
-      <c r="R31" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X31" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z31" t="n">
         <v>17</v>
@@ -4901,10 +4909,10 @@
         <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG31" t="n">
         <v>12</v>
@@ -4913,7 +4921,7 @@
         <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
         <v>13</v>
@@ -4931,15 +4939,15 @@
         <v>21</v>
       </c>
       <c r="AO31" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="32">
@@ -4992,28 +5000,28 @@
         <v>3.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
         <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
         <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R32" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S32" t="n">
         <v>3.25</v>
       </c>
       <c r="T32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U32" t="n">
         <v>1.4</v>
@@ -5115,31 +5123,31 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H33" t="n">
         <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="K33" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L33" t="n">
         <v>7</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -5154,7 +5162,7 @@
         <v>2.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U33" t="n">
         <v>1.36</v>
@@ -5169,7 +5177,7 @@
         <v>1.75</v>
       </c>
       <c r="Y33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z33" t="n">
         <v>6.5</v>
@@ -5178,7 +5186,7 @@
         <v>8.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
@@ -5202,7 +5210,7 @@
         <v>17</v>
       </c>
       <c r="AJ33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK33" t="n">
         <v>21</v>
@@ -5274,28 +5282,28 @@
         <v>3.2</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O34" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R34" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S34" t="n">
         <v>3.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U34" t="n">
         <v>1.4</v>
@@ -5397,52 +5405,52 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H35" t="n">
         <v>6.5</v>
       </c>
       <c r="I35" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J35" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K35" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M35" t="n">
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O35" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="T35" t="n">
         <v>1.5</v>
       </c>
-      <c r="R35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.62</v>
-      </c>
       <c r="U35" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V35" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W35" t="n">
         <v>1.95</v>
@@ -5451,10 +5459,10 @@
         <v>1.8</v>
       </c>
       <c r="Y35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA35" t="n">
         <v>8.5</v>
@@ -5466,10 +5474,10 @@
         <v>11</v>
       </c>
       <c r="AD35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF35" t="n">
         <v>12</v>
@@ -5481,19 +5489,19 @@
         <v>67</v>
       </c>
       <c r="AI35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK35" t="n">
         <v>23</v>
       </c>
-      <c r="AJ35" t="n">
+      <c r="AL35" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM35" t="n">
         <v>51</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>126</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>67</v>
       </c>
       <c r="AN35" t="n">
         <v>51</v>
@@ -5504,10 +5512,10 @@
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="36">
@@ -5551,7 +5559,7 @@
         <v>4.2</v>
       </c>
       <c r="J36" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K36" t="n">
         <v>2.2</v>
@@ -5560,25 +5568,25 @@
         <v>4.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R36" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S36" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T36" t="n">
         <v>1.33</v>
@@ -5683,109 +5691,109 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H37" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="I37" t="n">
         <v>1.47</v>
       </c>
       <c r="J37" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="K37" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R37" t="n">
         <v>2.37</v>
       </c>
-      <c r="L37" t="n">
-        <v>2</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.15</v>
-      </c>
       <c r="S37" t="n">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="T37" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="U37" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="V37" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="W37" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="X37" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="Y37" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Z37" t="n">
         <v>35</v>
       </c>
       <c r="AA37" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB37" t="n">
         <v>100</v>
       </c>
       <c r="AC37" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH37" t="n">
         <v>55</v>
       </c>
-      <c r="AD37" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE37" t="n">
+      <c r="AI37" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>7.6</v>
       </c>
       <c r="AK37" t="n">
         <v>8.25</v>
       </c>
       <c r="AL37" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AM37" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AN37" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO37" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="AP37" t="inlineStr"/>
       <c r="AQ37" t="inlineStr"/>
@@ -5965,19 +5973,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="J39" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K39" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="L39" t="n">
         <v>3</v>
@@ -5986,76 +5994,76 @@
         <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="O39" t="n">
         <v>1.42</v>
       </c>
       <c r="P39" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R39" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S39" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T39" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="U39" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V39" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="W39" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="X39" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AA39" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AC39" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AD39" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE39" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AF39" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AG39" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AJ39" t="n">
         <v>10</v>
       </c>
       <c r="AK39" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AL39" t="n">
         <v>22</v>
@@ -6067,7 +6075,7 @@
         <v>37</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AP39" t="inlineStr"/>
       <c r="AQ39" t="inlineStr"/>
@@ -6106,61 +6114,61 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.15</v>
       </c>
       <c r="J40" t="n">
         <v>2.75</v>
       </c>
       <c r="K40" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="L40" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S40" t="n">
         <v>3.65</v>
       </c>
-      <c r="M40" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N40" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.92</v>
-      </c>
       <c r="T40" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="U40" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="V40" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="W40" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="X40" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="Y40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z40" t="n">
         <v>10.5</v>
@@ -6169,46 +6177,46 @@
         <v>8.75</v>
       </c>
       <c r="AB40" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC40" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AE40" t="n">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="AF40" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AG40" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH40" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AI40" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AJ40" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AL40" t="n">
         <v>45</v>
       </c>
       <c r="AM40" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AN40" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6545,22 +6553,22 @@
         <v>2.6</v>
       </c>
       <c r="K43" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L43" t="n">
         <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P43" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q43" t="n">
         <v>2.7</v>
@@ -6572,7 +6580,7 @@
         <v>5.5</v>
       </c>
       <c r="T43" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="U43" t="n">
         <v>1.62</v>
@@ -6638,10 +6646,10 @@
         <v>101</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -6678,46 +6686,46 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K44" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L44" t="n">
         <v>3.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T44" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.33</v>
       </c>
       <c r="U44" t="n">
         <v>1.4</v>
@@ -6726,7 +6734,7 @@
         <v>2.75</v>
       </c>
       <c r="W44" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="X44" t="n">
         <v>2</v>
@@ -6738,31 +6746,31 @@
         <v>12</v>
       </c>
       <c r="AA44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB44" t="n">
         <v>23</v>
       </c>
       <c r="AC44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE44" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG44" t="n">
         <v>13</v>
       </c>
       <c r="AH44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ44" t="n">
         <v>15</v>
@@ -6777,7 +6785,7 @@
         <v>23</v>
       </c>
       <c r="AN44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO44" t="n">
         <v>201</v>
@@ -6819,61 +6827,61 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H45" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L45" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O45" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P45" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="R45" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="T45" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="U45" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W45" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="X45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z45" t="n">
         <v>15</v>
@@ -6888,10 +6896,10 @@
         <v>21</v>
       </c>
       <c r="AD45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF45" t="n">
         <v>6.5</v>
@@ -6903,22 +6911,22 @@
         <v>41</v>
       </c>
       <c r="AI45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ45" t="n">
         <v>13</v>
       </c>
       <c r="AK45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL45" t="n">
         <v>23</v>
       </c>
       <c r="AM45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO45" t="n">
         <v>151</v>
@@ -6963,10 +6971,10 @@
         <v>1.53</v>
       </c>
       <c r="H46" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
         <v>2.1</v>
@@ -6978,10 +6986,10 @@
         <v>6</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O46" t="n">
         <v>1.25</v>
@@ -6990,16 +6998,16 @@
         <v>3.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T46" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U46" t="n">
         <v>1.36</v>
@@ -7035,7 +7043,7 @@
         <v>11</v>
       </c>
       <c r="AF46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG46" t="n">
         <v>19</v>
@@ -7101,7 +7109,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H47" t="n">
         <v>3.2</v>
@@ -7242,7 +7250,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="H48" t="n">
         <v>3.6</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
@@ -743,7 +743,7 @@
         <v>2.2</v>
       </c>
       <c r="X2" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Y2" t="n">
         <v>6</v>
@@ -767,7 +767,7 @@
         <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>81</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AM2" t="n">
         <v>81</v>
       </c>
       <c r="AN2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AO2" t="n">
         <v>501</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -884,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Y3" t="n">
         <v>7</v>
@@ -896,7 +896,7 @@
         <v>8.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
@@ -908,7 +908,7 @@
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
         <v>21</v>
@@ -917,7 +917,7 @@
         <v>67</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.14</v>
@@ -1022,28 +1022,28 @@
         <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="X4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y4" t="n">
         <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
       </c>
       <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
         <v>26</v>
       </c>
-      <c r="AC4" t="n">
-        <v>29</v>
-      </c>
       <c r="AD4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE4" t="n">
         <v>5.5</v>
@@ -1052,7 +1052,7 @@
         <v>6</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>101</v>
@@ -1061,16 +1061,16 @@
         <v>6.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>13</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
         <v>51</v>
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1153,10 +1153,10 @@
         <v>2.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
         <v>6</v>
@@ -1171,10 +1171,10 @@
         <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X5" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="Y5" t="n">
         <v>6</v>
@@ -1189,7 +1189,7 @@
         <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
@@ -1210,7 +1210,7 @@
         <v>6.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>12</v>
@@ -1234,10 +1234,10 @@
         <v>1.78</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="6">
@@ -1275,25 +1275,25 @@
         <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
         <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1302,28 +1302,28 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.5</v>
       </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.53</v>
-      </c>
       <c r="V6" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y6" t="n">
         <v>5.5</v>
@@ -1332,7 +1332,7 @@
         <v>8</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
         <v>17</v>
@@ -1341,10 +1341,10 @@
         <v>19</v>
       </c>
       <c r="AD6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF6" t="n">
         <v>6.5</v>
@@ -1353,10 +1353,10 @@
         <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>21</v>
@@ -1377,16 +1377,16 @@
         <v>501</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AR6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="7">
@@ -1433,7 +1433,7 @@
         <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L7" t="n">
         <v>4.5</v>
@@ -1463,7 +1463,7 @@
         <v>1.11</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V7" t="n">
         <v>2</v>
@@ -1699,98 +1699,98 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="H9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="J9" t="n">
         <v>9.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="L9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="S9" t="n">
-        <v>2.47</v>
+        <v>2.27</v>
       </c>
       <c r="T9" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="X9" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Z9" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA9" t="n">
         <v>37</v>
       </c>
       <c r="AB9" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AC9" t="n">
         <v>175</v>
       </c>
       <c r="AD9" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AH9" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AK9" t="n">
         <v>9.25</v>
       </c>
       <c r="AL9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AM9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AN9" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AO9" t="n">
         <v>600</v>
@@ -2122,10 +2122,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="H12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
         <v>17</v>
@@ -2137,13 +2137,13 @@
         <v>2.87</v>
       </c>
       <c r="L12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
         <v>1.14</v>
@@ -2158,10 +2158,10 @@
         <v>2.5</v>
       </c>
       <c r="S12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U12" t="n">
         <v>1.25</v>
@@ -2170,10 +2170,10 @@
         <v>3.75</v>
       </c>
       <c r="W12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -2203,25 +2203,25 @@
         <v>29</v>
       </c>
       <c r="AH12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI12" t="n">
         <v>34</v>
       </c>
       <c r="AJ12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="n">
         <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AM12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AN12" t="n">
         <v>101</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>81</v>
       </c>
       <c r="AO12" t="n">
         <v>101</v>
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I14" t="n">
         <v>2.75</v>
@@ -2420,34 +2420,34 @@
         <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="L14" t="n">
         <v>3.6</v>
       </c>
       <c r="M14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.13</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.14</v>
       </c>
       <c r="U14" t="n">
         <v>1.62</v>
@@ -2462,10 +2462,10 @@
         <v>1.62</v>
       </c>
       <c r="Y14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
         <v>12</v>
@@ -2480,7 +2480,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF14" t="n">
         <v>5.5</v>
@@ -2489,7 +2489,7 @@
         <v>19</v>
       </c>
       <c r="AH14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="n">
         <v>6.5</v>
@@ -2519,10 +2519,10 @@
         <v>1.8</v>
       </c>
       <c r="AR14" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="15">
@@ -2590,7 +2590,7 @@
         <v>2.15</v>
       </c>
       <c r="R15" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
         <v>4</v>
@@ -2662,16 +2662,16 @@
         <v>101</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="16">
@@ -2851,13 +2851,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J17" t="n">
         <v>3.6</v>
@@ -2872,7 +2872,7 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
         <v>1.4</v>
@@ -2881,10 +2881,10 @@
         <v>2.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R17" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S17" t="n">
         <v>4.33</v>
@@ -2995,43 +2995,43 @@
         <v>2.12</v>
       </c>
       <c r="H18" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="I18" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="K18" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="L18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M18" t="n">
         <v>1.15</v>
       </c>
       <c r="N18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P18" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S18" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="U18" t="n">
         <v>1.62</v>
@@ -3040,13 +3040,13 @@
         <v>2.15</v>
       </c>
       <c r="W18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X18" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z18" t="n">
         <v>8.5</v>
@@ -3064,34 +3064,34 @@
         <v>45</v>
       </c>
       <c r="AE18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AF18" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ18" t="n">
         <v>22</v>
       </c>
       <c r="AK18" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN18" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AO18" t="n">
         <v>101</v>
@@ -3415,28 +3415,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
         <v>2.8</v>
       </c>
       <c r="I21" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="K21" t="n">
         <v>1.91</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
         <v>1.5</v>
@@ -3469,7 +3469,7 @@
         <v>1.62</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
         <v>19</v>
@@ -3502,7 +3502,7 @@
         <v>6</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK21" t="n">
         <v>10</v>
@@ -3860,13 +3860,13 @@
         <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
         <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P24" t="n">
         <v>2.75</v>
@@ -3881,7 +3881,7 @@
         <v>4.33</v>
       </c>
       <c r="T24" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U24" t="n">
         <v>1.5</v>
@@ -3999,34 +3999,34 @@
         <v>3.6</v>
       </c>
       <c r="K25" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="L25" t="n">
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P25" t="n">
         <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S25" t="n">
         <v>6.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="U25" t="n">
         <v>1.67</v>
@@ -4143,16 +4143,16 @@
         <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
         <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P26" t="n">
         <v>3.4</v>
@@ -4167,7 +4167,7 @@
         <v>3.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U26" t="n">
         <v>1.4</v>
@@ -4212,7 +4212,7 @@
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ26" t="n">
         <v>8</v>
@@ -4287,13 +4287,13 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
         <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P27" t="n">
         <v>2.75</v>
@@ -4308,7 +4308,7 @@
         <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U27" t="n">
         <v>1.5</v>
@@ -4410,28 +4410,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
@@ -4503,7 +4503,7 @@
         <v>11</v>
       </c>
       <c r="AL28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM28" t="n">
         <v>26</v>
@@ -4575,22 +4575,22 @@
         <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R29" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S29" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T29" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U29" t="n">
         <v>1.33</v>
@@ -4692,13 +4692,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J30" t="n">
         <v>2.75</v>
@@ -4707,7 +4707,7 @@
         <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -4734,16 +4734,16 @@
         <v>1.44</v>
       </c>
       <c r="U30" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V30" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W30" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X30" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -4791,7 +4791,7 @@
         <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO30" t="n">
         <v>126</v>
@@ -4837,7 +4837,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
@@ -4855,13 +4855,13 @@
         <v>2.88</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
         <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P31" t="n">
         <v>4.5</v>
@@ -4876,7 +4876,7 @@
         <v>2.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U31" t="n">
         <v>1.3</v>
@@ -4944,10 +4944,10 @@
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="32">
@@ -5000,25 +5000,25 @@
         <v>3.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
         <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
         <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R32" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S32" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T32" t="n">
         <v>1.3</v>
@@ -5141,16 +5141,16 @@
         <v>7</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q33" t="n">
         <v>1.75</v>
@@ -5159,10 +5159,10 @@
         <v>2.05</v>
       </c>
       <c r="S33" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U33" t="n">
         <v>1.36</v>
@@ -5282,13 +5282,13 @@
         <v>3.2</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
         <v>10</v>
       </c>
       <c r="O34" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P34" t="n">
         <v>3.4</v>
@@ -5303,7 +5303,7 @@
         <v>3.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="U34" t="n">
         <v>1.4</v>
@@ -5414,22 +5414,22 @@
         <v>10</v>
       </c>
       <c r="J35" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="K35" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="L35" t="n">
         <v>8</v>
       </c>
       <c r="M35" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
         <v>17</v>
       </c>
       <c r="O35" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -5441,13 +5441,13 @@
         <v>2.4</v>
       </c>
       <c r="S35" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="T35" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U35" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V35" t="n">
         <v>3.5</v>
@@ -5459,13 +5459,13 @@
         <v>1.8</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB35" t="n">
         <v>8</v>
@@ -5495,7 +5495,7 @@
         <v>41</v>
       </c>
       <c r="AK35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL35" t="n">
         <v>101</v>
@@ -5512,10 +5512,10 @@
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="36">
@@ -5550,31 +5550,31 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J36" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="K36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L36" t="n">
         <v>4.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
         <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P36" t="n">
         <v>3.75</v>
@@ -5589,22 +5589,22 @@
         <v>3</v>
       </c>
       <c r="T36" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U36" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V36" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X36" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z36" t="n">
         <v>8.5</v>
@@ -5616,16 +5616,16 @@
         <v>13</v>
       </c>
       <c r="AC36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG36" t="n">
         <v>15</v>
@@ -5634,7 +5634,7 @@
         <v>51</v>
       </c>
       <c r="AI36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ36" t="n">
         <v>23</v>
@@ -5652,7 +5652,7 @@
         <v>41</v>
       </c>
       <c r="AO36" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP36" t="inlineStr"/>
       <c r="AQ36" t="inlineStr"/>
@@ -5832,109 +5832,109 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I38" t="n">
-        <v>3.8</v>
+        <v>4.65</v>
       </c>
       <c r="J38" t="n">
-        <v>2.57</v>
+        <v>2.27</v>
       </c>
       <c r="K38" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="L38" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="M38" t="n">
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="O38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T38" t="n">
         <v>1.32</v>
       </c>
-      <c r="P38" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U38" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V38" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="W38" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="X38" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Z38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB38" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AD38" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE38" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AF38" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="AG38" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH38" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI38" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AJ38" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AK38" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AL38" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AM38" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AN38" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AO38" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -5976,7 +5976,7 @@
         <v>3.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I39" t="n">
         <v>2.22</v>
@@ -5994,7 +5994,7 @@
         <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="O39" t="n">
         <v>1.42</v>
@@ -6015,19 +6015,19 @@
         <v>1.22</v>
       </c>
       <c r="U39" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V39" t="n">
         <v>2.35</v>
       </c>
       <c r="W39" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="X39" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z39" t="n">
         <v>16</v>
@@ -6042,10 +6042,10 @@
         <v>32</v>
       </c>
       <c r="AD39" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE39" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AF39" t="n">
         <v>5.9</v>
@@ -6057,7 +6057,7 @@
         <v>90</v>
       </c>
       <c r="AI39" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AJ39" t="n">
         <v>10</v>
@@ -6072,7 +6072,7 @@
         <v>21</v>
       </c>
       <c r="AN39" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AO39" t="n">
         <v>800</v>
@@ -6114,109 +6114,109 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I40" t="n">
         <v>3.25</v>
       </c>
       <c r="J40" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="K40" t="n">
         <v>2.02</v>
       </c>
       <c r="L40" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="M40" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="O40" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="P40" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R40" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S40" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="T40" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="U40" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V40" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="W40" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="X40" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="Y40" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Z40" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA40" t="n">
         <v>8.75</v>
       </c>
       <c r="AB40" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC40" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD40" t="n">
         <v>30</v>
       </c>
       <c r="AE40" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AG40" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH40" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI40" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AJ40" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AL40" t="n">
         <v>45</v>
       </c>
       <c r="AM40" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AN40" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO40" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6541,34 +6541,34 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="J43" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K43" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N43" t="n">
         <v>6.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P43" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q43" t="n">
         <v>2.7</v>
@@ -6580,7 +6580,7 @@
         <v>5.5</v>
       </c>
       <c r="T43" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="U43" t="n">
         <v>1.62</v>
@@ -6598,7 +6598,7 @@
         <v>5</v>
       </c>
       <c r="Z43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA43" t="n">
         <v>9.5</v>
@@ -6619,25 +6619,25 @@
         <v>6.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH43" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL43" t="n">
         <v>51</v>
       </c>
       <c r="AM43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN43" t="n">
         <v>51</v>
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>4</v>
@@ -7115,58 +7115,58 @@
         <v>3.2</v>
       </c>
       <c r="I47" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J47" t="n">
         <v>2.63</v>
       </c>
       <c r="K47" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L47" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N47" t="n">
+        <v>8</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z47" t="n">
         <v>8.5</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P47" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S47" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V47" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W47" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X47" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>9</v>
       </c>
       <c r="AA47" t="n">
         <v>9</v>
@@ -7178,22 +7178,22 @@
         <v>17</v>
       </c>
       <c r="AD47" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE47" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF47" t="n">
         <v>6</v>
       </c>
       <c r="AG47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH47" t="n">
         <v>51</v>
       </c>
       <c r="AI47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ47" t="n">
         <v>21</v>
@@ -7205,13 +7205,13 @@
         <v>41</v>
       </c>
       <c r="AM47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN47" t="n">
         <v>41</v>
       </c>
       <c r="AO47" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AP47" t="inlineStr"/>
       <c r="AQ47" t="inlineStr"/>
@@ -7250,7 +7250,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H48" t="n">
         <v>3.6</v>
@@ -7259,7 +7259,7 @@
         <v>4.5</v>
       </c>
       <c r="J48" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K48" t="n">
         <v>2.1</v>
@@ -7286,10 +7286,10 @@
         <v>1.75</v>
       </c>
       <c r="S48" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U48" t="n">
         <v>1.44</v>
@@ -7304,7 +7304,7 @@
         <v>1.73</v>
       </c>
       <c r="Y48" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z48" t="n">
         <v>7.5</v>
@@ -7313,7 +7313,7 @@
         <v>8.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC48" t="n">
         <v>15</v>
@@ -7325,7 +7325,7 @@
         <v>9.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG48" t="n">
         <v>19</v>
@@ -7334,13 +7334,13 @@
         <v>67</v>
       </c>
       <c r="AI48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ48" t="n">
         <v>23</v>
       </c>
       <c r="AK48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL48" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
@@ -710,7 +710,7 @@
         <v>9</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>11</v>
@@ -719,19 +719,19 @@
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U2" t="n">
         <v>1.36</v>
@@ -854,10 +854,10 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P3" t="n">
         <v>4.33</v>
@@ -869,10 +869,10 @@
         <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U3" t="n">
         <v>1.3</v>
@@ -992,34 +992,34 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P4" t="n">
         <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
         <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W4" t="n">
         <v>2.37</v>
@@ -1123,58 +1123,58 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
         <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="X5" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="Y5" t="n">
         <v>6</v>
@@ -1183,19 +1183,19 @@
         <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
         <v>29</v>
       </c>
       <c r="AD5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF5" t="n">
         <v>6</v>
@@ -1204,10 +1204,10 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ5" t="n">
         <v>12</v>
@@ -1216,13 +1216,13 @@
         <v>12</v>
       </c>
       <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
         <v>34</v>
       </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
       <c r="AN5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO5" t="n">
         <v>101</v>
@@ -1234,10 +1234,10 @@
         <v>1.78</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="6">
@@ -1272,34 +1272,34 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q6" t="n">
         <v>2.4</v>
@@ -1311,31 +1311,31 @@
         <v>4.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="U6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V6" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W6" t="n">
         <v>2.1</v>
       </c>
       <c r="X6" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Y6" t="n">
         <v>5.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA6" t="n">
         <v>9</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
         <v>19</v>
@@ -1433,7 +1433,7 @@
         <v>3.25</v>
       </c>
       <c r="K7" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
         <v>4.5</v>
@@ -1463,7 +1463,7 @@
         <v>1.11</v>
       </c>
       <c r="U7" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
         <v>2</v>
@@ -2432,16 +2432,16 @@
         <v>5.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
         <v>6</v>
@@ -2575,10 +2575,10 @@
         <v>7.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -2706,52 +2706,52 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K16" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="S16" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="T16" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U16" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W16" t="n">
         <v>1.95</v>
@@ -2769,7 +2769,7 @@
         <v>8.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC16" t="n">
         <v>11</v>
@@ -2781,25 +2781,25 @@
         <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
         <v>41</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM16" t="n">
         <v>51</v>
@@ -2813,10 +2813,10 @@
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="17">
@@ -2857,13 +2857,13 @@
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L17" t="n">
         <v>3.4</v>
@@ -2872,7 +2872,7 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.4</v>
@@ -2893,10 +2893,10 @@
         <v>1.2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W17" t="n">
         <v>1.91</v>
@@ -2905,7 +2905,7 @@
         <v>1.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z17" t="n">
         <v>13</v>
@@ -2929,7 +2929,7 @@
         <v>6</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>51</v>
@@ -2950,7 +2950,7 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO17" t="n">
         <v>351</v>
@@ -2992,103 +2992,103 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="H18" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="K18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L18" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N18" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="O18" t="n">
         <v>1.6</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R18" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U18" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V18" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="W18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X18" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Y18" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AD18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM18" t="n">
         <v>45</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>50</v>
       </c>
       <c r="AN18" t="n">
         <v>65</v>
@@ -3415,16 +3415,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
         <v>1.91</v>
@@ -3433,10 +3433,10 @@
         <v>2.88</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.5</v>
@@ -3472,7 +3472,7 @@
         <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
         <v>15</v>
@@ -3490,7 +3490,7 @@
         <v>6</v>
       </c>
       <c r="AF21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG21" t="n">
         <v>19</v>
@@ -3499,16 +3499,16 @@
         <v>67</v>
       </c>
       <c r="AI21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -3520,10 +3520,10 @@
         <v>101</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3842,16 +3842,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H24" t="n">
         <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K24" t="n">
         <v>2.05</v>
@@ -3860,13 +3860,13 @@
         <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
         <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
         <v>2.75</v>
@@ -3881,7 +3881,7 @@
         <v>4.33</v>
       </c>
       <c r="T24" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U24" t="n">
         <v>1.5</v>
@@ -3890,16 +3890,16 @@
         <v>2.5</v>
       </c>
       <c r="W24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X24" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y24" t="n">
         <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA24" t="n">
         <v>9</v>
@@ -3926,13 +3926,13 @@
         <v>81</v>
       </c>
       <c r="AI24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL24" t="n">
         <v>51</v>
@@ -4005,13 +4005,13 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P25" t="n">
         <v>2.2</v>
@@ -4026,7 +4026,7 @@
         <v>6.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="U25" t="n">
         <v>1.67</v>
@@ -4146,28 +4146,28 @@
         <v>2.37</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
         <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R26" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S26" t="n">
         <v>3.5</v>
       </c>
       <c r="T26" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U26" t="n">
         <v>1.4</v>
@@ -4287,16 +4287,16 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
         <v>9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
         <v>2.2</v>
@@ -4308,7 +4308,7 @@
         <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U27" t="n">
         <v>1.5</v>
@@ -4410,13 +4410,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J28" t="n">
         <v>3.1</v>
@@ -4431,7 +4431,7 @@
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
@@ -4464,7 +4464,7 @@
         <v>1.91</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z28" t="n">
         <v>11</v>
@@ -4473,7 +4473,7 @@
         <v>9.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC28" t="n">
         <v>21</v>
@@ -4494,13 +4494,13 @@
         <v>51</v>
       </c>
       <c r="AI28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
         <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL28" t="n">
         <v>34</v>
@@ -4509,7 +4509,7 @@
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO28" t="n">
         <v>301</v>
@@ -4551,61 +4551,61 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
         <v>3.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K29" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N29" t="n">
+        <v>15</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R29" t="n">
         <v>2.25</v>
       </c>
-      <c r="L29" t="n">
-        <v>4</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N29" t="n">
-        <v>13</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.1</v>
-      </c>
       <c r="S29" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W29" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="X29" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Y29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="n">
         <v>11</v>
@@ -4620,22 +4620,22 @@
         <v>15</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ29" t="n">
         <v>21</v>
@@ -4650,15 +4650,19 @@
         <v>26</v>
       </c>
       <c r="AN29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
+      <c r="AR29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4692,13 +4696,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
         <v>2.75</v>
@@ -4707,7 +4711,7 @@
         <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
@@ -4779,7 +4783,7 @@
         <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
         <v>12</v>
@@ -4791,7 +4795,7 @@
         <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
         <v>126</v>
@@ -4837,22 +4841,22 @@
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I31" t="n">
         <v>2.88</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.3</v>
-      </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="K31" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L31" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -4891,28 +4895,28 @@
         <v>2.38</v>
       </c>
       <c r="Y31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC31" t="n">
         <v>17</v>
       </c>
-      <c r="AA31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC31" t="n">
+      <c r="AD31" t="n">
         <v>21</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG31" t="n">
         <v>12</v>
@@ -4921,22 +4925,22 @@
         <v>34</v>
       </c>
       <c r="AI31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK31" t="n">
         <v>11</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AL31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN31" t="n">
         <v>23</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>21</v>
       </c>
       <c r="AO31" t="n">
         <v>126</v>
@@ -4982,109 +4986,109 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P32" t="n">
         <v>3.4</v>
       </c>
-      <c r="I32" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L32" t="n">
+      <c r="Q32" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S32" t="n">
         <v>3.5</v>
       </c>
-      <c r="M32" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N32" t="n">
-        <v>11</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="T32" t="n">
         <v>1.29</v>
       </c>
-      <c r="P32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V32" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W32" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="X32" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Z32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE32" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>11</v>
       </c>
       <c r="AF32" t="n">
         <v>6.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="n">
         <v>10</v>
       </c>
       <c r="AJ32" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM32" t="n">
         <v>29</v>
       </c>
-      <c r="AM32" t="n">
-        <v>23</v>
-      </c>
       <c r="AN32" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AO32" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5123,16 +5127,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H33" t="n">
         <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K33" t="n">
         <v>2.38</v>
@@ -5147,10 +5151,10 @@
         <v>13</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
         <v>1.75</v>
@@ -5165,7 +5169,7 @@
         <v>1.36</v>
       </c>
       <c r="U33" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V33" t="n">
         <v>3</v>
@@ -5177,7 +5181,7 @@
         <v>1.75</v>
       </c>
       <c r="Y33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z33" t="n">
         <v>6.5</v>
@@ -5186,7 +5190,7 @@
         <v>8.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
@@ -5210,7 +5214,7 @@
         <v>17</v>
       </c>
       <c r="AJ33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK33" t="n">
         <v>21</v>
@@ -5225,7 +5229,7 @@
         <v>51</v>
       </c>
       <c r="AO33" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5264,22 +5268,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L34" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.2</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
@@ -5294,37 +5298,37 @@
         <v>3.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U34" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="V34" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="W34" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="X34" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z34" t="n">
         <v>13</v>
       </c>
       <c r="AA34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB34" t="n">
         <v>26</v>
@@ -5336,19 +5340,19 @@
         <v>29</v>
       </c>
       <c r="AE34" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG34" t="n">
         <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ34" t="n">
         <v>13</v>
@@ -5357,7 +5361,7 @@
         <v>10</v>
       </c>
       <c r="AL34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM34" t="n">
         <v>21</v>
@@ -5414,10 +5418,10 @@
         <v>10</v>
       </c>
       <c r="J35" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="K35" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L35" t="n">
         <v>8</v>
@@ -5441,13 +5445,13 @@
         <v>2.4</v>
       </c>
       <c r="S35" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T35" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U35" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V35" t="n">
         <v>3.5</v>
@@ -5459,22 +5463,22 @@
         <v>1.8</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z35" t="n">
         <v>7</v>
       </c>
       <c r="AA35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC35" t="n">
         <v>11</v>
       </c>
       <c r="AD35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE35" t="n">
         <v>17</v>
@@ -5495,7 +5499,7 @@
         <v>41</v>
       </c>
       <c r="AK35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL35" t="n">
         <v>101</v>
@@ -5512,10 +5516,10 @@
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="36">
@@ -5550,16 +5554,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H36" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J36" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K36" t="n">
         <v>2.25</v>
@@ -5568,10 +5572,10 @@
         <v>4.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O36" t="n">
         <v>1.25</v>
@@ -5580,10 +5584,10 @@
         <v>3.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R36" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S36" t="n">
         <v>3</v>
@@ -5592,7 +5596,7 @@
         <v>1.36</v>
       </c>
       <c r="U36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V36" t="n">
         <v>3</v>
@@ -5613,7 +5617,7 @@
         <v>8.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC36" t="n">
         <v>13</v>
@@ -5622,10 +5626,10 @@
         <v>23</v>
       </c>
       <c r="AE36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG36" t="n">
         <v>15</v>
@@ -5973,52 +5977,52 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="H39" t="n">
-        <v>2.95</v>
+        <v>2.77</v>
       </c>
       <c r="I39" t="n">
-        <v>2.22</v>
+        <v>2.57</v>
       </c>
       <c r="J39" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K39" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="M39" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P39" t="n">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="R39" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S39" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T39" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V39" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="W39" t="n">
         <v>1.91</v>
@@ -6027,52 +6031,52 @@
         <v>1.8</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA39" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AC39" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AD39" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE39" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AF39" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH39" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AJ39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK39" t="n">
         <v>10</v>
       </c>
-      <c r="AK39" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AL39" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AM39" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN39" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AO39" t="n">
         <v>800</v>
@@ -6114,46 +6118,46 @@
         </is>
       </c>
       <c r="G40" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q40" t="n">
         <v>2.15</v>
       </c>
-      <c r="H40" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N40" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R40" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S40" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="T40" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="U40" t="n">
         <v>1.45</v>
@@ -6162,34 +6166,34 @@
         <v>2.55</v>
       </c>
       <c r="W40" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X40" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="Z40" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA40" t="n">
         <v>10</v>
       </c>
-      <c r="AA40" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AB40" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AC40" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AD40" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AE40" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AF40" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AG40" t="n">
         <v>14</v>
@@ -6198,22 +6202,22 @@
         <v>70</v>
       </c>
       <c r="AI40" t="n">
-        <v>9.25</v>
+        <v>7.3</v>
       </c>
       <c r="AJ40" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AL40" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AM40" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AN40" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO40" t="n">
         <v>600</v>
@@ -6541,40 +6545,40 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.35</v>
+        <v>1.73</v>
       </c>
       <c r="H43" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J43" t="n">
         <v>2.5</v>
       </c>
-      <c r="J43" t="n">
-        <v>2.63</v>
-      </c>
       <c r="K43" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L43" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M43" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N43" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O43" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P43" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R43" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S43" t="n">
         <v>5.5</v>
@@ -6583,28 +6587,28 @@
         <v>1.14</v>
       </c>
       <c r="U43" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V43" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W43" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X43" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y43" t="n">
         <v>5</v>
       </c>
       <c r="Z43" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA43" t="n">
         <v>9.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC43" t="n">
         <v>19</v>
@@ -6619,37 +6623,37 @@
         <v>6.5</v>
       </c>
       <c r="AG43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK43" t="n">
         <v>21</v>
       </c>
-      <c r="AH43" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>17</v>
-      </c>
       <c r="AL43" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM43" t="n">
         <v>51</v>
       </c>
-      <c r="AM43" t="n">
-        <v>41</v>
-      </c>
       <c r="AN43" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO43" t="n">
         <v>101</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>
@@ -6968,22 +6972,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J46" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
         <v>2.3</v>
       </c>
       <c r="L46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M46" t="n">
         <v>1.05</v>
@@ -7010,67 +7014,67 @@
         <v>1.33</v>
       </c>
       <c r="U46" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V46" t="n">
         <v>3</v>
       </c>
       <c r="W46" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X46" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA46" t="n">
         <v>8.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AC46" t="n">
         <v>13</v>
       </c>
       <c r="AD46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH46" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM46" t="n">
         <v>51</v>
       </c>
-      <c r="AI46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>41</v>
-      </c>
       <c r="AN46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO46" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AP46" t="inlineStr"/>
       <c r="AQ46" t="inlineStr"/>
@@ -7109,28 +7113,28 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="H47" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K47" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L47" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O47" t="n">
         <v>1.36</v>
@@ -7151,10 +7155,10 @@
         <v>1.22</v>
       </c>
       <c r="U47" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="V47" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="W47" t="n">
         <v>2</v>
@@ -7163,28 +7167,28 @@
         <v>1.73</v>
       </c>
       <c r="Y47" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA47" t="n">
         <v>9</v>
       </c>
       <c r="AB47" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD47" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE47" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF47" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG47" t="n">
         <v>17</v>
@@ -7193,22 +7197,22 @@
         <v>51</v>
       </c>
       <c r="AI47" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK47" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM47" t="n">
         <v>41</v>
       </c>
       <c r="AN47" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO47" t="n">
         <v>351</v>
@@ -7250,19 +7254,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H48" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I48" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J48" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K48" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L48" t="n">
         <v>5.5</v>
@@ -7271,7 +7275,7 @@
         <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.33</v>
@@ -7280,10 +7284,10 @@
         <v>3.25</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R48" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S48" t="n">
         <v>3.5</v>
@@ -7292,10 +7296,10 @@
         <v>1.29</v>
       </c>
       <c r="U48" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V48" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W48" t="n">
         <v>2</v>
@@ -7307,7 +7311,7 @@
         <v>6</v>
       </c>
       <c r="Z48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA48" t="n">
         <v>8.5</v>
@@ -7337,7 +7341,7 @@
         <v>12</v>
       </c>
       <c r="AJ48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK48" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
@@ -704,52 +704,52 @@
         <v>1.83</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
         <v>9</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
         <v>1.33</v>
       </c>
       <c r="U2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X2" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="Y2" t="n">
         <v>6</v>
       </c>
       <c r="Z2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA2" t="n">
         <v>9</v>
@@ -758,13 +758,13 @@
         <v>8</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF2" t="n">
         <v>9</v>
@@ -776,10 +776,10 @@
         <v>81</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -791,7 +791,7 @@
         <v>81</v>
       </c>
       <c r="AN2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AO2" t="n">
         <v>501</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -845,46 +845,46 @@
         <v>1.83</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
         <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="T3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W3" t="n">
         <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Y3" t="n">
         <v>7</v>
@@ -899,16 +899,16 @@
         <v>8.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG3" t="n">
         <v>21</v>
@@ -917,13 +917,13 @@
         <v>67</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>101</v>
@@ -935,7 +935,7 @@
         <v>51</v>
       </c>
       <c r="AO3" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
@@ -989,16 +989,16 @@
         <v>1.8</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
         <v>2.1</v>
@@ -1013,7 +1013,7 @@
         <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="U4" t="n">
         <v>1.73</v>
@@ -1022,13 +1022,13 @@
         <v>2.08</v>
       </c>
       <c r="W4" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="X4" t="n">
         <v>1.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z4" t="n">
         <v>9.5</v>
@@ -1040,13 +1040,13 @@
         <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF4" t="n">
         <v>6</v>
@@ -1064,7 +1064,7 @@
         <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1085,10 +1085,10 @@
         <v>1.78</v>
       </c>
       <c r="AR4" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="5">
@@ -1135,7 +1135,7 @@
         <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
@@ -1165,16 +1165,16 @@
         <v>1.07</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W5" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="X5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y5" t="n">
         <v>6</v>
@@ -1237,7 +1237,7 @@
         <v>5.2</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="6">
@@ -1272,34 +1272,34 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
         <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
         <v>2.4</v>
@@ -1311,37 +1311,37 @@
         <v>4.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="U6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V6" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W6" t="n">
         <v>2.1</v>
       </c>
       <c r="X6" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Y6" t="n">
         <v>5.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>9</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
         <v>19</v>
       </c>
       <c r="AD6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE6" t="n">
         <v>7</v>
@@ -1377,10 +1377,10 @@
         <v>501</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AR6" t="n">
         <v>3.95</v>
@@ -1421,16 +1421,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
         <v>2.7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
         <v>1.8</v>
@@ -1463,28 +1463,28 @@
         <v>1.11</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y7" t="n">
         <v>5.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
         <v>26</v>
@@ -1496,7 +1496,7 @@
         <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG7" t="n">
         <v>21</v>
@@ -1508,7 +1508,7 @@
         <v>7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -2432,16 +2432,16 @@
         <v>5.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
         <v>6</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2587,16 +2587,16 @@
         <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U15" t="n">
         <v>1.44</v>
@@ -2605,73 +2605,73 @@
         <v>2.63</v>
       </c>
       <c r="W15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z15" t="n">
         <v>5.5</v>
       </c>
-      <c r="Z15" t="n">
-        <v>6</v>
-      </c>
       <c r="AA15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN15" t="n">
         <v>81</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>67</v>
       </c>
       <c r="AO15" t="n">
         <v>101</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="16">
@@ -2872,7 +2872,7 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
         <v>1.4</v>
@@ -2881,10 +2881,10 @@
         <v>2.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S17" t="n">
         <v>4.33</v>
@@ -3133,28 +3133,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
         <v>2.85</v>
       </c>
       <c r="I19" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="K19" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.14</v>
       </c>
       <c r="N19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
         <v>1.57</v>
@@ -3178,7 +3178,7 @@
         <v>1.6</v>
       </c>
       <c r="V19" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W19" t="n">
         <v>2.25</v>
@@ -3193,25 +3193,25 @@
         <v>8</v>
       </c>
       <c r="AA19" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD19" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AF19" t="n">
         <v>5.8</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
         <v>150</v>
@@ -3220,19 +3220,19 @@
         <v>8.25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO19" t="n">
         <v>101</v>
@@ -3274,106 +3274,106 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.45</v>
+        <v>2.27</v>
       </c>
       <c r="H20" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="I20" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K20" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="L20" t="n">
-        <v>4.65</v>
+        <v>4.9</v>
       </c>
       <c r="M20" t="n">
         <v>1.18</v>
       </c>
       <c r="N20" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="O20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.7</v>
       </c>
-      <c r="P20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W20" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="X20" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AC20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD20" t="n">
         <v>50</v>
       </c>
       <c r="AE20" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="AF20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AG20" t="n">
         <v>18.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI20" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO20" t="n">
         <v>101</v>
@@ -3415,16 +3415,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H21" t="n">
         <v>2.88</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="K21" t="n">
         <v>1.91</v>
@@ -3448,7 +3448,7 @@
         <v>2.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3466,13 +3466,13 @@
         <v>2.2</v>
       </c>
       <c r="X21" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="n">
         <v>15</v>
@@ -3502,13 +3502,13 @@
         <v>5.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -3842,16 +3842,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
         <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K24" t="n">
         <v>2.05</v>
@@ -3860,10 +3860,10 @@
         <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -3872,10 +3872,10 @@
         <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R24" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="S24" t="n">
         <v>4.33</v>
@@ -3890,16 +3890,16 @@
         <v>2.5</v>
       </c>
       <c r="W24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X24" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Y24" t="n">
         <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA24" t="n">
         <v>9</v>
@@ -3926,13 +3926,13 @@
         <v>81</v>
       </c>
       <c r="AI24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>51</v>
@@ -3987,22 +3987,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.13</v>
@@ -4017,10 +4017,10 @@
         <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="R25" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S25" t="n">
         <v>6.5</v>
@@ -4035,25 +4035,25 @@
         <v>2.1</v>
       </c>
       <c r="W25" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="X25" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AA25" t="n">
         <v>11</v>
       </c>
       <c r="AB25" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC25" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AD25" t="n">
         <v>41</v>
@@ -4071,19 +4071,19 @@
         <v>81</v>
       </c>
       <c r="AI25" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
         <v>51</v>
@@ -4128,22 +4128,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H26" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L26" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -4158,28 +4158,28 @@
         <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R26" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="S26" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X26" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="Y26" t="n">
         <v>10</v>
@@ -4191,31 +4191,31 @@
         <v>13</v>
       </c>
       <c r="AB26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC26" t="n">
         <v>41</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>34</v>
       </c>
       <c r="AD26" t="n">
         <v>41</v>
       </c>
       <c r="AE26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
         <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI26" t="n">
         <v>6.5</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK26" t="n">
         <v>8.5</v>
@@ -4230,7 +4230,7 @@
         <v>29</v>
       </c>
       <c r="AO26" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4269,19 +4269,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L27" t="n">
         <v>4</v>
@@ -4302,7 +4302,7 @@
         <v>2.2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S27" t="n">
         <v>4</v>
@@ -4317,16 +4317,16 @@
         <v>2.5</v>
       </c>
       <c r="W27" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="X27" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA27" t="n">
         <v>9.5</v>
@@ -4335,7 +4335,7 @@
         <v>21</v>
       </c>
       <c r="AC27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD27" t="n">
         <v>34</v>
@@ -4371,7 +4371,7 @@
         <v>41</v>
       </c>
       <c r="AO27" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4410,22 +4410,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -4443,7 +4443,7 @@
         <v>2.15</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S28" t="n">
         <v>3.75</v>
@@ -4458,16 +4458,16 @@
         <v>2.63</v>
       </c>
       <c r="W28" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X28" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y28" t="n">
         <v>7</v>
       </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA28" t="n">
         <v>9.5</v>
@@ -4476,10 +4476,10 @@
         <v>21</v>
       </c>
       <c r="AC28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE28" t="n">
         <v>8.5</v>
@@ -4494,10 +4494,10 @@
         <v>51</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>12</v>
@@ -4506,7 +4506,7 @@
         <v>34</v>
       </c>
       <c r="AM28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN28" t="n">
         <v>41</v>
@@ -4696,13 +4696,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J30" t="n">
         <v>2.75</v>
@@ -4711,13 +4711,13 @@
         <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O30" t="n">
         <v>1.2</v>
@@ -4783,7 +4783,7 @@
         <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
         <v>12</v>
@@ -4795,7 +4795,7 @@
         <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO30" t="n">
         <v>126</v>
@@ -4841,22 +4841,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>3.7</v>
       </c>
       <c r="I31" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -4895,19 +4895,19 @@
         <v>2.38</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB31" t="n">
         <v>21</v>
       </c>
       <c r="AC31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD31" t="n">
         <v>21</v>
@@ -4916,13 +4916,13 @@
         <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG31" t="n">
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI31" t="n">
         <v>13</v>
@@ -4934,13 +4934,13 @@
         <v>11</v>
       </c>
       <c r="AL31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM31" t="n">
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO31" t="n">
         <v>126</v>
@@ -4948,10 +4948,10 @@
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="32">
@@ -4986,28 +4986,28 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="H32" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K32" t="n">
         <v>2.1</v>
       </c>
       <c r="L32" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
         <v>1.3</v>
@@ -5016,10 +5016,10 @@
         <v>3.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="R32" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="S32" t="n">
         <v>3.5</v>
@@ -5028,10 +5028,10 @@
         <v>1.29</v>
       </c>
       <c r="U32" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V32" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W32" t="n">
         <v>1.83</v>
@@ -5043,16 +5043,16 @@
         <v>7</v>
       </c>
       <c r="Z32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD32" t="n">
         <v>29</v>
@@ -5070,10 +5070,10 @@
         <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK32" t="n">
         <v>13</v>
@@ -5082,13 +5082,13 @@
         <v>41</v>
       </c>
       <c r="AM32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN32" t="n">
         <v>41</v>
       </c>
       <c r="AO32" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5409,10 +5409,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="I35" t="n">
         <v>10</v>
@@ -5421,7 +5421,7 @@
         <v>1.83</v>
       </c>
       <c r="K35" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L35" t="n">
         <v>8</v>
@@ -5430,25 +5430,25 @@
         <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R35" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S35" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U35" t="n">
         <v>1.29</v>
@@ -5463,7 +5463,7 @@
         <v>1.8</v>
       </c>
       <c r="Y35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z35" t="n">
         <v>7</v>
@@ -5481,45 +5481,45 @@
         <v>23</v>
       </c>
       <c r="AE35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI35" t="n">
         <v>23</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>21</v>
       </c>
       <c r="AJ35" t="n">
         <v>41</v>
       </c>
       <c r="AK35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL35" t="n">
         <v>101</v>
       </c>
       <c r="AM35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN35" t="n">
         <v>51</v>
       </c>
       <c r="AO35" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="36">
@@ -6118,40 +6118,40 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H40" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>2.57</v>
+        <v>2.77</v>
       </c>
       <c r="J40" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K40" t="n">
         <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M40" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O40" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P40" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R40" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S40" t="n">
         <v>3.65</v>
@@ -6169,58 +6169,58 @@
         <v>1.83</v>
       </c>
       <c r="X40" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Y40" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="Z40" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AC40" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AD40" t="n">
         <v>35</v>
       </c>
       <c r="AE40" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AF40" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AG40" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI40" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AJ40" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AL40" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AM40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN40" t="n">
         <v>37</v>
       </c>
       <c r="AO40" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AP40" t="inlineStr"/>
       <c r="AQ40" t="inlineStr"/>
@@ -6545,19 +6545,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.73</v>
+        <v>2.35</v>
       </c>
       <c r="H43" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="J43" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K43" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L43" t="n">
         <v>3.4</v>
@@ -6569,55 +6569,55 @@
         <v>6</v>
       </c>
       <c r="O43" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P43" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.6</v>
+        <v>2.87</v>
       </c>
       <c r="R43" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="S43" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T43" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U43" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="V43" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W43" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X43" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y43" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z43" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD43" t="n">
         <v>41</v>
       </c>
       <c r="AE43" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF43" t="n">
         <v>6.5</v>
@@ -6629,16 +6629,16 @@
         <v>101</v>
       </c>
       <c r="AI43" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL43" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM43" t="n">
         <v>51</v>
@@ -6650,10 +6650,10 @@
         <v>101</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AR43" t="inlineStr"/>
       <c r="AS43" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
@@ -1123,46 +1123,46 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
         <v>5.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P5" t="n">
         <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
         <v>7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="U5" t="n">
         <v>1.73</v>
@@ -1171,22 +1171,22 @@
         <v>2.08</v>
       </c>
       <c r="W5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="n">
         <v>11</v>
       </c>
-      <c r="AA5" t="n">
-        <v>12</v>
-      </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
         <v>29</v>
@@ -1195,7 +1195,7 @@
         <v>51</v>
       </c>
       <c r="AE5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF5" t="n">
         <v>6</v>
@@ -1207,19 +1207,19 @@
         <v>101</v>
       </c>
       <c r="AI5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>51</v>
@@ -1234,10 +1234,10 @@
         <v>1.78</v>
       </c>
       <c r="AR5" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="6">
@@ -1275,10 +1275,10 @@
         <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
         <v>2.75</v>
@@ -1296,34 +1296,34 @@
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U6" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V6" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y6" t="n">
         <v>5.5</v>
@@ -1332,7 +1332,7 @@
         <v>8</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" t="n">
         <v>17</v>
@@ -1344,19 +1344,19 @@
         <v>41</v>
       </c>
       <c r="AE6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF6" t="n">
         <v>6.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
         <v>21</v>
@@ -1377,16 +1377,16 @@
         <v>501</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AR6" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="7">
@@ -1427,16 +1427,16 @@
         <v>2.7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
         <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.14</v>
@@ -1451,22 +1451,22 @@
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W7" t="n">
         <v>2.38</v>
@@ -2408,40 +2408,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H14" t="n">
         <v>2.75</v>
       </c>
       <c r="I14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
         <v>1.83</v>
       </c>
       <c r="L14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
         <v>6</v>
@@ -2456,16 +2456,16 @@
         <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y14" t="n">
         <v>6.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA14" t="n">
         <v>12</v>
@@ -2495,13 +2495,13 @@
         <v>6.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
         <v>29</v>
@@ -2519,7 +2519,7 @@
         <v>1.8</v>
       </c>
       <c r="AR14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AS14" t="n">
         <v>1.17</v>
@@ -2557,40 +2557,40 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
+        <v>9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
         <v>8.5</v>
       </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>10</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R15" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
         <v>3.75</v>
@@ -2605,10 +2605,10 @@
         <v>2.63</v>
       </c>
       <c r="W15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y15" t="n">
         <v>5</v>
@@ -2620,7 +2620,7 @@
         <v>9.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
@@ -2629,10 +2629,10 @@
         <v>41</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG15" t="n">
         <v>29</v>
@@ -2641,19 +2641,19 @@
         <v>101</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>41</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AM15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN15" t="n">
         <v>81</v>
@@ -2662,16 +2662,16 @@
         <v>101</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="16">
@@ -2851,19 +2851,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
         <v>3.4</v>
@@ -2893,10 +2893,10 @@
         <v>1.2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V17" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W17" t="n">
         <v>1.91</v>
@@ -2905,7 +2905,7 @@
         <v>1.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="n">
         <v>13</v>
@@ -2929,7 +2929,7 @@
         <v>6</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
         <v>51</v>
@@ -2950,7 +2950,7 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO17" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-03.xlsx
@@ -1272,28 +1272,28 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
         <v>1.91</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>4.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5</v>
-      </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1302,16 +1302,16 @@
         <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U6" t="n">
         <v>1.57</v>
@@ -1320,25 +1320,25 @@
         <v>2.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y6" t="n">
         <v>5.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="n">
         <v>41</v>
@@ -1347,25 +1347,25 @@
         <v>6.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
         <v>81</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
@@ -1377,16 +1377,16 @@
         <v>501</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="7">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
         <v>2.7</v>
@@ -1430,19 +1430,19 @@
         <v>2.15</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
         <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>1.67</v>
@@ -1463,37 +1463,37 @@
         <v>1.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
         <v>2.08</v>
       </c>
       <c r="W7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y7" t="n">
         <v>5.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AF7" t="n">
         <v>5.5</v>
@@ -2560,58 +2560,58 @@
         <v>1.3</v>
       </c>
       <c r="H15" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="K15" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L15" t="n">
         <v>9.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.33</v>
       </c>
-      <c r="P15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.25</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="V15" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z15" t="n">
         <v>5.5</v>
@@ -2620,19 +2620,19 @@
         <v>9.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG15" t="n">
         <v>29</v>
@@ -2641,7 +2641,7 @@
         <v>101</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="n">
         <v>41</v>
@@ -2656,22 +2656,22 @@
         <v>81</v>
       </c>
       <c r="AN15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AO15" t="n">
         <v>101</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.34</v>
+        <v>2.7</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.05</v>
+        <v>2.55</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="16">
@@ -2851,22 +2851,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
         <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
@@ -2875,22 +2875,22 @@
         <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R17" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U17" t="n">
         <v>1.5</v>
@@ -2905,25 +2905,25 @@
         <v>1.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC17" t="n">
         <v>29</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>26</v>
       </c>
       <c r="AD17" t="n">
         <v>41</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
@@ -2935,19 +2935,19 @@
         <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AM17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
         <v>34</v>
